--- a/BackTest/2019-11-14 BackTest PPT.xlsx
+++ b/BackTest/2019-11-14 BackTest PPT.xlsx
@@ -985,7 +985,9 @@
       <c r="J12" t="n">
         <v>29</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-50</v>
+      </c>
       <c r="L12" t="n">
         <v>631.3</v>
       </c>
@@ -1038,7 +1040,9 @@
       <c r="J13" t="n">
         <v>30</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-36</v>
+      </c>
       <c r="L13" t="n">
         <v>630</v>
       </c>
@@ -1089,7 +1093,9 @@
       <c r="J14" t="n">
         <v>31</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-36</v>
+      </c>
       <c r="L14" t="n">
         <v>629.2</v>
       </c>
@@ -1142,7 +1148,9 @@
       <c r="J15" t="n">
         <v>42</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-3.03030303030303</v>
+      </c>
       <c r="L15" t="n">
         <v>629.4</v>
       </c>
@@ -1199,7 +1207,9 @@
       <c r="J16" t="n">
         <v>42</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>6.666666666666667</v>
+      </c>
       <c r="L16" t="n">
         <v>629.3</v>
       </c>
@@ -1256,7 +1266,9 @@
       <c r="J17" t="n">
         <v>45</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-9.67741935483871</v>
+      </c>
       <c r="L17" t="n">
         <v>629.2</v>
       </c>
@@ -1311,7 +1323,9 @@
       <c r="J18" t="n">
         <v>50</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>2.857142857142857</v>
+      </c>
       <c r="L18" t="n">
         <v>629.4</v>
       </c>
@@ -1366,7 +1380,9 @@
       <c r="J19" t="n">
         <v>50</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>2.857142857142857</v>
+      </c>
       <c r="L19" t="n">
         <v>629.5</v>
       </c>
@@ -1421,7 +1437,9 @@
       <c r="J20" t="n">
         <v>55</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>21.05263157894737</v>
+      </c>
       <c r="L20" t="n">
         <v>630.1</v>
       </c>
@@ -1476,7 +1494,9 @@
       <c r="J21" t="n">
         <v>55</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>76.92307692307693</v>
+      </c>
       <c r="L21" t="n">
         <v>630.9</v>
       </c>
@@ -1533,7 +1553,9 @@
       <c r="J22" t="n">
         <v>55</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>76</v>
+      </c>
       <c r="L22" t="n">
         <v>632.9</v>
       </c>
@@ -1591,7 +1613,7 @@
         <v>55</v>
       </c>
       <c r="K23" t="n">
-        <v>11.11111111111111</v>
+        <v>75</v>
       </c>
       <c r="L23" t="n">
         <v>634.8</v>
@@ -1650,7 +1672,7 @@
         <v>59</v>
       </c>
       <c r="K24" t="n">
-        <v>11.11111111111111</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L24" t="n">
         <v>636.2</v>
@@ -1705,7 +1727,7 @@
         <v>59</v>
       </c>
       <c r="K25" t="n">
-        <v>9.433962264150944</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L25" t="n">
         <v>636.5</v>
@@ -1760,7 +1782,7 @@
         <v>61</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L26" t="n">
         <v>636.6</v>
@@ -1815,7 +1837,7 @@
         <v>63</v>
       </c>
       <c r="K27" t="n">
-        <v>9.803921568627452</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L27" t="n">
         <v>637.2</v>
@@ -1870,7 +1892,7 @@
         <v>64</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>637.2</v>
@@ -1925,7 +1947,7 @@
         <v>66</v>
       </c>
       <c r="K29" t="n">
-        <v>-1.96078431372549</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L29" t="n">
         <v>637</v>
@@ -1980,7 +2002,7 @@
         <v>67</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L30" t="n">
         <v>636.4</v>
@@ -2035,7 +2057,7 @@
         <v>67</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>-50</v>
       </c>
       <c r="L31" t="n">
         <v>635.8</v>
@@ -2092,7 +2114,7 @@
         <v>67</v>
       </c>
       <c r="K32" t="n">
-        <v>36.84210526315789</v>
+        <v>-50</v>
       </c>
       <c r="L32" t="n">
         <v>635.2</v>
@@ -2143,7 +2165,7 @@
         <v>67</v>
       </c>
       <c r="K33" t="n">
-        <v>35.13513513513514</v>
+        <v>-25</v>
       </c>
       <c r="L33" t="n">
         <v>634.6</v>
@@ -2194,7 +2216,7 @@
         <v>67</v>
       </c>
       <c r="K34" t="n">
-        <v>33.33333333333333</v>
+        <v>-25</v>
       </c>
       <c r="L34" t="n">
         <v>634.4</v>
@@ -2245,7 +2267,7 @@
         <v>67</v>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>634.2</v>
@@ -2296,7 +2318,7 @@
         <v>67</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>-50</v>
       </c>
       <c r="L36" t="n">
         <v>634.2</v>
@@ -2347,7 +2369,7 @@
         <v>69</v>
       </c>
       <c r="K37" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L37" t="n">
         <v>634.2</v>
@@ -2398,7 +2420,7 @@
         <v>70</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L38" t="n">
         <v>634.2</v>
@@ -2449,7 +2471,7 @@
         <v>71</v>
       </c>
       <c r="K39" t="n">
-        <v>4.761904761904762</v>
+        <v>50</v>
       </c>
       <c r="L39" t="n">
         <v>634.5</v>
@@ -2500,7 +2522,7 @@
         <v>71</v>
       </c>
       <c r="K40" t="n">
-        <v>-25</v>
+        <v>50</v>
       </c>
       <c r="L40" t="n">
         <v>634.7</v>
@@ -2602,7 +2624,7 @@
         <v>80</v>
       </c>
       <c r="K42" t="n">
-        <v>-52</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L42" t="n">
         <v>633.4</v>
@@ -2653,7 +2675,7 @@
         <v>80</v>
       </c>
       <c r="K43" t="n">
-        <v>-52</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L43" t="n">
         <v>632.7</v>
@@ -2704,7 +2726,7 @@
         <v>80</v>
       </c>
       <c r="K44" t="n">
-        <v>-42.85714285714285</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L44" t="n">
         <v>632</v>
@@ -2755,7 +2777,7 @@
         <v>80</v>
       </c>
       <c r="K45" t="n">
-        <v>-42.85714285714285</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L45" t="n">
         <v>631.3</v>
@@ -2806,7 +2828,7 @@
         <v>81</v>
       </c>
       <c r="K46" t="n">
-        <v>-40</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L46" t="n">
         <v>630.5</v>
@@ -2857,7 +2879,7 @@
         <v>81</v>
       </c>
       <c r="K47" t="n">
-        <v>-55.55555555555556</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L47" t="n">
         <v>629.5</v>
@@ -2908,7 +2930,7 @@
         <v>81</v>
       </c>
       <c r="K48" t="n">
-        <v>-52.94117647058824</v>
+        <v>-100</v>
       </c>
       <c r="L48" t="n">
         <v>628.6</v>
@@ -2959,7 +2981,7 @@
         <v>82</v>
       </c>
       <c r="K49" t="n">
-        <v>-37.5</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L49" t="n">
         <v>627.7</v>
@@ -3010,7 +3032,7 @@
         <v>85</v>
       </c>
       <c r="K50" t="n">
-        <v>-22.22222222222222</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L50" t="n">
         <v>627.1</v>
@@ -3061,7 +3083,7 @@
         <v>91</v>
       </c>
       <c r="K51" t="n">
-        <v>8.333333333333332</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L51" t="n">
         <v>627.9</v>
@@ -3112,7 +3134,7 @@
         <v>92</v>
       </c>
       <c r="K52" t="n">
-        <v>4</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L52" t="n">
         <v>628.7</v>
@@ -3163,7 +3185,7 @@
         <v>95</v>
       </c>
       <c r="K53" t="n">
-        <v>-7.142857142857142</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L53" t="n">
         <v>629.2</v>
@@ -3214,7 +3236,7 @@
         <v>98</v>
       </c>
       <c r="K54" t="n">
-        <v>3.225806451612903</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L54" t="n">
         <v>630</v>
@@ -3265,7 +3287,7 @@
         <v>103</v>
       </c>
       <c r="K55" t="n">
-        <v>-11.11111111111111</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L55" t="n">
         <v>630.3</v>
@@ -3316,7 +3338,7 @@
         <v>103</v>
       </c>
       <c r="K56" t="n">
-        <v>-11.11111111111111</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L56" t="n">
         <v>630.7</v>
@@ -3367,7 +3389,7 @@
         <v>104</v>
       </c>
       <c r="K57" t="n">
-        <v>-14.28571428571428</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L57" t="n">
         <v>631.2</v>
@@ -3418,7 +3440,7 @@
         <v>105</v>
       </c>
       <c r="K58" t="n">
-        <v>-14.28571428571428</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L58" t="n">
         <v>631.6</v>
@@ -3469,7 +3491,7 @@
         <v>108</v>
       </c>
       <c r="K59" t="n">
-        <v>-8.108108108108109</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L59" t="n">
         <v>632.2</v>
@@ -3520,7 +3542,7 @@
         <v>109</v>
       </c>
       <c r="K60" t="n">
-        <v>-10.52631578947368</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L60" t="n">
         <v>632.4</v>
@@ -3571,7 +3593,7 @@
         <v>109</v>
       </c>
       <c r="K61" t="n">
-        <v>13.33333333333333</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L61" t="n">
         <v>632</v>
@@ -3622,7 +3644,7 @@
         <v>111</v>
       </c>
       <c r="K62" t="n">
-        <v>22.58064516129032</v>
+        <v>12.5</v>
       </c>
       <c r="L62" t="n">
         <v>631.9</v>
@@ -3673,7 +3695,7 @@
         <v>111</v>
       </c>
       <c r="K63" t="n">
-        <v>22.58064516129032</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L63" t="n">
         <v>632.1</v>
@@ -3724,7 +3746,7 @@
         <v>117</v>
       </c>
       <c r="K64" t="n">
-        <v>2.702702702702703</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L64" t="n">
         <v>631.4</v>
@@ -3775,7 +3797,7 @@
         <v>124</v>
       </c>
       <c r="K65" t="n">
-        <v>18.18181818181818</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L65" t="n">
         <v>631.9</v>
@@ -3826,7 +3848,7 @@
         <v>126</v>
       </c>
       <c r="K66" t="n">
-        <v>15.55555555555556</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L66" t="n">
         <v>632.2</v>
@@ -3877,7 +3899,7 @@
         <v>128</v>
       </c>
       <c r="K67" t="n">
-        <v>19.14893617021277</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L67" t="n">
         <v>632.6</v>
@@ -3928,7 +3950,7 @@
         <v>129</v>
       </c>
       <c r="K68" t="n">
-        <v>16.66666666666666</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L68" t="n">
         <v>633</v>
@@ -3979,7 +4001,7 @@
         <v>129</v>
       </c>
       <c r="K69" t="n">
-        <v>14.8936170212766</v>
+        <v>10</v>
       </c>
       <c r="L69" t="n">
         <v>633.1</v>
@@ -4030,7 +4052,7 @@
         <v>130</v>
       </c>
       <c r="K70" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L70" t="n">
         <v>633.4</v>
@@ -4081,7 +4103,7 @@
         <v>130</v>
       </c>
       <c r="K71" t="n">
-        <v>-2.564102564102564</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L71" t="n">
         <v>633.7</v>
@@ -4132,7 +4154,7 @@
         <v>130</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L72" t="n">
         <v>633.8</v>
@@ -4183,7 +4205,7 @@
         <v>130</v>
       </c>
       <c r="K73" t="n">
-        <v>8.571428571428571</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L73" t="n">
         <v>633.9</v>
@@ -4285,7 +4307,7 @@
         <v>130</v>
       </c>
       <c r="K75" t="n">
-        <v>18.51851851851852</v>
+        <v>50</v>
       </c>
       <c r="L75" t="n">
         <v>634.6</v>
@@ -4336,7 +4358,7 @@
         <v>130</v>
       </c>
       <c r="K76" t="n">
-        <v>18.51851851851852</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>634.8</v>
@@ -4387,7 +4409,7 @@
         <v>130</v>
       </c>
       <c r="K77" t="n">
-        <v>15.38461538461539</v>
+        <v>100</v>
       </c>
       <c r="L77" t="n">
         <v>634.8</v>
@@ -4438,7 +4460,7 @@
         <v>130</v>
       </c>
       <c r="K78" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L78" t="n">
         <v>634.9</v>
@@ -4488,9 +4510,7 @@
       <c r="J79" t="n">
         <v>130</v>
       </c>
-      <c r="K79" t="n">
-        <v>9.090909090909092</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>635</v>
       </c>
@@ -4539,9 +4559,7 @@
       <c r="J80" t="n">
         <v>130</v>
       </c>
-      <c r="K80" t="n">
-        <v>14.28571428571428</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>635</v>
       </c>
@@ -4591,7 +4609,7 @@
         <v>132</v>
       </c>
       <c r="K81" t="n">
-        <v>21.73913043478261</v>
+        <v>100</v>
       </c>
       <c r="L81" t="n">
         <v>635.2</v>
@@ -4642,7 +4660,7 @@
         <v>133</v>
       </c>
       <c r="K82" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L82" t="n">
         <v>635.3</v>
@@ -4693,7 +4711,7 @@
         <v>134</v>
       </c>
       <c r="K83" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>635.3</v>
@@ -4744,7 +4762,7 @@
         <v>134</v>
       </c>
       <c r="K84" t="n">
-        <v>41.17647058823529</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>635.3</v>
@@ -4846,7 +4864,7 @@
         <v>136</v>
       </c>
       <c r="K86" t="n">
-        <v>40</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L86" t="n">
         <v>635.5</v>
@@ -4897,7 +4915,7 @@
         <v>146</v>
       </c>
       <c r="K87" t="n">
-        <v>-44.44444444444444</v>
+        <v>-50</v>
       </c>
       <c r="L87" t="n">
         <v>634.7</v>
@@ -4948,7 +4966,7 @@
         <v>155</v>
       </c>
       <c r="K88" t="n">
-        <v>7.692307692307693</v>
+        <v>4</v>
       </c>
       <c r="L88" t="n">
         <v>634.8</v>
@@ -4999,7 +5017,7 @@
         <v>155</v>
       </c>
       <c r="K89" t="n">
-        <v>7.692307692307693</v>
+        <v>4</v>
       </c>
       <c r="L89" t="n">
         <v>634.9</v>
@@ -5050,7 +5068,7 @@
         <v>156</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L90" t="n">
         <v>634.9</v>
@@ -5101,7 +5119,7 @@
         <v>157</v>
       </c>
       <c r="K91" t="n">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>634.8</v>
@@ -5152,7 +5170,7 @@
         <v>157</v>
       </c>
       <c r="K92" t="n">
-        <v>3.703703703703703</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L92" t="n">
         <v>634.8</v>
@@ -5203,7 +5221,7 @@
         <v>159</v>
       </c>
       <c r="K93" t="n">
-        <v>-3.448275862068965</v>
+        <v>-4</v>
       </c>
       <c r="L93" t="n">
         <v>634.7</v>
@@ -5254,7 +5272,7 @@
         <v>159</v>
       </c>
       <c r="K94" t="n">
-        <v>-3.448275862068965</v>
+        <v>-4</v>
       </c>
       <c r="L94" t="n">
         <v>634.6</v>
@@ -5305,7 +5323,7 @@
         <v>162</v>
       </c>
       <c r="K95" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>634.8</v>
@@ -5356,7 +5374,7 @@
         <v>167</v>
       </c>
       <c r="K96" t="n">
-        <v>-8.108108108108109</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L96" t="n">
         <v>634.3</v>
@@ -5407,7 +5425,7 @@
         <v>171</v>
       </c>
       <c r="K97" t="n">
-        <v>2.439024390243902</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>635.2</v>
@@ -5458,7 +5476,7 @@
         <v>171</v>
       </c>
       <c r="K98" t="n">
-        <v>2.439024390243902</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>635.2</v>
@@ -5560,7 +5578,7 @@
         <v>173</v>
       </c>
       <c r="K100" t="n">
-        <v>2.325581395348837</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>635.2</v>
@@ -5611,7 +5629,7 @@
         <v>178</v>
       </c>
       <c r="K101" t="n">
-        <v>-13.04347826086956</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L101" t="n">
         <v>634.7</v>
@@ -5662,7 +5680,7 @@
         <v>180</v>
       </c>
       <c r="K102" t="n">
-        <v>-14.8936170212766</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L102" t="n">
         <v>634</v>
@@ -5713,7 +5731,7 @@
         <v>180</v>
       </c>
       <c r="K103" t="n">
-        <v>-13.04347826086956</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L103" t="n">
         <v>633.5</v>
@@ -5764,7 +5782,7 @@
         <v>182</v>
       </c>
       <c r="K104" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L104" t="n">
         <v>632.8</v>
@@ -5815,7 +5833,7 @@
         <v>182</v>
       </c>
       <c r="K105" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L105" t="n">
         <v>631.8</v>
@@ -5866,7 +5884,7 @@
         <v>184</v>
       </c>
       <c r="K106" t="n">
-        <v>-16.66666666666666</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L106" t="n">
         <v>631.5</v>
@@ -5917,7 +5935,7 @@
         <v>193</v>
       </c>
       <c r="K107" t="n">
-        <v>-14.8936170212766</v>
+        <v>-72.72727272727273</v>
       </c>
       <c r="L107" t="n">
         <v>629.9</v>
@@ -5968,7 +5986,7 @@
         <v>202</v>
       </c>
       <c r="K108" t="n">
-        <v>-14.8936170212766</v>
+        <v>-20</v>
       </c>
       <c r="L108" t="n">
         <v>629.2</v>
@@ -6019,7 +6037,7 @@
         <v>202</v>
       </c>
       <c r="K109" t="n">
-        <v>-14.8936170212766</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L109" t="n">
         <v>628.6</v>
@@ -6070,7 +6088,7 @@
         <v>202</v>
       </c>
       <c r="K110" t="n">
-        <v>-13.04347826086956</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L110" t="n">
         <v>627.9</v>
@@ -6121,7 +6139,7 @@
         <v>202</v>
       </c>
       <c r="K111" t="n">
-        <v>-15.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>627.7</v>
@@ -6172,7 +6190,7 @@
         <v>202</v>
       </c>
       <c r="K112" t="n">
-        <v>-15.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>627.7</v>
@@ -6223,7 +6241,7 @@
         <v>207</v>
       </c>
       <c r="K113" t="n">
-        <v>-20.83333333333334</v>
+        <v>-12</v>
       </c>
       <c r="L113" t="n">
         <v>627.2</v>
@@ -6274,7 +6292,7 @@
         <v>212</v>
       </c>
       <c r="K114" t="n">
-        <v>-9.433962264150944</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L114" t="n">
         <v>627.4</v>
@@ -6325,7 +6343,7 @@
         <v>212</v>
       </c>
       <c r="K115" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>627.6</v>
@@ -6376,7 +6394,7 @@
         <v>212</v>
       </c>
       <c r="K116" t="n">
-        <v>-6.666666666666667</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L116" t="n">
         <v>627.6</v>
@@ -6427,7 +6445,7 @@
         <v>212</v>
       </c>
       <c r="K117" t="n">
-        <v>-17.07317073170732</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>628.5</v>
@@ -6478,7 +6496,7 @@
         <v>212</v>
       </c>
       <c r="K118" t="n">
-        <v>-17.07317073170732</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>628.5</v>
@@ -6529,7 +6547,7 @@
         <v>217</v>
       </c>
       <c r="K119" t="n">
-        <v>-2.222222222222222</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L119" t="n">
         <v>629</v>
@@ -6580,7 +6598,7 @@
         <v>217</v>
       </c>
       <c r="K120" t="n">
-        <v>-4.545454545454546</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L120" t="n">
         <v>629.5</v>
@@ -6631,7 +6649,7 @@
         <v>219</v>
       </c>
       <c r="K121" t="n">
-        <v>12.19512195121951</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L121" t="n">
         <v>630.2</v>
@@ -6682,7 +6700,7 @@
         <v>229</v>
       </c>
       <c r="K122" t="n">
-        <v>-6.122448979591836</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L122" t="n">
         <v>629.9</v>
@@ -6733,7 +6751,7 @@
         <v>230</v>
       </c>
       <c r="K123" t="n">
-        <v>-4</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L123" t="n">
         <v>630.2</v>
@@ -6784,7 +6802,7 @@
         <v>230</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L124" t="n">
         <v>630</v>
@@ -6835,7 +6853,7 @@
         <v>231</v>
       </c>
       <c r="K125" t="n">
-        <v>2.040816326530612</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L125" t="n">
         <v>629.9</v>
@@ -6886,7 +6904,7 @@
         <v>231</v>
       </c>
       <c r="K126" t="n">
-        <v>-2.127659574468085</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L126" t="n">
         <v>629.8</v>
@@ -6937,7 +6955,7 @@
         <v>237</v>
       </c>
       <c r="K127" t="n">
-        <v>31.81818181818182</v>
+        <v>20</v>
       </c>
       <c r="L127" t="n">
         <v>630.3</v>
@@ -6988,7 +7006,7 @@
         <v>238</v>
       </c>
       <c r="K128" t="n">
-        <v>11.11111111111111</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L128" t="n">
         <v>630.7</v>
@@ -7039,7 +7057,7 @@
         <v>240</v>
       </c>
       <c r="K129" t="n">
-        <v>5.263157894736842</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L129" t="n">
         <v>630.4</v>
@@ -7090,7 +7108,7 @@
         <v>244</v>
       </c>
       <c r="K130" t="n">
-        <v>-4.761904761904762</v>
+        <v>-36</v>
       </c>
       <c r="L130" t="n">
         <v>629.7</v>
@@ -7141,7 +7159,7 @@
         <v>244</v>
       </c>
       <c r="K131" t="n">
-        <v>-4.761904761904762</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L131" t="n">
         <v>628.8</v>
@@ -7192,7 +7210,7 @@
         <v>244</v>
       </c>
       <c r="K132" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>628.9</v>
@@ -7243,7 +7261,7 @@
         <v>244</v>
       </c>
       <c r="K133" t="n">
-        <v>8.108108108108109</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>628.9</v>
@@ -7294,7 +7312,7 @@
         <v>244</v>
       </c>
       <c r="K134" t="n">
-        <v>-6.25</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L134" t="n">
         <v>628.9</v>
@@ -7345,7 +7363,7 @@
         <v>244</v>
       </c>
       <c r="K135" t="n">
-        <v>-6.25</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L135" t="n">
         <v>628.8</v>
@@ -7396,7 +7414,7 @@
         <v>244</v>
       </c>
       <c r="K136" t="n">
-        <v>-6.25</v>
+        <v>-100</v>
       </c>
       <c r="L136" t="n">
         <v>628.7</v>
@@ -7447,7 +7465,7 @@
         <v>250</v>
       </c>
       <c r="K137" t="n">
-        <v>10.52631578947368</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
         <v>628.6</v>
@@ -7498,7 +7516,7 @@
         <v>250</v>
       </c>
       <c r="K138" t="n">
-        <v>10.52631578947368</v>
+        <v>20</v>
       </c>
       <c r="L138" t="n">
         <v>628.6</v>
@@ -7549,7 +7567,7 @@
         <v>250</v>
       </c>
       <c r="K139" t="n">
-        <v>-3.03030303030303</v>
+        <v>100</v>
       </c>
       <c r="L139" t="n">
         <v>628.8</v>
@@ -7600,7 +7618,7 @@
         <v>250</v>
       </c>
       <c r="K140" t="n">
-        <v>-3.03030303030303</v>
+        <v>100</v>
       </c>
       <c r="L140" t="n">
         <v>629.4</v>
@@ -7651,7 +7669,7 @@
         <v>252</v>
       </c>
       <c r="K141" t="n">
-        <v>-3.03030303030303</v>
+        <v>100</v>
       </c>
       <c r="L141" t="n">
         <v>630.2</v>
@@ -7702,7 +7720,7 @@
         <v>253</v>
       </c>
       <c r="K142" t="n">
-        <v>41.66666666666667</v>
+        <v>100</v>
       </c>
       <c r="L142" t="n">
         <v>631.1</v>
@@ -7753,7 +7771,7 @@
         <v>253</v>
       </c>
       <c r="K143" t="n">
-        <v>39.1304347826087</v>
+        <v>100</v>
       </c>
       <c r="L143" t="n">
         <v>632</v>
@@ -7804,7 +7822,7 @@
         <v>256</v>
       </c>
       <c r="K144" t="n">
-        <v>46.15384615384615</v>
+        <v>100</v>
       </c>
       <c r="L144" t="n">
         <v>633.2</v>
@@ -7855,7 +7873,7 @@
         <v>257</v>
       </c>
       <c r="K145" t="n">
-        <v>46.15384615384615</v>
+        <v>100</v>
       </c>
       <c r="L145" t="n">
         <v>634.5</v>
@@ -7906,7 +7924,7 @@
         <v>257</v>
       </c>
       <c r="K146" t="n">
-        <v>46.15384615384615</v>
+        <v>100</v>
       </c>
       <c r="L146" t="n">
         <v>635.8</v>
@@ -7957,7 +7975,7 @@
         <v>257</v>
       </c>
       <c r="K147" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L147" t="n">
         <v>636.5</v>
@@ -8008,7 +8026,7 @@
         <v>257</v>
       </c>
       <c r="K148" t="n">
-        <v>36.84210526315789</v>
+        <v>100</v>
       </c>
       <c r="L148" t="n">
         <v>637.2</v>
@@ -8059,7 +8077,7 @@
         <v>257</v>
       </c>
       <c r="K149" t="n">
-        <v>52.94117647058824</v>
+        <v>100</v>
       </c>
       <c r="L149" t="n">
         <v>637.9</v>
@@ -8773,7 +8791,7 @@
         <v>285</v>
       </c>
       <c r="K163" t="n">
-        <v>93.75</v>
+        <v>92</v>
       </c>
       <c r="L163" t="n">
         <v>652.6</v>
@@ -8824,7 +8842,7 @@
         <v>285</v>
       </c>
       <c r="K164" t="n">
-        <v>93.10344827586206</v>
+        <v>92</v>
       </c>
       <c r="L164" t="n">
         <v>654.9</v>
@@ -8875,7 +8893,7 @@
         <v>292</v>
       </c>
       <c r="K165" t="n">
-        <v>54.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L165" t="n">
         <v>656.5</v>
@@ -8926,7 +8944,7 @@
         <v>292</v>
       </c>
       <c r="K166" t="n">
-        <v>54.28571428571428</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L166" t="n">
         <v>658.1</v>
@@ -8977,7 +8995,7 @@
         <v>298</v>
       </c>
       <c r="K167" t="n">
-        <v>31.70731707317073</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L167" t="n">
         <v>658.9</v>
@@ -9028,7 +9046,7 @@
         <v>304</v>
       </c>
       <c r="K168" t="n">
-        <v>40.42553191489361</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L168" t="n">
         <v>660</v>
@@ -9079,7 +9097,7 @@
         <v>304</v>
       </c>
       <c r="K169" t="n">
-        <v>40.42553191489361</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L169" t="n">
         <v>661</v>
@@ -9130,7 +9148,7 @@
         <v>310</v>
       </c>
       <c r="K170" t="n">
-        <v>21.56862745098039</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L170" t="n">
         <v>660.3</v>
@@ -9181,7 +9199,7 @@
         <v>313</v>
       </c>
       <c r="K171" t="n">
-        <v>25.92592592592592</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L171" t="n">
         <v>659.7</v>
@@ -9232,7 +9250,7 @@
         <v>316</v>
       </c>
       <c r="K172" t="n">
-        <v>19.29824561403509</v>
+        <v>-41.93548387096774</v>
       </c>
       <c r="L172" t="n">
         <v>658.3</v>
@@ -9283,7 +9301,7 @@
         <v>317</v>
       </c>
       <c r="K173" t="n">
-        <v>15.78947368421053</v>
+        <v>-43.75</v>
       </c>
       <c r="L173" t="n">
         <v>656.9</v>
@@ -9334,7 +9352,7 @@
         <v>322</v>
       </c>
       <c r="K174" t="n">
-        <v>6.451612903225806</v>
+        <v>-40</v>
       </c>
       <c r="L174" t="n">
         <v>655</v>
@@ -9385,7 +9403,7 @@
         <v>329</v>
       </c>
       <c r="K175" t="n">
-        <v>15.94202898550724</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L175" t="n">
         <v>654.5</v>
@@ -9436,7 +9454,7 @@
         <v>335</v>
       </c>
       <c r="K176" t="n">
-        <v>6.666666666666667</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L176" t="n">
         <v>653.4</v>
@@ -9487,7 +9505,7 @@
         <v>341</v>
       </c>
       <c r="K177" t="n">
-        <v>11.39240506329114</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L177" t="n">
         <v>653.5</v>
@@ -9538,7 +9556,7 @@
         <v>341</v>
       </c>
       <c r="K178" t="n">
-        <v>7.894736842105263</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L178" t="n">
         <v>653</v>
@@ -9589,7 +9607,7 @@
         <v>344</v>
       </c>
       <c r="K179" t="n">
-        <v>2.564102564102564</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L179" t="n">
         <v>652.2</v>
@@ -9640,7 +9658,7 @@
         <v>344</v>
       </c>
       <c r="K180" t="n">
-        <v>-13.43283582089552</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L180" t="n">
         <v>652</v>
@@ -9691,7 +9709,7 @@
         <v>352</v>
       </c>
       <c r="K181" t="n">
-        <v>-26.02739726027397</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L181" t="n">
         <v>650.7</v>
@@ -9742,7 +9760,7 @@
         <v>363</v>
       </c>
       <c r="K182" t="n">
-        <v>-16.45569620253164</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L182" t="n">
         <v>650.8</v>
@@ -9793,7 +9811,7 @@
         <v>367</v>
       </c>
       <c r="K183" t="n">
-        <v>-9.75609756097561</v>
+        <v>24.44444444444444</v>
       </c>
       <c r="L183" t="n">
         <v>651.4</v>
@@ -9844,7 +9862,7 @@
         <v>367</v>
       </c>
       <c r="K184" t="n">
-        <v>-9.75609756097561</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="L184" t="n">
         <v>652.5</v>
@@ -9895,7 +9913,7 @@
         <v>367</v>
       </c>
       <c r="K185" t="n">
-        <v>-1.333333333333333</v>
+        <v>31.25</v>
       </c>
       <c r="L185" t="n">
         <v>652.9</v>
@@ -9946,7 +9964,7 @@
         <v>379</v>
       </c>
       <c r="K186" t="n">
-        <v>12.64367816091954</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="L186" t="n">
         <v>655.1</v>
@@ -9997,7 +10015,7 @@
         <v>379</v>
       </c>
       <c r="K187" t="n">
-        <v>20.98765432098765</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="L187" t="n">
         <v>656.7</v>
@@ -10048,7 +10066,7 @@
         <v>379</v>
       </c>
       <c r="K188" t="n">
-        <v>14.66666666666667</v>
+        <v>54.28571428571428</v>
       </c>
       <c r="L188" t="n">
         <v>658.3</v>
@@ -10099,7 +10117,7 @@
         <v>379</v>
       </c>
       <c r="K189" t="n">
-        <v>14.66666666666667</v>
+        <v>54.28571428571428</v>
       </c>
       <c r="L189" t="n">
         <v>660.2</v>
@@ -10150,7 +10168,7 @@
         <v>379</v>
       </c>
       <c r="K190" t="n">
-        <v>24.63768115942029</v>
+        <v>100</v>
       </c>
       <c r="L190" t="n">
         <v>662.1</v>
@@ -10201,7 +10219,7 @@
         <v>382</v>
       </c>
       <c r="K191" t="n">
-        <v>15.94202898550724</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L191" t="n">
         <v>664.5</v>
@@ -10252,7 +10270,7 @@
         <v>386</v>
       </c>
       <c r="K192" t="n">
-        <v>14.28571428571428</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L192" t="n">
         <v>665.4</v>
@@ -10303,7 +10321,7 @@
         <v>391</v>
       </c>
       <c r="K193" t="n">
-        <v>8.108108108108109</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>665.4</v>
@@ -10354,7 +10372,7 @@
         <v>395</v>
       </c>
       <c r="K194" t="n">
-        <v>20.54794520547945</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L194" t="n">
         <v>665.8</v>
@@ -10405,7 +10423,7 @@
         <v>397</v>
       </c>
       <c r="K195" t="n">
-        <v>14.70588235294118</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L195" t="n">
         <v>666.4</v>
@@ -10456,7 +10474,7 @@
         <v>397</v>
       </c>
       <c r="K196" t="n">
-        <v>25.80645161290322</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L196" t="n">
         <v>665.8</v>
@@ -10507,7 +10525,7 @@
         <v>399</v>
       </c>
       <c r="K197" t="n">
-        <v>13.79310344827586</v>
+        <v>-40</v>
       </c>
       <c r="L197" t="n">
         <v>665</v>
@@ -10558,7 +10576,7 @@
         <v>399</v>
       </c>
       <c r="K198" t="n">
-        <v>13.79310344827586</v>
+        <v>-40</v>
       </c>
       <c r="L198" t="n">
         <v>664.2</v>
@@ -10609,7 +10627,7 @@
         <v>405</v>
       </c>
       <c r="K199" t="n">
-        <v>27.86885245901639</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L199" t="n">
         <v>664</v>
@@ -10660,7 +10678,7 @@
         <v>408</v>
       </c>
       <c r="K200" t="n">
-        <v>31.25</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L200" t="n">
         <v>664.1</v>
@@ -10711,7 +10729,7 @@
         <v>408</v>
       </c>
       <c r="K201" t="n">
-        <v>50</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L201" t="n">
         <v>664.5</v>
@@ -10762,7 +10780,7 @@
         <v>410</v>
       </c>
       <c r="K202" t="n">
-        <v>40.42553191489361</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="L202" t="n">
         <v>665.5</v>
@@ -10813,7 +10831,7 @@
         <v>410</v>
       </c>
       <c r="K203" t="n">
-        <v>34.88372093023256</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L203" t="n">
         <v>667</v>
@@ -10864,7 +10882,7 @@
         <v>415</v>
       </c>
       <c r="K204" t="n">
-        <v>20.83333333333334</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L204" t="n">
         <v>667.6</v>
@@ -10915,7 +10933,7 @@
         <v>420</v>
       </c>
       <c r="K205" t="n">
-        <v>28.30188679245283</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L205" t="n">
         <v>668.5</v>
@@ -10966,7 +10984,7 @@
         <v>431</v>
       </c>
       <c r="K206" t="n">
-        <v>26.92307692307692</v>
+        <v>68.75</v>
       </c>
       <c r="L206" t="n">
         <v>670.5</v>
@@ -11017,7 +11035,7 @@
         <v>431</v>
       </c>
       <c r="K207" t="n">
-        <v>26.92307692307692</v>
+        <v>68.75</v>
       </c>
       <c r="L207" t="n">
         <v>672.7</v>
@@ -11068,7 +11086,7 @@
         <v>432</v>
       </c>
       <c r="K208" t="n">
-        <v>28.30188679245283</v>
+        <v>62.96296296296296</v>
       </c>
       <c r="L208" t="n">
         <v>675</v>
@@ -11119,7 +11137,7 @@
         <v>434</v>
       </c>
       <c r="K209" t="n">
-        <v>30.90909090909091</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="L209" t="n">
         <v>676.9</v>
@@ -11170,7 +11188,7 @@
         <v>438</v>
       </c>
       <c r="K210" t="n">
-        <v>35.59322033898305</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L210" t="n">
         <v>678.9</v>
@@ -11221,7 +11239,7 @@
         <v>443</v>
       </c>
       <c r="K211" t="n">
-        <v>47.54098360655738</v>
+        <v>69.6969696969697</v>
       </c>
       <c r="L211" t="n">
         <v>681.4</v>
@@ -11272,7 +11290,7 @@
         <v>445</v>
       </c>
       <c r="K212" t="n">
-        <v>59.32203389830508</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L212" t="n">
         <v>683.9</v>
@@ -11323,7 +11341,7 @@
         <v>445</v>
       </c>
       <c r="K213" t="n">
-        <v>74.07407407407408</v>
+        <v>100</v>
       </c>
       <c r="L213" t="n">
         <v>686.4</v>
@@ -11374,7 +11392,7 @@
         <v>453</v>
       </c>
       <c r="K214" t="n">
-        <v>48.27586206896552</v>
+        <v>51.51515151515152</v>
       </c>
       <c r="L214" t="n">
         <v>688.6</v>
@@ -11425,7 +11443,7 @@
         <v>461</v>
       </c>
       <c r="K215" t="n">
-        <v>53.125</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L215" t="n">
         <v>691.1</v>
@@ -11476,7 +11494,7 @@
         <v>469</v>
       </c>
       <c r="K216" t="n">
-        <v>36.11111111111111</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L216" t="n">
         <v>691.7</v>
@@ -11527,7 +11545,7 @@
         <v>473</v>
       </c>
       <c r="K217" t="n">
-        <v>43.24324324324324</v>
+        <v>21.95121951219512</v>
       </c>
       <c r="L217" t="n">
         <v>692.7</v>
@@ -11578,7 +11596,7 @@
         <v>475</v>
       </c>
       <c r="K218" t="n">
-        <v>44.73684210526316</v>
+        <v>21.95121951219512</v>
       </c>
       <c r="L218" t="n">
         <v>693.8</v>
@@ -11629,7 +11647,7 @@
         <v>476</v>
       </c>
       <c r="K219" t="n">
-        <v>38.0281690140845</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="L219" t="n">
         <v>694.6</v>
@@ -11680,7 +11698,7 @@
         <v>478</v>
       </c>
       <c r="K220" t="n">
-        <v>31.42857142857143</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L220" t="n">
         <v>694.8</v>
@@ -11731,7 +11749,7 @@
         <v>478</v>
       </c>
       <c r="K221" t="n">
-        <v>31.42857142857143</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L221" t="n">
         <v>694.5</v>
@@ -11782,7 +11800,7 @@
         <v>479</v>
       </c>
       <c r="K222" t="n">
-        <v>30.43478260869566</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L222" t="n">
         <v>694.1</v>
@@ -11833,7 +11851,7 @@
         <v>480</v>
       </c>
       <c r="K223" t="n">
-        <v>31.42857142857143</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L223" t="n">
         <v>693.8</v>
@@ -11884,7 +11902,7 @@
         <v>480</v>
       </c>
       <c r="K224" t="n">
-        <v>41.53846153846154</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L224" t="n">
         <v>694.3</v>
@@ -11935,7 +11953,7 @@
         <v>485</v>
       </c>
       <c r="K225" t="n">
-        <v>41.53846153846154</v>
+        <v>62.5</v>
       </c>
       <c r="L225" t="n">
         <v>694.5</v>
@@ -11986,7 +12004,7 @@
         <v>488</v>
       </c>
       <c r="K226" t="n">
-        <v>22.80701754385965</v>
+        <v>20</v>
       </c>
       <c r="L226" t="n">
         <v>695.2</v>
@@ -12037,7 +12055,7 @@
         <v>489</v>
       </c>
       <c r="K227" t="n">
-        <v>20.68965517241379</v>
+        <v>0</v>
       </c>
       <c r="L227" t="n">
         <v>695.4</v>
@@ -12088,7 +12106,7 @@
         <v>495</v>
       </c>
       <c r="K228" t="n">
-        <v>26.98412698412698</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L228" t="n">
         <v>696</v>
@@ -12139,7 +12157,7 @@
         <v>496</v>
       </c>
       <c r="K229" t="n">
-        <v>25.80645161290322</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L229" t="n">
         <v>696.8</v>
@@ -12190,7 +12208,7 @@
         <v>502</v>
       </c>
       <c r="K230" t="n">
-        <v>9.375</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L230" t="n">
         <v>697.2</v>
@@ -12241,7 +12259,7 @@
         <v>503</v>
       </c>
       <c r="K231" t="n">
-        <v>0</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L231" t="n">
         <v>697.5</v>
@@ -12292,7 +12310,7 @@
         <v>509</v>
       </c>
       <c r="K232" t="n">
-        <v>6.25</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L232" t="n">
         <v>698.3</v>
@@ -12343,7 +12361,7 @@
         <v>513</v>
       </c>
       <c r="K233" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L233" t="n">
         <v>698.6</v>
@@ -12394,7 +12412,7 @@
         <v>514</v>
       </c>
       <c r="K234" t="n">
-        <v>14.75409836065574</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L234" t="n">
         <v>699</v>
@@ -12445,7 +12463,7 @@
         <v>514</v>
       </c>
       <c r="K235" t="n">
-        <v>1.886792452830189</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L235" t="n">
         <v>698.9</v>
@@ -12496,7 +12514,7 @@
         <v>517</v>
       </c>
       <c r="K236" t="n">
-        <v>25</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L236" t="n">
         <v>699.4</v>
@@ -12547,7 +12565,7 @@
         <v>519</v>
       </c>
       <c r="K237" t="n">
-        <v>21.73913043478261</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L237" t="n">
         <v>700.2</v>
@@ -12598,7 +12616,7 @@
         <v>520</v>
       </c>
       <c r="K238" t="n">
-        <v>20</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L238" t="n">
         <v>700.5</v>
@@ -12649,7 +12667,7 @@
         <v>523</v>
       </c>
       <c r="K239" t="n">
-        <v>27.65957446808511</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L239" t="n">
         <v>701</v>
@@ -12700,7 +12718,7 @@
         <v>528</v>
       </c>
       <c r="K240" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="L240" t="n">
         <v>702.6</v>
@@ -12751,7 +12769,7 @@
         <v>532</v>
       </c>
       <c r="K241" t="n">
-        <v>44.44444444444444</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L241" t="n">
         <v>704.7</v>
@@ -12802,7 +12820,7 @@
         <v>533</v>
       </c>
       <c r="K242" t="n">
-        <v>44.44444444444444</v>
+        <v>100</v>
       </c>
       <c r="L242" t="n">
         <v>706.3</v>

--- a/BackTest/2019-11-14 BackTest PPT.xlsx
+++ b/BackTest/2019-11-14 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S242"/>
+  <dimension ref="A1:M221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,17 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>633</v>
+      </c>
+      <c r="K2" t="n">
+        <v>633</v>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,24 +493,20 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
+        <v>634</v>
+      </c>
+      <c r="K3" t="n">
         <v>633</v>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>633</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -570,28 +536,20 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>634</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
+        <v>630</v>
+      </c>
+      <c r="K4" t="n">
         <v>633</v>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -621,28 +579,16 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>631</v>
+      </c>
+      <c r="K5" t="n">
+        <v>631</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
-        <v>630</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
-        <v>633</v>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -672,28 +618,20 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>9</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
+        <v>634</v>
+      </c>
+      <c r="K6" t="n">
         <v>631</v>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>633</v>
-      </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -723,28 +661,20 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>12</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
-        <v>634</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v>633</v>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+        <v>631</v>
+      </c>
+      <c r="K7" t="n">
+        <v>631</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -777,25 +707,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>14</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>633</v>
+      </c>
+      <c r="K8" t="n">
+        <v>633</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
-        <v>631</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v>633</v>
-      </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -825,28 +743,20 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
+        <v>634</v>
+      </c>
+      <c r="K9" t="n">
         <v>633</v>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>633</v>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -876,28 +786,20 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
         <v>634</v>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
+      <c r="K10" t="n">
         <v>633</v>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -927,30 +829,16 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>17</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>632.6</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
-        <v>634</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>633</v>
-      </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+        <v>632</v>
+      </c>
+      <c r="K11" t="n">
+        <v>632</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -980,32 +868,20 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29</v>
+        <v>620</v>
       </c>
       <c r="K12" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L12" t="n">
-        <v>631.3</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
-        <v>632</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
-        <v>633</v>
-      </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>632</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1035,30 +911,20 @@
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>619</v>
       </c>
       <c r="K13" t="n">
-        <v>-36</v>
-      </c>
-      <c r="L13" t="n">
-        <v>630</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
-        <v>620</v>
-      </c>
-      <c r="P13" t="n">
-        <v>641.6</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>620</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>632</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1088,32 +954,20 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>31</v>
+        <v>622</v>
       </c>
       <c r="K14" t="n">
-        <v>-36</v>
-      </c>
-      <c r="L14" t="n">
-        <v>629.2</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>621</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>620</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
+        <v>632</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1146,33 +1000,17 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>42</v>
+        <v>632</v>
       </c>
       <c r="K15" t="n">
-        <v>-3.03030303030303</v>
-      </c>
-      <c r="L15" t="n">
-        <v>629.4</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
-        <v>622</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
-        <v>620</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
+        <v>632</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1205,33 +1043,17 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42</v>
+        <v>632</v>
       </c>
       <c r="K16" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L16" t="n">
-        <v>629.3</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="n">
-        <v>633</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q16" t="n">
-        <v>620</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
+        <v>632</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1258,37 +1080,23 @@
         <v>628.5</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45</v>
+        <v>630</v>
       </c>
       <c r="K17" t="n">
-        <v>-9.67741935483871</v>
-      </c>
-      <c r="L17" t="n">
-        <v>629.2</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q17" t="n">
-        <v>620</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S17" t="n">
+        <v>632</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1315,37 +1123,23 @@
         <v>628.8666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>50</v>
+        <v>633</v>
       </c>
       <c r="K18" t="n">
-        <v>2.857142857142857</v>
-      </c>
-      <c r="L18" t="n">
-        <v>629.4</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q18" t="n">
-        <v>620</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S18" t="n">
+        <v>632</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1372,37 +1166,23 @@
         <v>629.2166666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>50</v>
+        <v>635</v>
       </c>
       <c r="K19" t="n">
-        <v>2.857142857142857</v>
-      </c>
-      <c r="L19" t="n">
-        <v>629.5</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q19" t="n">
-        <v>620</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S19" t="n">
+        <v>632</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1429,37 +1209,23 @@
         <v>629.65</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>55</v>
+        <v>638</v>
       </c>
       <c r="K20" t="n">
-        <v>21.05263157894737</v>
-      </c>
-      <c r="L20" t="n">
-        <v>630.1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q20" t="n">
-        <v>620</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S20" t="n">
+        <v>632</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1486,39 +1252,23 @@
         <v>630.0666666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>55</v>
+        <v>640</v>
       </c>
       <c r="K21" t="n">
-        <v>76.92307692307693</v>
-      </c>
-      <c r="L21" t="n">
-        <v>630.9</v>
+        <v>632</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>631.75</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q21" t="n">
-        <v>620</v>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1545,39 +1295,23 @@
         <v>630.4166666666666</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>55</v>
+        <v>640</v>
       </c>
       <c r="K22" t="n">
-        <v>76</v>
-      </c>
-      <c r="L22" t="n">
-        <v>632.9</v>
+        <v>632</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>632.1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q22" t="n">
-        <v>620</v>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1604,39 +1338,23 @@
         <v>630.6666666666666</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>55</v>
+        <v>640</v>
       </c>
       <c r="K23" t="n">
-        <v>75</v>
-      </c>
-      <c r="L23" t="n">
-        <v>634.8</v>
+        <v>632</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>632.4</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q23" t="n">
-        <v>620</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1666,32 +1384,18 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L24" t="n">
-        <v>636.2</v>
+        <v>632</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>632.7</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="n">
-        <v>620</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1721,32 +1425,18 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L25" t="n">
-        <v>636.5</v>
+        <v>632</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>632.95</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="n">
-        <v>620</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,32 +1466,18 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>25</v>
-      </c>
-      <c r="L26" t="n">
-        <v>636.6</v>
+        <v>632</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>632.95</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="n">
-        <v>620</v>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1831,32 +1507,18 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L27" t="n">
-        <v>637.2</v>
+        <v>632</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>633.2</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="n">
-        <v>620</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,35 +1545,23 @@
         <v>631.5166666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>64</v>
+        <v>631</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>637.2</v>
+        <v>632</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>633.3</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="n">
-        <v>620</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1943,30 +1593,16 @@
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>66</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>-63.63636363636363</v>
-      </c>
-      <c r="L29" t="n">
-        <v>637</v>
+        <v>632</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>633.25</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="n">
-        <v>620</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1993,35 +1629,23 @@
         <v>631.9</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>67</v>
+        <v>633</v>
       </c>
       <c r="K30" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L30" t="n">
-        <v>636.4</v>
+        <v>632</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>633.25</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="n">
-        <v>620</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2048,38 +1672,24 @@
         <v>632.0666666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67</v>
+        <v>634</v>
       </c>
       <c r="K31" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L31" t="n">
-        <v>635.8</v>
+        <v>632</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>633.35</v>
-      </c>
-      <c r="N31" t="n">
-        <v>633.1</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="n">
-        <v>620</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>이탈 완료</t>
-        </is>
-      </c>
-      <c r="S31" t="n">
-        <v>1.01758064516129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2105,31 +1715,23 @@
         <v>632.2333333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>67</v>
+        <v>633</v>
       </c>
       <c r="K32" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L32" t="n">
-        <v>635.2</v>
+        <v>632</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>634.05</v>
-      </c>
-      <c r="N32" t="n">
-        <v>633.1333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2156,31 +1758,23 @@
         <v>632.4</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>67</v>
+        <v>634</v>
       </c>
       <c r="K33" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L33" t="n">
-        <v>634.6</v>
+        <v>632</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>634.7</v>
-      </c>
-      <c r="N33" t="n">
-        <v>633.1333333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2207,31 +1801,23 @@
         <v>632.5666666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>67</v>
+        <v>634</v>
       </c>
       <c r="K34" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L34" t="n">
-        <v>634.4</v>
+        <v>632</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>635.3</v>
-      </c>
-      <c r="N34" t="n">
-        <v>633.2666666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2258,31 +1844,23 @@
         <v>632.7333333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>67</v>
+        <v>634</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>634.2</v>
+        <v>632</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>635.35</v>
-      </c>
-      <c r="N35" t="n">
-        <v>633.3666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2309,31 +1887,23 @@
         <v>632.9333333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>67</v>
+        <v>634</v>
       </c>
       <c r="K36" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L36" t="n">
-        <v>634.2</v>
+        <v>632</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>635.4</v>
-      </c>
-      <c r="N36" t="n">
-        <v>633.3666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2360,31 +1930,23 @@
         <v>633.1666666666666</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>69</v>
+        <v>634</v>
       </c>
       <c r="K37" t="n">
-        <v>20</v>
-      </c>
-      <c r="L37" t="n">
-        <v>634.2</v>
+        <v>632</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>635.7</v>
-      </c>
-      <c r="N37" t="n">
-        <v>633.5333333333333</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2411,31 +1973,23 @@
         <v>633.4</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>70</v>
+        <v>635</v>
       </c>
       <c r="K38" t="n">
-        <v>50</v>
-      </c>
-      <c r="L38" t="n">
-        <v>634.2</v>
+        <v>632</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>635.7</v>
-      </c>
-      <c r="N38" t="n">
-        <v>633.6</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2465,28 +2019,18 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
-      </c>
-      <c r="J39" t="n">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>50</v>
-      </c>
-      <c r="L39" t="n">
-        <v>634.5</v>
+        <v>632</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>635.75</v>
-      </c>
-      <c r="N39" t="n">
-        <v>633.6666666666666</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2516,28 +2060,18 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
-      </c>
-      <c r="J40" t="n">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>50</v>
-      </c>
-      <c r="L40" t="n">
-        <v>634.7</v>
+        <v>632</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>635.55</v>
-      </c>
-      <c r="N40" t="n">
-        <v>633.7333333333333</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2567,28 +2101,18 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L41" t="n">
-        <v>634.1</v>
+        <v>632</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>634.95</v>
-      </c>
-      <c r="N41" t="n">
-        <v>633.6</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,28 +2142,18 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J42" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>-53.84615384615385</v>
-      </c>
-      <c r="L42" t="n">
-        <v>633.4</v>
+        <v>632</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>634.3</v>
-      </c>
-      <c r="N42" t="n">
-        <v>633.8333333333334</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2666,31 +2180,23 @@
         <v>633.8666666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80</v>
+        <v>627</v>
       </c>
       <c r="K43" t="n">
-        <v>-53.84615384615385</v>
-      </c>
-      <c r="L43" t="n">
-        <v>632.7</v>
+        <v>632</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>633.65</v>
-      </c>
-      <c r="N43" t="n">
-        <v>634.0333333333333</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2717,31 +2223,23 @@
         <v>633.8166666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>80</v>
+        <v>627</v>
       </c>
       <c r="K44" t="n">
-        <v>-53.84615384615385</v>
-      </c>
-      <c r="L44" t="n">
-        <v>632</v>
+        <v>632</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>633.2</v>
-      </c>
-      <c r="N44" t="n">
-        <v>634.2</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2768,31 +2266,23 @@
         <v>633.7666666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>80</v>
+        <v>627</v>
       </c>
       <c r="K45" t="n">
-        <v>-53.84615384615385</v>
-      </c>
-      <c r="L45" t="n">
-        <v>631.3</v>
+        <v>632</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>632.75</v>
-      </c>
-      <c r="N45" t="n">
-        <v>634</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2819,31 +2309,23 @@
         <v>633.6833333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81</v>
+        <v>626</v>
       </c>
       <c r="K46" t="n">
-        <v>-83.33333333333334</v>
-      </c>
-      <c r="L46" t="n">
-        <v>630.5</v>
+        <v>632</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>632.35</v>
-      </c>
-      <c r="N46" t="n">
-        <v>633.7666666666667</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,31 +2352,23 @@
         <v>633.5666666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>81</v>
+        <v>626</v>
       </c>
       <c r="K47" t="n">
-        <v>-81.81818181818183</v>
-      </c>
-      <c r="L47" t="n">
-        <v>629.5</v>
+        <v>632</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>631.85</v>
-      </c>
-      <c r="N47" t="n">
-        <v>633.6333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2921,31 +2395,23 @@
         <v>633.45</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>81</v>
+        <v>626</v>
       </c>
       <c r="K48" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L48" t="n">
-        <v>628.6</v>
+        <v>632</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>631.4</v>
-      </c>
-      <c r="N48" t="n">
-        <v>633.3333333333334</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2972,31 +2438,23 @@
         <v>633.3333333333334</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>82</v>
+        <v>625</v>
       </c>
       <c r="K49" t="n">
-        <v>-81.81818181818183</v>
-      </c>
-      <c r="L49" t="n">
-        <v>627.7</v>
+        <v>632</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>631.1</v>
-      </c>
-      <c r="N49" t="n">
-        <v>633.0666666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3023,31 +2481,23 @@
         <v>633.2666666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>85</v>
+        <v>627</v>
       </c>
       <c r="K50" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L50" t="n">
-        <v>627.1</v>
+        <v>632</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>630.9</v>
-      </c>
-      <c r="N50" t="n">
-        <v>632.7333333333333</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3074,31 +2524,23 @@
         <v>633.2333333333333</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>91</v>
+        <v>635</v>
       </c>
       <c r="K51" t="n">
-        <v>81.81818181818183</v>
-      </c>
-      <c r="L51" t="n">
-        <v>627.9</v>
+        <v>632</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>631</v>
-      </c>
-      <c r="N51" t="n">
-        <v>632.6</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3125,31 +2567,23 @@
         <v>633.1833333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>92</v>
+        <v>630</v>
       </c>
       <c r="K52" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L52" t="n">
-        <v>628.7</v>
+        <v>632</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>631.05</v>
-      </c>
-      <c r="N52" t="n">
-        <v>632.4333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3176,31 +2610,23 @@
         <v>633.05</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>95</v>
+        <v>629</v>
       </c>
       <c r="K53" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L53" t="n">
-        <v>629.2</v>
+        <v>632</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>630.95</v>
-      </c>
-      <c r="N53" t="n">
-        <v>632.1666666666666</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3227,31 +2653,23 @@
         <v>632.95</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>98</v>
+        <v>636</v>
       </c>
       <c r="K54" t="n">
-        <v>44.44444444444444</v>
-      </c>
-      <c r="L54" t="n">
-        <v>630</v>
+        <v>632</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>631</v>
-      </c>
-      <c r="N54" t="n">
-        <v>632.1333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3278,31 +2696,23 @@
         <v>632.7</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>103</v>
+        <v>630</v>
       </c>
       <c r="K55" t="n">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="L55" t="n">
-        <v>630.3</v>
+        <v>632</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>630.8</v>
-      </c>
-      <c r="N55" t="n">
-        <v>631.9333333333333</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3329,31 +2739,23 @@
         <v>632.4</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>103</v>
+        <v>630</v>
       </c>
       <c r="K56" t="n">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="L56" t="n">
-        <v>630.7</v>
+        <v>632</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>630.6</v>
-      </c>
-      <c r="N56" t="n">
-        <v>631.8</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3380,31 +2782,23 @@
         <v>632.2333333333333</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>104</v>
+        <v>630</v>
       </c>
       <c r="K57" t="n">
-        <v>21.73913043478261</v>
-      </c>
-      <c r="L57" t="n">
-        <v>631.2</v>
+        <v>632</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>630.35</v>
-      </c>
-      <c r="N57" t="n">
-        <v>631.6333333333333</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3431,31 +2825,23 @@
         <v>632.2</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>105</v>
+        <v>630</v>
       </c>
       <c r="K58" t="n">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="L58" t="n">
-        <v>631.6</v>
+        <v>632</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>630.1</v>
-      </c>
-      <c r="N58" t="n">
-        <v>631.4666666666667</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3482,31 +2868,23 @@
         <v>632.2333333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>108</v>
+        <v>632</v>
       </c>
       <c r="K59" t="n">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="L59" t="n">
-        <v>632.2</v>
+        <v>632</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>629.95</v>
-      </c>
-      <c r="N59" t="n">
-        <v>631.4666666666667</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3533,31 +2911,23 @@
         <v>632.25</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>109</v>
+        <v>632</v>
       </c>
       <c r="K60" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L60" t="n">
-        <v>632.4</v>
+        <v>632</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>629.75</v>
-      </c>
-      <c r="N60" t="n">
-        <v>631.4</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3584,31 +2954,23 @@
         <v>632.2166666666667</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>109</v>
+        <v>633</v>
       </c>
       <c r="K61" t="n">
-        <v>-17.64705882352941</v>
-      </c>
-      <c r="L61" t="n">
-        <v>632</v>
+        <v>632</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>629.95</v>
-      </c>
-      <c r="N61" t="n">
-        <v>631.3333333333334</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3635,31 +2997,23 @@
         <v>632.2333333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>111</v>
+        <v>632</v>
       </c>
       <c r="K62" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L62" t="n">
-        <v>631.9</v>
+        <v>632</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>630.3</v>
-      </c>
-      <c r="N62" t="n">
-        <v>631.3333333333334</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,31 +3040,23 @@
         <v>632.2333333333333</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>111</v>
+        <v>634</v>
       </c>
       <c r="K63" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L63" t="n">
-        <v>632.1</v>
+        <v>632</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>630.65</v>
-      </c>
-      <c r="N63" t="n">
-        <v>631.3333333333334</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3737,31 +3083,23 @@
         <v>632.2</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>117</v>
+        <v>628</v>
       </c>
       <c r="K64" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L64" t="n">
-        <v>631.4</v>
+        <v>632</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>630.7</v>
-      </c>
-      <c r="N64" t="n">
-        <v>631.1333333333333</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3788,31 +3126,23 @@
         <v>632.2666666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>124</v>
+        <v>635</v>
       </c>
       <c r="K65" t="n">
-        <v>23.80952380952381</v>
-      </c>
-      <c r="L65" t="n">
-        <v>631.9</v>
+        <v>632</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>631.1</v>
-      </c>
-      <c r="N65" t="n">
-        <v>631.1666666666666</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3839,31 +3169,23 @@
         <v>632.25</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>126</v>
+        <v>633</v>
       </c>
       <c r="K66" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L66" t="n">
-        <v>632.2</v>
+        <v>632</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>631.45</v>
-      </c>
-      <c r="N66" t="n">
-        <v>631.1333333333333</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3890,31 +3212,23 @@
         <v>632.3166666666667</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>128</v>
+        <v>635</v>
       </c>
       <c r="K67" t="n">
-        <v>21.73913043478261</v>
-      </c>
-      <c r="L67" t="n">
-        <v>632.6</v>
+        <v>632</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>631.9</v>
-      </c>
-      <c r="N67" t="n">
-        <v>631.1</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3941,31 +3255,23 @@
         <v>632.3333333333334</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>129</v>
+        <v>634</v>
       </c>
       <c r="K68" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L68" t="n">
-        <v>633</v>
+        <v>632</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>632.3</v>
-      </c>
-      <c r="N68" t="n">
-        <v>631.0666666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3992,31 +3298,23 @@
         <v>632.3333333333334</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>129</v>
+        <v>634</v>
       </c>
       <c r="K69" t="n">
-        <v>10</v>
-      </c>
-      <c r="L69" t="n">
-        <v>633.1</v>
+        <v>632</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>632.65</v>
-      </c>
-      <c r="N69" t="n">
-        <v>631</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4043,31 +3341,23 @@
         <v>632.35</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>130</v>
+        <v>635</v>
       </c>
       <c r="K70" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L70" t="n">
-        <v>633.4</v>
+        <v>632</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>632.9</v>
-      </c>
-      <c r="N70" t="n">
-        <v>630.9666666666667</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4094,31 +3384,23 @@
         <v>632.4</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>130</v>
+        <v>635</v>
       </c>
       <c r="K71" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L71" t="n">
-        <v>633.7</v>
+        <v>632</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>632.85</v>
-      </c>
-      <c r="N71" t="n">
-        <v>631.2</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4145,31 +3427,23 @@
         <v>632.65</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>130</v>
+        <v>633</v>
       </c>
       <c r="K72" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L72" t="n">
-        <v>633.8</v>
+        <v>632</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>632.85</v>
-      </c>
-      <c r="N72" t="n">
-        <v>631.4666666666667</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4196,31 +3470,23 @@
         <v>632.8833333333333</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>130</v>
+        <v>635</v>
       </c>
       <c r="K73" t="n">
-        <v>53.84615384615385</v>
-      </c>
-      <c r="L73" t="n">
-        <v>633.9</v>
+        <v>632</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>633</v>
-      </c>
-      <c r="N73" t="n">
-        <v>631.7333333333333</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4247,31 +3513,23 @@
         <v>633.1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>130</v>
+        <v>635</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>634.6</v>
+        <v>632</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>633</v>
-      </c>
-      <c r="N74" t="n">
-        <v>632</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,31 +3556,23 @@
         <v>633.1333333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>130</v>
+        <v>635</v>
       </c>
       <c r="K75" t="n">
-        <v>50</v>
-      </c>
-      <c r="L75" t="n">
-        <v>634.6</v>
+        <v>632</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>633.25</v>
-      </c>
-      <c r="N75" t="n">
-        <v>632.2666666666667</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,28 +3602,18 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
-      </c>
-      <c r="J76" t="n">
-        <v>130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>634.8</v>
+        <v>632</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>633.5</v>
-      </c>
-      <c r="N76" t="n">
-        <v>632.5666666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,28 +3643,18 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>100</v>
-      </c>
-      <c r="L77" t="n">
-        <v>634.8</v>
+        <v>632</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>633.7</v>
-      </c>
-      <c r="N77" t="n">
-        <v>632.8666666666667</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,28 +3684,18 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
-      </c>
-      <c r="J78" t="n">
-        <v>130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>100</v>
-      </c>
-      <c r="L78" t="n">
-        <v>634.9</v>
+        <v>632</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>633.95</v>
-      </c>
-      <c r="N78" t="n">
-        <v>633.1666666666666</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4505,26 +3725,18 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
-      </c>
-      <c r="J79" t="n">
-        <v>130</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>635</v>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>632</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>634.05</v>
-      </c>
-      <c r="N79" t="n">
-        <v>633.4333333333333</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4554,26 +3766,18 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
-      </c>
-      <c r="J80" t="n">
-        <v>130</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>635</v>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>632</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>634.2</v>
-      </c>
-      <c r="N80" t="n">
-        <v>633.6</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4603,28 +3807,18 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
-      </c>
-      <c r="J81" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>100</v>
-      </c>
-      <c r="L81" t="n">
-        <v>635.2</v>
+        <v>632</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>634.45</v>
-      </c>
-      <c r="N81" t="n">
-        <v>633.6333333333333</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4654,28 +3848,18 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
-      </c>
-      <c r="J82" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L82" t="n">
-        <v>635.3</v>
+        <v>632</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>634.55</v>
-      </c>
-      <c r="N82" t="n">
-        <v>633.6666666666666</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4705,28 +3889,18 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
-      </c>
-      <c r="J83" t="n">
-        <v>134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>635.3</v>
+        <v>632</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>634.6</v>
-      </c>
-      <c r="N83" t="n">
-        <v>633.7666666666667</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4756,28 +3930,18 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>635.3</v>
+        <v>632</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>634.95</v>
-      </c>
-      <c r="N84" t="n">
-        <v>633.7666666666667</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4807,28 +3971,18 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
-      </c>
-      <c r="J85" t="n">
-        <v>134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>635.3</v>
+        <v>632</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>634.95</v>
-      </c>
-      <c r="N85" t="n">
-        <v>633.9333333333333</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,28 +4012,18 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>4</v>
-      </c>
-      <c r="J86" t="n">
-        <v>136</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L86" t="n">
-        <v>635.5</v>
+        <v>632</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>635.15</v>
-      </c>
-      <c r="N86" t="n">
-        <v>634.1666666666666</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4909,28 +4053,18 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J87" t="n">
-        <v>146</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L87" t="n">
-        <v>634.7</v>
+        <v>632</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>634.75</v>
-      </c>
-      <c r="N87" t="n">
-        <v>634.0333333333333</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4960,28 +4094,18 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
-      </c>
-      <c r="J88" t="n">
-        <v>155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>4</v>
-      </c>
-      <c r="L88" t="n">
-        <v>634.8</v>
+        <v>632</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>634.85</v>
-      </c>
-      <c r="N88" t="n">
-        <v>634.2333333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5008,31 +4132,23 @@
         <v>632.9</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>155</v>
+        <v>636</v>
       </c>
       <c r="K89" t="n">
-        <v>4</v>
-      </c>
-      <c r="L89" t="n">
-        <v>634.9</v>
+        <v>632</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>634.95</v>
-      </c>
-      <c r="N89" t="n">
-        <v>634.3333333333334</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5062,28 +4178,18 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
-      </c>
-      <c r="J90" t="n">
-        <v>156</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>-8.333333333333332</v>
-      </c>
-      <c r="L90" t="n">
-        <v>634.9</v>
+        <v>632</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>634.95</v>
-      </c>
-      <c r="N90" t="n">
-        <v>634.4333333333333</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5113,28 +4219,18 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
-      </c>
-      <c r="J91" t="n">
-        <v>157</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>634.8</v>
+        <v>632</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>635</v>
-      </c>
-      <c r="N91" t="n">
-        <v>634.5666666666667</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5164,28 +4260,18 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
-      </c>
-      <c r="J92" t="n">
-        <v>157</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="L92" t="n">
-        <v>634.8</v>
+        <v>632</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>635.05</v>
-      </c>
-      <c r="N92" t="n">
-        <v>634.6333333333333</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5215,28 +4301,18 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>-4</v>
-      </c>
-      <c r="L93" t="n">
-        <v>634.7</v>
+        <v>632</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>635</v>
-      </c>
-      <c r="N93" t="n">
-        <v>634.6333333333333</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5266,28 +4342,18 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>-4</v>
-      </c>
-      <c r="L94" t="n">
-        <v>634.6</v>
+        <v>632</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>634.95</v>
-      </c>
-      <c r="N94" t="n">
-        <v>634.8333333333334</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5317,28 +4383,18 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>4</v>
-      </c>
-      <c r="J95" t="n">
-        <v>162</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="n">
-        <v>634.8</v>
+        <v>632</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>635.05</v>
-      </c>
-      <c r="N95" t="n">
-        <v>634.9</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5368,28 +4424,18 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>167</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>23.80952380952381</v>
-      </c>
-      <c r="L96" t="n">
-        <v>634.3</v>
+        <v>632</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>634.9</v>
-      </c>
-      <c r="N96" t="n">
-        <v>634.8666666666667</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5419,28 +4465,18 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>3</v>
-      </c>
-      <c r="J97" t="n">
-        <v>171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>635.2</v>
+        <v>632</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>634.95</v>
-      </c>
-      <c r="N97" t="n">
-        <v>634.9</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5470,28 +4506,18 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>3</v>
-      </c>
-      <c r="J98" t="n">
-        <v>171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>635.2</v>
+        <v>632</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>635</v>
-      </c>
-      <c r="N98" t="n">
-        <v>634.9666666666667</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5521,28 +4547,18 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
-      </c>
-      <c r="J99" t="n">
-        <v>172</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>635.1</v>
+        <v>632</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>635</v>
-      </c>
-      <c r="N99" t="n">
-        <v>635</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5572,28 +4588,18 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
-      </c>
-      <c r="J100" t="n">
-        <v>173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>635.2</v>
+        <v>632</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>635.05</v>
-      </c>
-      <c r="N100" t="n">
-        <v>635.0333333333333</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5623,28 +4629,18 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J101" t="n">
-        <v>178</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>-23.80952380952381</v>
-      </c>
-      <c r="L101" t="n">
-        <v>634.7</v>
+        <v>632</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>634.75</v>
-      </c>
-      <c r="N101" t="n">
-        <v>634.9</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5674,28 +4670,18 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J102" t="n">
-        <v>180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>-23.80952380952381</v>
-      </c>
-      <c r="L102" t="n">
-        <v>634</v>
+        <v>632</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="N102" t="n">
-        <v>634.7</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5722,31 +4708,23 @@
         <v>633.1166666666667</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>180</v>
+        <v>629</v>
       </c>
       <c r="K103" t="n">
-        <v>-23.80952380952381</v>
-      </c>
-      <c r="L103" t="n">
-        <v>633.5</v>
+        <v>632</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>634.1</v>
-      </c>
-      <c r="N103" t="n">
-        <v>634.5</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5773,31 +4751,23 @@
         <v>633.1166666666667</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>182</v>
+        <v>627</v>
       </c>
       <c r="K104" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L104" t="n">
-        <v>632.8</v>
+        <v>632</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>633.7</v>
-      </c>
-      <c r="N104" t="n">
-        <v>634.2333333333333</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5824,31 +4794,23 @@
         <v>633.1166666666667</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>182</v>
+        <v>627</v>
       </c>
       <c r="K105" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L105" t="n">
-        <v>631.8</v>
+        <v>632</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>633.3</v>
-      </c>
-      <c r="N105" t="n">
-        <v>633.9666666666667</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5875,31 +4837,23 @@
         <v>633.1666666666666</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>184</v>
+        <v>629</v>
       </c>
       <c r="K106" t="n">
-        <v>-53.84615384615385</v>
-      </c>
-      <c r="L106" t="n">
-        <v>631.5</v>
+        <v>632</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>632.9</v>
-      </c>
-      <c r="N106" t="n">
-        <v>633.7666666666667</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5926,31 +4880,23 @@
         <v>633.0666666666667</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>193</v>
+        <v>626</v>
       </c>
       <c r="K107" t="n">
-        <v>-72.72727272727273</v>
-      </c>
-      <c r="L107" t="n">
-        <v>629.9</v>
+        <v>632</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>632.55</v>
-      </c>
-      <c r="N107" t="n">
-        <v>633.2666666666667</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5977,31 +4923,23 @@
         <v>633.1166666666667</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>202</v>
+        <v>627</v>
       </c>
       <c r="K108" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L108" t="n">
-        <v>629.2</v>
+        <v>632</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>632.2</v>
-      </c>
-      <c r="N108" t="n">
-        <v>633.0666666666667</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6028,31 +4966,23 @@
         <v>633.15</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>202</v>
+        <v>629</v>
       </c>
       <c r="K109" t="n">
-        <v>-24.13793103448276</v>
-      </c>
-      <c r="L109" t="n">
-        <v>628.6</v>
+        <v>632</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>631.85</v>
-      </c>
-      <c r="N109" t="n">
-        <v>632.8666666666667</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6079,31 +5009,23 @@
         <v>633.1333333333333</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>202</v>
+        <v>629</v>
       </c>
       <c r="K110" t="n">
-        <v>-8.333333333333332</v>
-      </c>
-      <c r="L110" t="n">
-        <v>627.9</v>
+        <v>632</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>631.55</v>
-      </c>
-      <c r="N110" t="n">
-        <v>632.6666666666666</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6130,31 +5052,23 @@
         <v>633.0166666666667</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>202</v>
+        <v>629</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>627.7</v>
+        <v>632</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>631.2</v>
-      </c>
-      <c r="N111" t="n">
-        <v>632.4</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6181,31 +5095,23 @@
         <v>632.9166666666666</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>202</v>
+        <v>629</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>627.7</v>
+        <v>632</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>630.85</v>
-      </c>
-      <c r="N112" t="n">
-        <v>632.1666666666666</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6232,31 +5138,23 @@
         <v>632.7833333333333</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>207</v>
+        <v>624</v>
       </c>
       <c r="K113" t="n">
-        <v>-12</v>
-      </c>
-      <c r="L113" t="n">
-        <v>627.2</v>
+        <v>632</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>630.35</v>
-      </c>
-      <c r="N113" t="n">
-        <v>631.8</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6283,31 +5181,23 @@
         <v>632.6833333333333</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>212</v>
+        <v>629</v>
       </c>
       <c r="K114" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L114" t="n">
-        <v>627.4</v>
+        <v>632</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>630.1</v>
-      </c>
-      <c r="N114" t="n">
-        <v>631.6</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6334,31 +5224,23 @@
         <v>632.6666666666666</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>212</v>
+        <v>629</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>627.6</v>
+        <v>632</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>629.7</v>
-      </c>
-      <c r="N115" t="n">
-        <v>631.4</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6385,31 +5267,23 @@
         <v>632.65</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>212</v>
+        <v>629</v>
       </c>
       <c r="K116" t="n">
-        <v>47.36842105263158</v>
-      </c>
-      <c r="L116" t="n">
-        <v>627.6</v>
+        <v>632</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>629.55</v>
-      </c>
-      <c r="N116" t="n">
-        <v>631.1333333333333</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6436,31 +5310,23 @@
         <v>632.6166666666667</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>212</v>
+        <v>629</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>628.5</v>
+        <v>632</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>629.2</v>
-      </c>
-      <c r="N117" t="n">
-        <v>631.2</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6487,31 +5353,23 @@
         <v>632.6</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>212</v>
+        <v>629</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" t="n">
-        <v>628.5</v>
+        <v>632</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>628.85</v>
-      </c>
-      <c r="N118" t="n">
-        <v>630.9666666666667</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,31 +5396,23 @@
         <v>632.6166666666667</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>217</v>
+        <v>629</v>
       </c>
       <c r="K119" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L119" t="n">
-        <v>629</v>
+        <v>632</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>628.8</v>
-      </c>
-      <c r="N119" t="n">
-        <v>630.9</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6589,31 +5439,23 @@
         <v>632.65</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>217</v>
+        <v>633</v>
       </c>
       <c r="K120" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L120" t="n">
-        <v>629.5</v>
+        <v>632</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M120" t="n">
-        <v>628.7</v>
-      </c>
-      <c r="N120" t="n">
-        <v>630.8666666666667</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6640,31 +5482,23 @@
         <v>632.7166666666667</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>219</v>
+        <v>636</v>
       </c>
       <c r="K121" t="n">
-        <v>41.17647058823529</v>
-      </c>
-      <c r="L121" t="n">
-        <v>630.2</v>
+        <v>632</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>628.95</v>
-      </c>
-      <c r="N121" t="n">
-        <v>630.8666666666667</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6691,31 +5525,23 @@
         <v>632.5833333333334</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>229</v>
+        <v>636</v>
       </c>
       <c r="K122" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L122" t="n">
-        <v>629.9</v>
+        <v>632</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>628.8</v>
-      </c>
-      <c r="N122" t="n">
-        <v>630.5333333333333</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6742,31 +5568,23 @@
         <v>632.4666666666667</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>230</v>
+        <v>625</v>
       </c>
       <c r="K123" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L123" t="n">
-        <v>630.2</v>
+        <v>632</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>628.7</v>
-      </c>
-      <c r="N123" t="n">
-        <v>630.3</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6793,31 +5611,23 @@
         <v>632.45</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>230</v>
+        <v>627</v>
       </c>
       <c r="K124" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L124" t="n">
-        <v>630</v>
+        <v>632</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M124" t="n">
-        <v>628.7</v>
-      </c>
-      <c r="N124" t="n">
-        <v>630.0666666666667</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6844,31 +5654,23 @@
         <v>632.3333333333334</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>231</v>
+        <v>628</v>
       </c>
       <c r="K125" t="n">
-        <v>-5.263157894736842</v>
-      </c>
-      <c r="L125" t="n">
-        <v>629.9</v>
+        <v>632</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M125" t="n">
-        <v>628.75</v>
-      </c>
-      <c r="N125" t="n">
-        <v>629.7666666666667</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6895,31 +5697,23 @@
         <v>632.25</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>231</v>
+        <v>628</v>
       </c>
       <c r="K126" t="n">
-        <v>-5.263157894736842</v>
-      </c>
-      <c r="L126" t="n">
-        <v>629.8</v>
+        <v>632</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M126" t="n">
-        <v>628.7</v>
-      </c>
-      <c r="N126" t="n">
-        <v>629.6333333333333</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6946,31 +5740,23 @@
         <v>632.2333333333333</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>237</v>
+        <v>628</v>
       </c>
       <c r="K127" t="n">
-        <v>20</v>
-      </c>
-      <c r="L127" t="n">
-        <v>630.3</v>
+        <v>632</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M127" t="n">
-        <v>629.4</v>
-      </c>
-      <c r="N127" t="n">
-        <v>629.5666666666667</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6997,31 +5783,23 @@
         <v>632.2166666666667</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>238</v>
+        <v>628</v>
       </c>
       <c r="K128" t="n">
-        <v>-4.761904761904762</v>
-      </c>
-      <c r="L128" t="n">
-        <v>630.7</v>
+        <v>632</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M128" t="n">
-        <v>629.6</v>
-      </c>
-      <c r="N128" t="n">
-        <v>629.4666666666667</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7048,31 +5826,23 @@
         <v>632.1666666666666</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>240</v>
+        <v>627</v>
       </c>
       <c r="K129" t="n">
-        <v>-13.04347826086956</v>
-      </c>
-      <c r="L129" t="n">
-        <v>630.4</v>
+        <v>632</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M129" t="n">
-        <v>629.7</v>
-      </c>
-      <c r="N129" t="n">
-        <v>629.3333333333334</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7099,31 +5869,23 @@
         <v>632.0333333333333</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>244</v>
+        <v>630</v>
       </c>
       <c r="K130" t="n">
-        <v>-36</v>
-      </c>
-      <c r="L130" t="n">
-        <v>629.7</v>
+        <v>632</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>629.6</v>
-      </c>
-      <c r="N130" t="n">
-        <v>629.0333333333333</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7150,31 +5912,23 @@
         <v>631.9</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>244</v>
+        <v>630</v>
       </c>
       <c r="K131" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L131" t="n">
-        <v>628.8</v>
+        <v>632</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>629.5</v>
-      </c>
-      <c r="N131" t="n">
-        <v>628.9</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7201,31 +5955,23 @@
         <v>631.7666666666667</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>244</v>
+        <v>627</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
-      </c>
-      <c r="L132" t="n">
-        <v>628.9</v>
+        <v>632</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>629.4</v>
-      </c>
-      <c r="N132" t="n">
-        <v>628.8333333333334</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7252,31 +5998,23 @@
         <v>631.6333333333333</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>244</v>
+        <v>627</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>628.9</v>
+        <v>632</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M133" t="n">
-        <v>629.55</v>
-      </c>
-      <c r="N133" t="n">
-        <v>628.7666666666667</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7303,31 +6041,23 @@
         <v>631.5</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>244</v>
+        <v>627</v>
       </c>
       <c r="K134" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L134" t="n">
-        <v>628.9</v>
+        <v>632</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M134" t="n">
-        <v>629.45</v>
-      </c>
-      <c r="N134" t="n">
-        <v>628.7666666666667</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7354,31 +6084,23 @@
         <v>631.3666666666667</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>244</v>
+        <v>627</v>
       </c>
       <c r="K135" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L135" t="n">
-        <v>628.8</v>
+        <v>632</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M135" t="n">
-        <v>629.35</v>
-      </c>
-      <c r="N135" t="n">
-        <v>628.7666666666667</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7405,31 +6127,23 @@
         <v>631.2333333333333</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>244</v>
+        <v>627</v>
       </c>
       <c r="K136" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L136" t="n">
-        <v>628.7</v>
+        <v>632</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M136" t="n">
-        <v>629.25</v>
-      </c>
-      <c r="N136" t="n">
-        <v>628.7</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7456,31 +6170,23 @@
         <v>631.2</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>250</v>
+        <v>633</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
-      </c>
-      <c r="L137" t="n">
-        <v>628.6</v>
+        <v>632</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M137" t="n">
-        <v>629.45</v>
-      </c>
-      <c r="N137" t="n">
-        <v>629.1333333333333</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7507,31 +6213,23 @@
         <v>631.1666666666666</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>250</v>
+        <v>633</v>
       </c>
       <c r="K138" t="n">
-        <v>20</v>
-      </c>
-      <c r="L138" t="n">
-        <v>628.6</v>
+        <v>632</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M138" t="n">
-        <v>629.65</v>
-      </c>
-      <c r="N138" t="n">
-        <v>629.2666666666667</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7558,31 +6256,23 @@
         <v>631.1333333333333</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>250</v>
+        <v>633</v>
       </c>
       <c r="K139" t="n">
-        <v>100</v>
-      </c>
-      <c r="L139" t="n">
-        <v>628.8</v>
+        <v>632</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M139" t="n">
-        <v>629.6</v>
-      </c>
-      <c r="N139" t="n">
-        <v>629.4</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7609,31 +6299,23 @@
         <v>631.1</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>250</v>
+        <v>633</v>
       </c>
       <c r="K140" t="n">
-        <v>100</v>
-      </c>
-      <c r="L140" t="n">
-        <v>629.4</v>
+        <v>632</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M140" t="n">
-        <v>629.55</v>
-      </c>
-      <c r="N140" t="n">
-        <v>629.5333333333333</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7660,31 +6342,23 @@
         <v>631.0666666666667</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>252</v>
+        <v>633</v>
       </c>
       <c r="K141" t="n">
-        <v>100</v>
-      </c>
-      <c r="L141" t="n">
-        <v>630.2</v>
+        <v>632</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M141" t="n">
-        <v>629.5</v>
-      </c>
-      <c r="N141" t="n">
-        <v>629.7333333333333</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7711,31 +6385,23 @@
         <v>631.0666666666667</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>253</v>
+        <v>636</v>
       </c>
       <c r="K142" t="n">
-        <v>100</v>
-      </c>
-      <c r="L142" t="n">
-        <v>631.1</v>
+        <v>632</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M142" t="n">
-        <v>630</v>
-      </c>
-      <c r="N142" t="n">
-        <v>629.9666666666667</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7762,31 +6428,23 @@
         <v>631.0833333333334</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>253</v>
+        <v>636</v>
       </c>
       <c r="K143" t="n">
-        <v>100</v>
-      </c>
-      <c r="L143" t="n">
-        <v>632</v>
+        <v>632</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M143" t="n">
-        <v>630.45</v>
-      </c>
-      <c r="N143" t="n">
-        <v>630.3666666666667</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7813,31 +6471,23 @@
         <v>631.15</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>256</v>
+        <v>637</v>
       </c>
       <c r="K144" t="n">
-        <v>100</v>
-      </c>
-      <c r="L144" t="n">
-        <v>633.2</v>
+        <v>632</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M144" t="n">
-        <v>631.05</v>
-      </c>
-      <c r="N144" t="n">
-        <v>630.7</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7864,31 +6514,23 @@
         <v>631.2333333333333</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>257</v>
+        <v>639</v>
       </c>
       <c r="K145" t="n">
-        <v>100</v>
-      </c>
-      <c r="L145" t="n">
-        <v>634.5</v>
+        <v>632</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M145" t="n">
-        <v>631.65</v>
-      </c>
-      <c r="N145" t="n">
-        <v>631.0666666666667</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7915,31 +6557,23 @@
         <v>631.2833333333333</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>257</v>
+        <v>640</v>
       </c>
       <c r="K146" t="n">
-        <v>100</v>
-      </c>
-      <c r="L146" t="n">
-        <v>635.8</v>
+        <v>632</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M146" t="n">
-        <v>632.25</v>
-      </c>
-      <c r="N146" t="n">
-        <v>631.4333333333333</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7969,28 +6603,18 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>7</v>
-      </c>
-      <c r="J147" t="n">
-        <v>257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>100</v>
-      </c>
-      <c r="L147" t="n">
-        <v>636.5</v>
+        <v>632</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M147" t="n">
-        <v>632.55</v>
-      </c>
-      <c r="N147" t="n">
-        <v>631.8</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8020,28 +6644,18 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>7</v>
-      </c>
-      <c r="J148" t="n">
-        <v>257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>100</v>
-      </c>
-      <c r="L148" t="n">
-        <v>637.2</v>
+        <v>632</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M148" t="n">
-        <v>632.9</v>
-      </c>
-      <c r="N148" t="n">
-        <v>632.1666666666666</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8071,28 +6685,18 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>7</v>
-      </c>
-      <c r="J149" t="n">
-        <v>257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>100</v>
-      </c>
-      <c r="L149" t="n">
-        <v>637.9</v>
+        <v>632</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M149" t="n">
-        <v>633.35</v>
-      </c>
-      <c r="N149" t="n">
-        <v>632.3666666666667</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8122,28 +6726,18 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>9</v>
-      </c>
-      <c r="J150" t="n">
-        <v>259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>100</v>
-      </c>
-      <c r="L150" t="n">
-        <v>638.8</v>
+        <v>632</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M150" t="n">
-        <v>634.1</v>
-      </c>
-      <c r="N150" t="n">
-        <v>632.6333333333333</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8173,28 +6767,18 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>9</v>
-      </c>
-      <c r="J151" t="n">
-        <v>259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>100</v>
-      </c>
-      <c r="L151" t="n">
-        <v>639.5</v>
+        <v>632</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M151" t="n">
-        <v>634.85</v>
-      </c>
-      <c r="N151" t="n">
-        <v>632.8333333333334</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8224,28 +6808,18 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>9</v>
-      </c>
-      <c r="J152" t="n">
-        <v>259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>100</v>
-      </c>
-      <c r="L152" t="n">
-        <v>640.1</v>
+        <v>632</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M152" t="n">
-        <v>635.6</v>
-      </c>
-      <c r="N152" t="n">
-        <v>633.3666666666667</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8275,28 +6849,18 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>10</v>
-      </c>
-      <c r="J153" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>100</v>
-      </c>
-      <c r="L153" t="n">
-        <v>640.8</v>
+        <v>632</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M153" t="n">
-        <v>636.4</v>
-      </c>
-      <c r="N153" t="n">
-        <v>633.9</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8326,28 +6890,18 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>10</v>
-      </c>
-      <c r="J154" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>100</v>
-      </c>
-      <c r="L154" t="n">
-        <v>641.2</v>
+        <v>632</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M154" t="n">
-        <v>637.2</v>
-      </c>
-      <c r="N154" t="n">
-        <v>634.4333333333333</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8377,28 +6931,18 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>10</v>
-      </c>
-      <c r="J155" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>100</v>
-      </c>
-      <c r="L155" t="n">
-        <v>641.5</v>
+        <v>632</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M155" t="n">
-        <v>638</v>
-      </c>
-      <c r="N155" t="n">
-        <v>634.9333333333333</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8428,28 +6972,18 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>10</v>
-      </c>
-      <c r="J156" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>100</v>
-      </c>
-      <c r="L156" t="n">
-        <v>641.8</v>
+        <v>632</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M156" t="n">
-        <v>638.8</v>
-      </c>
-      <c r="N156" t="n">
-        <v>635.4333333333333</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8479,28 +7013,18 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>12</v>
-      </c>
-      <c r="J157" t="n">
-        <v>262</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>100</v>
-      </c>
-      <c r="L157" t="n">
-        <v>642.3</v>
+        <v>632</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M157" t="n">
-        <v>639.4</v>
-      </c>
-      <c r="N157" t="n">
-        <v>635.8</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8530,28 +7054,18 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>15</v>
-      </c>
-      <c r="J158" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>100</v>
-      </c>
-      <c r="L158" t="n">
-        <v>643.1</v>
+        <v>632</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M158" t="n">
-        <v>640.15</v>
-      </c>
-      <c r="N158" t="n">
-        <v>636.3</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8581,28 +7095,18 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>16</v>
-      </c>
-      <c r="J159" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>100</v>
-      </c>
-      <c r="L159" t="n">
-        <v>644</v>
+        <v>632</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M159" t="n">
-        <v>640.95</v>
-      </c>
-      <c r="N159" t="n">
-        <v>636.9</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8632,28 +7136,18 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>27</v>
-      </c>
-      <c r="J160" t="n">
-        <v>277</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>100</v>
-      </c>
-      <c r="L160" t="n">
-        <v>645.8</v>
+        <v>632</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M160" t="n">
-        <v>642.3</v>
-      </c>
-      <c r="N160" t="n">
-        <v>638</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8683,28 +7177,18 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>29</v>
-      </c>
-      <c r="J161" t="n">
-        <v>279</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>100</v>
-      </c>
-      <c r="L161" t="n">
-        <v>647.8</v>
+        <v>632</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M161" t="n">
-        <v>643.65</v>
-      </c>
-      <c r="N161" t="n">
-        <v>639.1666666666666</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8734,28 +7218,18 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>34</v>
-      </c>
-      <c r="J162" t="n">
-        <v>284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>100</v>
-      </c>
-      <c r="L162" t="n">
-        <v>650.3</v>
+        <v>632</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M162" t="n">
-        <v>645.2</v>
-      </c>
-      <c r="N162" t="n">
-        <v>640.5</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8785,28 +7259,18 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>33</v>
-      </c>
-      <c r="J163" t="n">
-        <v>285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>92</v>
-      </c>
-      <c r="L163" t="n">
-        <v>652.6</v>
+        <v>632</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M163" t="n">
-        <v>646.7</v>
-      </c>
-      <c r="N163" t="n">
-        <v>641.8</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8836,29 +7300,19 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>33</v>
-      </c>
-      <c r="J164" t="n">
-        <v>285</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>92</v>
-      </c>
-      <c r="L164" t="n">
-        <v>654.9</v>
+        <v>632</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M164" t="n">
-        <v>648.05</v>
-      </c>
-      <c r="N164" t="n">
-        <v>643.1</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
-        <v>1</v>
+        <v>1.048797468354431</v>
       </c>
     </row>
     <row r="165">
@@ -8887,28 +7341,12 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>26</v>
-      </c>
-      <c r="J165" t="n">
-        <v>292</v>
-      </c>
-      <c r="K165" t="n">
-        <v>50</v>
-      </c>
-      <c r="L165" t="n">
-        <v>656.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
-        <v>649</v>
-      </c>
-      <c r="N165" t="n">
-        <v>644.1666666666666</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8938,28 +7376,12 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>26</v>
-      </c>
-      <c r="J166" t="n">
-        <v>292</v>
-      </c>
-      <c r="K166" t="n">
-        <v>46.66666666666666</v>
-      </c>
-      <c r="L166" t="n">
-        <v>658.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
-        <v>649.95</v>
-      </c>
-      <c r="N166" t="n">
-        <v>645.2333333333333</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8989,28 +7411,12 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>20</v>
-      </c>
-      <c r="J167" t="n">
-        <v>298</v>
-      </c>
-      <c r="K167" t="n">
-        <v>15.15151515151515</v>
-      </c>
-      <c r="L167" t="n">
-        <v>658.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
-        <v>650.6</v>
-      </c>
-      <c r="N167" t="n">
-        <v>645.9</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9040,28 +7446,12 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>26</v>
-      </c>
-      <c r="J168" t="n">
-        <v>304</v>
-      </c>
-      <c r="K168" t="n">
-        <v>26.31578947368421</v>
-      </c>
-      <c r="L168" t="n">
-        <v>660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
-        <v>651.55</v>
-      </c>
-      <c r="N168" t="n">
-        <v>646.7666666666667</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9091,28 +7481,12 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>26</v>
-      </c>
-      <c r="J169" t="n">
-        <v>304</v>
-      </c>
-      <c r="K169" t="n">
-        <v>-3.703703703703703</v>
-      </c>
-      <c r="L169" t="n">
-        <v>661</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
-        <v>652.5</v>
-      </c>
-      <c r="N169" t="n">
-        <v>647.6333333333333</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9142,28 +7516,12 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>20</v>
-      </c>
-      <c r="J170" t="n">
-        <v>310</v>
-      </c>
-      <c r="K170" t="n">
-        <v>-29.03225806451613</v>
-      </c>
-      <c r="L170" t="n">
-        <v>660.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
-        <v>653.05</v>
-      </c>
-      <c r="N170" t="n">
-        <v>648.3</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9193,28 +7551,12 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>23</v>
-      </c>
-      <c r="J171" t="n">
-        <v>313</v>
-      </c>
-      <c r="K171" t="n">
-        <v>-37.93103448275862</v>
-      </c>
-      <c r="L171" t="n">
-        <v>659.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
-        <v>653.75</v>
-      </c>
-      <c r="N171" t="n">
-        <v>649</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9244,28 +7586,12 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>20</v>
-      </c>
-      <c r="J172" t="n">
-        <v>316</v>
-      </c>
-      <c r="K172" t="n">
-        <v>-41.93548387096774</v>
-      </c>
-      <c r="L172" t="n">
-        <v>658.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
-        <v>654.3</v>
-      </c>
-      <c r="N172" t="n">
-        <v>649.5666666666667</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9295,28 +7621,12 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>19</v>
-      </c>
-      <c r="J173" t="n">
-        <v>317</v>
-      </c>
-      <c r="K173" t="n">
-        <v>-43.75</v>
-      </c>
-      <c r="L173" t="n">
-        <v>656.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
-        <v>654.75</v>
-      </c>
-      <c r="N173" t="n">
-        <v>650.1</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9346,28 +7656,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>14</v>
-      </c>
-      <c r="J174" t="n">
-        <v>322</v>
-      </c>
-      <c r="K174" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L174" t="n">
-        <v>655</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
-        <v>654.95</v>
-      </c>
-      <c r="N174" t="n">
-        <v>650.3666666666667</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9397,28 +7691,12 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>21</v>
-      </c>
-      <c r="J175" t="n">
-        <v>329</v>
-      </c>
-      <c r="K175" t="n">
-        <v>-13.51351351351351</v>
-      </c>
-      <c r="L175" t="n">
-        <v>654.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
-        <v>655.5</v>
-      </c>
-      <c r="N175" t="n">
-        <v>650.8333333333334</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9448,28 +7726,12 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>15</v>
-      </c>
-      <c r="J176" t="n">
-        <v>335</v>
-      </c>
-      <c r="K176" t="n">
-        <v>-13.51351351351351</v>
-      </c>
-      <c r="L176" t="n">
-        <v>653.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
-        <v>655.75</v>
-      </c>
-      <c r="N176" t="n">
-        <v>651.1</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9499,28 +7761,12 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>21</v>
-      </c>
-      <c r="J177" t="n">
-        <v>341</v>
-      </c>
-      <c r="K177" t="n">
-        <v>-13.51351351351351</v>
-      </c>
-      <c r="L177" t="n">
-        <v>653.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
-        <v>656.2</v>
-      </c>
-      <c r="N177" t="n">
-        <v>651.5666666666667</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9550,28 +7796,12 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>21</v>
-      </c>
-      <c r="J178" t="n">
-        <v>341</v>
-      </c>
-      <c r="K178" t="n">
-        <v>-13.51351351351351</v>
-      </c>
-      <c r="L178" t="n">
-        <v>653</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
-        <v>656.5</v>
-      </c>
-      <c r="N178" t="n">
-        <v>652.0333333333333</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9601,28 +7831,12 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>18</v>
-      </c>
-      <c r="J179" t="n">
-        <v>344</v>
-      </c>
-      <c r="K179" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L179" t="n">
-        <v>652.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
-        <v>656.6</v>
-      </c>
-      <c r="N179" t="n">
-        <v>652.4</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9652,28 +7866,12 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>18</v>
-      </c>
-      <c r="J180" t="n">
-        <v>344</v>
-      </c>
-      <c r="K180" t="n">
-        <v>-16.12903225806452</v>
-      </c>
-      <c r="L180" t="n">
-        <v>652</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
-        <v>656.15</v>
-      </c>
-      <c r="N180" t="n">
-        <v>652.7</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9703,28 +7901,12 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>10</v>
-      </c>
-      <c r="J181" t="n">
-        <v>352</v>
-      </c>
-      <c r="K181" t="n">
-        <v>-27.77777777777778</v>
-      </c>
-      <c r="L181" t="n">
-        <v>650.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
-        <v>655.2</v>
-      </c>
-      <c r="N181" t="n">
-        <v>652.7333333333333</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9754,28 +7936,12 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>21</v>
-      </c>
-      <c r="J182" t="n">
-        <v>363</v>
-      </c>
-      <c r="K182" t="n">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="L182" t="n">
-        <v>650.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
-        <v>654.55</v>
-      </c>
-      <c r="N182" t="n">
-        <v>653.1333333333333</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9805,28 +7971,12 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>25</v>
-      </c>
-      <c r="J183" t="n">
-        <v>367</v>
-      </c>
-      <c r="K183" t="n">
-        <v>24.44444444444444</v>
-      </c>
-      <c r="L183" t="n">
-        <v>651.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
-        <v>654.15</v>
-      </c>
-      <c r="N183" t="n">
-        <v>653.6333333333333</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9856,28 +8006,12 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>25</v>
-      </c>
-      <c r="J184" t="n">
-        <v>367</v>
-      </c>
-      <c r="K184" t="n">
-        <v>10.52631578947368</v>
-      </c>
-      <c r="L184" t="n">
-        <v>652.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
-        <v>653.75</v>
-      </c>
-      <c r="N184" t="n">
-        <v>654.1333333333333</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9907,28 +8041,12 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>25</v>
-      </c>
-      <c r="J185" t="n">
-        <v>367</v>
-      </c>
-      <c r="K185" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="L185" t="n">
-        <v>652.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
-        <v>653.7</v>
-      </c>
-      <c r="N185" t="n">
-        <v>654.6333333333333</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9958,28 +8076,12 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>37</v>
-      </c>
-      <c r="J186" t="n">
-        <v>379</v>
-      </c>
-      <c r="K186" t="n">
-        <v>42.10526315789473</v>
-      </c>
-      <c r="L186" t="n">
-        <v>655.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
-        <v>654.25</v>
-      </c>
-      <c r="N186" t="n">
-        <v>655.5333333333333</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10009,28 +8111,12 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>37</v>
-      </c>
-      <c r="J187" t="n">
-        <v>379</v>
-      </c>
-      <c r="K187" t="n">
-        <v>42.10526315789473</v>
-      </c>
-      <c r="L187" t="n">
-        <v>656.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
-        <v>655.1</v>
-      </c>
-      <c r="N187" t="n">
-        <v>656.3666666666667</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10060,28 +8146,12 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>37</v>
-      </c>
-      <c r="J188" t="n">
-        <v>379</v>
-      </c>
-      <c r="K188" t="n">
-        <v>54.28571428571428</v>
-      </c>
-      <c r="L188" t="n">
-        <v>658.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
-        <v>655.65</v>
-      </c>
-      <c r="N188" t="n">
-        <v>657.1</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10111,28 +8181,12 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>37</v>
-      </c>
-      <c r="J189" t="n">
-        <v>379</v>
-      </c>
-      <c r="K189" t="n">
-        <v>54.28571428571428</v>
-      </c>
-      <c r="L189" t="n">
-        <v>660.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
-        <v>656.2</v>
-      </c>
-      <c r="N189" t="n">
-        <v>657.8</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10162,28 +8216,12 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>37</v>
-      </c>
-      <c r="J190" t="n">
-        <v>379</v>
-      </c>
-      <c r="K190" t="n">
-        <v>100</v>
-      </c>
-      <c r="L190" t="n">
-        <v>662.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
-        <v>657.05</v>
-      </c>
-      <c r="N190" t="n">
-        <v>658.1333333333333</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10213,28 +8251,12 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>34</v>
-      </c>
-      <c r="J191" t="n">
-        <v>382</v>
-      </c>
-      <c r="K191" t="n">
-        <v>68.42105263157895</v>
-      </c>
-      <c r="L191" t="n">
-        <v>664.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
-        <v>657.6</v>
-      </c>
-      <c r="N191" t="n">
-        <v>658.3</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10264,28 +8286,12 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>30</v>
-      </c>
-      <c r="J192" t="n">
-        <v>386</v>
-      </c>
-      <c r="K192" t="n">
-        <v>26.31578947368421</v>
-      </c>
-      <c r="L192" t="n">
-        <v>665.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
-        <v>658.1</v>
-      </c>
-      <c r="N192" t="n">
-        <v>658.1666666666666</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10315,28 +8321,12 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>25</v>
-      </c>
-      <c r="J193" t="n">
-        <v>391</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0</v>
-      </c>
-      <c r="L193" t="n">
-        <v>665.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
-        <v>658.4</v>
-      </c>
-      <c r="N193" t="n">
-        <v>657.9</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10366,28 +8356,12 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>29</v>
-      </c>
-      <c r="J194" t="n">
-        <v>395</v>
-      </c>
-      <c r="K194" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L194" t="n">
-        <v>665.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
-        <v>659.15</v>
-      </c>
-      <c r="N194" t="n">
-        <v>657.7666666666667</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10417,28 +8391,12 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>31</v>
-      </c>
-      <c r="J195" t="n">
-        <v>397</v>
-      </c>
-      <c r="K195" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L195" t="n">
-        <v>666.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
-        <v>659.65</v>
-      </c>
-      <c r="N195" t="n">
-        <v>657.9333333333333</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10468,28 +8426,12 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>31</v>
-      </c>
-      <c r="J196" t="n">
-        <v>397</v>
-      </c>
-      <c r="K196" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L196" t="n">
-        <v>665.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
-        <v>660.45</v>
-      </c>
-      <c r="N196" t="n">
-        <v>658.1</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10519,28 +8461,12 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>29</v>
-      </c>
-      <c r="J197" t="n">
-        <v>399</v>
-      </c>
-      <c r="K197" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L197" t="n">
-        <v>665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
-        <v>660.85</v>
-      </c>
-      <c r="N197" t="n">
-        <v>658.4</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10570,28 +8496,12 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>29</v>
-      </c>
-      <c r="J198" t="n">
-        <v>399</v>
-      </c>
-      <c r="K198" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L198" t="n">
-        <v>664.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
-        <v>661.25</v>
-      </c>
-      <c r="N198" t="n">
-        <v>658.5</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10621,28 +8531,12 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>35</v>
-      </c>
-      <c r="J199" t="n">
-        <v>405</v>
-      </c>
-      <c r="K199" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L199" t="n">
-        <v>664</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
-        <v>662.1</v>
-      </c>
-      <c r="N199" t="n">
-        <v>658.8</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10672,28 +8566,12 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>38</v>
-      </c>
-      <c r="J200" t="n">
-        <v>408</v>
-      </c>
-      <c r="K200" t="n">
-        <v>15.38461538461539</v>
-      </c>
-      <c r="L200" t="n">
-        <v>664.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
-        <v>663.1</v>
-      </c>
-      <c r="N200" t="n">
-        <v>659.4</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10723,28 +8601,12 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>38</v>
-      </c>
-      <c r="J201" t="n">
-        <v>408</v>
-      </c>
-      <c r="K201" t="n">
-        <v>36.36363636363637</v>
-      </c>
-      <c r="L201" t="n">
-        <v>664.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
-        <v>664.5</v>
-      </c>
-      <c r="N201" t="n">
-        <v>659.9</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10774,28 +8636,12 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>40</v>
-      </c>
-      <c r="J202" t="n">
-        <v>410</v>
-      </c>
-      <c r="K202" t="n">
-        <v>78.94736842105263</v>
-      </c>
-      <c r="L202" t="n">
-        <v>665.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
-        <v>665.45</v>
-      </c>
-      <c r="N202" t="n">
-        <v>660.5666666666667</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10825,28 +8671,12 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>40</v>
-      </c>
-      <c r="J203" t="n">
-        <v>410</v>
-      </c>
-      <c r="K203" t="n">
-        <v>73.33333333333333</v>
-      </c>
-      <c r="L203" t="n">
-        <v>667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
-        <v>666.2</v>
-      </c>
-      <c r="N203" t="n">
-        <v>661.2666666666667</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10876,28 +8706,12 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>35</v>
-      </c>
-      <c r="J204" t="n">
-        <v>415</v>
-      </c>
-      <c r="K204" t="n">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="L204" t="n">
-        <v>667.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
-        <v>666.7</v>
-      </c>
-      <c r="N204" t="n">
-        <v>661.9666666666667</v>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10927,28 +8741,12 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>40</v>
-      </c>
-      <c r="J205" t="n">
-        <v>420</v>
-      </c>
-      <c r="K205" t="n">
-        <v>39.1304347826087</v>
-      </c>
-      <c r="L205" t="n">
-        <v>668.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
-        <v>667.45</v>
-      </c>
-      <c r="N205" t="n">
-        <v>662.6</v>
-      </c>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10978,28 +8776,12 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>51</v>
-      </c>
-      <c r="J206" t="n">
-        <v>431</v>
-      </c>
-      <c r="K206" t="n">
-        <v>68.75</v>
-      </c>
-      <c r="L206" t="n">
-        <v>670.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
-        <v>668.15</v>
-      </c>
-      <c r="N206" t="n">
-        <v>663.8</v>
-      </c>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11029,28 +8811,12 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>51</v>
-      </c>
-      <c r="J207" t="n">
-        <v>431</v>
-      </c>
-      <c r="K207" t="n">
-        <v>68.75</v>
-      </c>
-      <c r="L207" t="n">
-        <v>672.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
-        <v>668.85</v>
-      </c>
-      <c r="N207" t="n">
-        <v>664.8</v>
-      </c>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11080,28 +8846,12 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>52</v>
-      </c>
-      <c r="J208" t="n">
-        <v>432</v>
-      </c>
-      <c r="K208" t="n">
-        <v>62.96296296296296</v>
-      </c>
-      <c r="L208" t="n">
-        <v>675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
-        <v>669.6</v>
-      </c>
-      <c r="N208" t="n">
-        <v>665.8333333333334</v>
-      </c>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11131,28 +8881,12 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>54</v>
-      </c>
-      <c r="J209" t="n">
-        <v>434</v>
-      </c>
-      <c r="K209" t="n">
-        <v>61.53846153846154</v>
-      </c>
-      <c r="L209" t="n">
-        <v>676.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
-        <v>670.45</v>
-      </c>
-      <c r="N209" t="n">
-        <v>667.0333333333333</v>
-      </c>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11182,28 +8916,12 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>58</v>
-      </c>
-      <c r="J210" t="n">
-        <v>438</v>
-      </c>
-      <c r="K210" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L210" t="n">
-        <v>678.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
-        <v>671.5</v>
-      </c>
-      <c r="N210" t="n">
-        <v>668.3666666666667</v>
-      </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11233,28 +8951,12 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>63</v>
-      </c>
-      <c r="J211" t="n">
-        <v>443</v>
-      </c>
-      <c r="K211" t="n">
-        <v>69.6969696969697</v>
-      </c>
-      <c r="L211" t="n">
-        <v>681.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
-        <v>672.95</v>
-      </c>
-      <c r="N211" t="n">
-        <v>670.1333333333333</v>
-      </c>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
-      <c r="S211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11284,28 +8986,12 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>65</v>
-      </c>
-      <c r="J212" t="n">
-        <v>445</v>
-      </c>
-      <c r="K212" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L212" t="n">
-        <v>683.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
-        <v>674.7</v>
-      </c>
-      <c r="N212" t="n">
-        <v>671.6</v>
-      </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11335,28 +9021,12 @@
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>65</v>
-      </c>
-      <c r="J213" t="n">
-        <v>445</v>
-      </c>
-      <c r="K213" t="n">
-        <v>100</v>
-      </c>
-      <c r="L213" t="n">
-        <v>686.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
-        <v>676.7</v>
-      </c>
-      <c r="N213" t="n">
-        <v>672.9333333333333</v>
-      </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11386,28 +9056,12 @@
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>57</v>
-      </c>
-      <c r="J214" t="n">
-        <v>453</v>
-      </c>
-      <c r="K214" t="n">
-        <v>51.51515151515152</v>
-      </c>
-      <c r="L214" t="n">
-        <v>688.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
-        <v>678.1</v>
-      </c>
-      <c r="N214" t="n">
-        <v>674</v>
-      </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11437,28 +9091,12 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>65</v>
-      </c>
-      <c r="J215" t="n">
-        <v>461</v>
-      </c>
-      <c r="K215" t="n">
-        <v>46.66666666666666</v>
-      </c>
-      <c r="L215" t="n">
-        <v>691.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
-        <v>679.8</v>
-      </c>
-      <c r="N215" t="n">
-        <v>675.3333333333334</v>
-      </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11488,28 +9126,12 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>57</v>
-      </c>
-      <c r="J216" t="n">
-        <v>469</v>
-      </c>
-      <c r="K216" t="n">
-        <v>15.78947368421053</v>
-      </c>
-      <c r="L216" t="n">
-        <v>691.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
-        <v>681.1</v>
-      </c>
-      <c r="N216" t="n">
-        <v>676</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
-      <c r="S216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11539,28 +9161,12 @@
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>61</v>
-      </c>
-      <c r="J217" t="n">
-        <v>473</v>
-      </c>
-      <c r="K217" t="n">
-        <v>21.95121951219512</v>
-      </c>
-      <c r="L217" t="n">
-        <v>692.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
-        <v>682.7</v>
-      </c>
-      <c r="N217" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11590,28 +9196,12 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>63</v>
-      </c>
-      <c r="J218" t="n">
-        <v>475</v>
-      </c>
-      <c r="K218" t="n">
-        <v>21.95121951219512</v>
-      </c>
-      <c r="L218" t="n">
-        <v>693.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
-        <v>684.4</v>
-      </c>
-      <c r="N218" t="n">
-        <v>677.6666666666666</v>
-      </c>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
-      <c r="S218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11641,28 +9231,12 @@
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>62</v>
-      </c>
-      <c r="J219" t="n">
-        <v>476</v>
-      </c>
-      <c r="K219" t="n">
-        <v>10.52631578947368</v>
-      </c>
-      <c r="L219" t="n">
-        <v>694.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
-        <v>685.75</v>
-      </c>
-      <c r="N219" t="n">
-        <v>678.5</v>
-      </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
-      <c r="Q219" t="inlineStr"/>
-      <c r="R219" t="inlineStr"/>
-      <c r="S219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11692,28 +9266,12 @@
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>60</v>
-      </c>
-      <c r="J220" t="n">
-        <v>478</v>
-      </c>
-      <c r="K220" t="n">
-        <v>-8.571428571428571</v>
-      </c>
-      <c r="L220" t="n">
-        <v>694.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
-        <v>686.85</v>
-      </c>
-      <c r="N220" t="n">
-        <v>679.2666666666667</v>
-      </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
-      <c r="Q220" t="inlineStr"/>
-      <c r="R220" t="inlineStr"/>
-      <c r="S220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11743,1099 +9301,12 @@
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>60</v>
-      </c>
-      <c r="J221" t="n">
-        <v>478</v>
-      </c>
-      <c r="K221" t="n">
-        <v>-15.15151515151515</v>
-      </c>
-      <c r="L221" t="n">
-        <v>694.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
-        <v>687.95</v>
-      </c>
-      <c r="N221" t="n">
-        <v>680.1333333333333</v>
-      </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
-      <c r="Q221" t="inlineStr"/>
-      <c r="R221" t="inlineStr"/>
-      <c r="S221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>693</v>
-      </c>
-      <c r="C222" t="n">
-        <v>694</v>
-      </c>
-      <c r="D222" t="n">
-        <v>694</v>
-      </c>
-      <c r="E222" t="n">
-        <v>693</v>
-      </c>
-      <c r="F222" t="n">
-        <v>2292.073</v>
-      </c>
-      <c r="G222" t="n">
-        <v>669.6666666666666</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>61</v>
-      </c>
-      <c r="J222" t="n">
-        <v>479</v>
-      </c>
-      <c r="K222" t="n">
-        <v>-11.76470588235294</v>
-      </c>
-      <c r="L222" t="n">
-        <v>694.1</v>
-      </c>
-      <c r="M222" t="n">
-        <v>689</v>
-      </c>
-      <c r="N222" t="n">
-        <v>681.1666666666666</v>
-      </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
-      <c r="S222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>695</v>
-      </c>
-      <c r="C223" t="n">
-        <v>695</v>
-      </c>
-      <c r="D223" t="n">
-        <v>695</v>
-      </c>
-      <c r="E223" t="n">
-        <v>695</v>
-      </c>
-      <c r="F223" t="n">
-        <v>2437.1266</v>
-      </c>
-      <c r="G223" t="n">
-        <v>670.15</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>62</v>
-      </c>
-      <c r="J223" t="n">
-        <v>480</v>
-      </c>
-      <c r="K223" t="n">
-        <v>18.51851851851852</v>
-      </c>
-      <c r="L223" t="n">
-        <v>693.8</v>
-      </c>
-      <c r="M223" t="n">
-        <v>690.1</v>
-      </c>
-      <c r="N223" t="n">
-        <v>682.4</v>
-      </c>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>695</v>
-      </c>
-      <c r="C224" t="n">
-        <v>695</v>
-      </c>
-      <c r="D224" t="n">
-        <v>695</v>
-      </c>
-      <c r="E224" t="n">
-        <v>695</v>
-      </c>
-      <c r="F224" t="n">
-        <v>715.4580999999999</v>
-      </c>
-      <c r="G224" t="n">
-        <v>670.6333333333333</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>62</v>
-      </c>
-      <c r="J224" t="n">
-        <v>480</v>
-      </c>
-      <c r="K224" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L224" t="n">
-        <v>694.3</v>
-      </c>
-      <c r="M224" t="n">
-        <v>691.45</v>
-      </c>
-      <c r="N224" t="n">
-        <v>683.5</v>
-      </c>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
-      <c r="S224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>695</v>
-      </c>
-      <c r="C225" t="n">
-        <v>700</v>
-      </c>
-      <c r="D225" t="n">
-        <v>700</v>
-      </c>
-      <c r="E225" t="n">
-        <v>695</v>
-      </c>
-      <c r="F225" t="n">
-        <v>4402.5153</v>
-      </c>
-      <c r="G225" t="n">
-        <v>671.3166666666667</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>67</v>
-      </c>
-      <c r="J225" t="n">
-        <v>485</v>
-      </c>
-      <c r="K225" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="L225" t="n">
-        <v>694.5</v>
-      </c>
-      <c r="M225" t="n">
-        <v>692.8</v>
-      </c>
-      <c r="N225" t="n">
-        <v>684.7</v>
-      </c>
-      <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr"/>
-      <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="inlineStr"/>
-      <c r="S225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>699</v>
-      </c>
-      <c r="C226" t="n">
-        <v>697</v>
-      </c>
-      <c r="D226" t="n">
-        <v>700</v>
-      </c>
-      <c r="E226" t="n">
-        <v>697</v>
-      </c>
-      <c r="F226" t="n">
-        <v>665.7117</v>
-      </c>
-      <c r="G226" t="n">
-        <v>671.95</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>64</v>
-      </c>
-      <c r="J226" t="n">
-        <v>488</v>
-      </c>
-      <c r="K226" t="n">
-        <v>20</v>
-      </c>
-      <c r="L226" t="n">
-        <v>695.2</v>
-      </c>
-      <c r="M226" t="n">
-        <v>693.45</v>
-      </c>
-      <c r="N226" t="n">
-        <v>685.8</v>
-      </c>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
-      <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
-      <c r="S226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>701</v>
-      </c>
-      <c r="C227" t="n">
-        <v>696</v>
-      </c>
-      <c r="D227" t="n">
-        <v>701</v>
-      </c>
-      <c r="E227" t="n">
-        <v>696</v>
-      </c>
-      <c r="F227" t="n">
-        <v>1101.5922</v>
-      </c>
-      <c r="G227" t="n">
-        <v>672.6666666666666</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>63</v>
-      </c>
-      <c r="J227" t="n">
-        <v>489</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0</v>
-      </c>
-      <c r="L227" t="n">
-        <v>695.4</v>
-      </c>
-      <c r="M227" t="n">
-        <v>694.05</v>
-      </c>
-      <c r="N227" t="n">
-        <v>686.9333333333333</v>
-      </c>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
-      <c r="Q227" t="inlineStr"/>
-      <c r="R227" t="inlineStr"/>
-      <c r="S227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>700</v>
-      </c>
-      <c r="C228" t="n">
-        <v>702</v>
-      </c>
-      <c r="D228" t="n">
-        <v>702</v>
-      </c>
-      <c r="E228" t="n">
-        <v>700</v>
-      </c>
-      <c r="F228" t="n">
-        <v>400.5333</v>
-      </c>
-      <c r="G228" t="n">
-        <v>673.3833333333333</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>69</v>
-      </c>
-      <c r="J228" t="n">
-        <v>495</v>
-      </c>
-      <c r="K228" t="n">
-        <v>36.84210526315789</v>
-      </c>
-      <c r="L228" t="n">
-        <v>696</v>
-      </c>
-      <c r="M228" t="n">
-        <v>694.9</v>
-      </c>
-      <c r="N228" t="n">
-        <v>688.2666666666667</v>
-      </c>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr"/>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
-      <c r="S228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>702</v>
-      </c>
-      <c r="C229" t="n">
-        <v>703</v>
-      </c>
-      <c r="D229" t="n">
-        <v>703</v>
-      </c>
-      <c r="E229" t="n">
-        <v>697</v>
-      </c>
-      <c r="F229" t="n">
-        <v>331.6416</v>
-      </c>
-      <c r="G229" t="n">
-        <v>674.1166666666667</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>70</v>
-      </c>
-      <c r="J229" t="n">
-        <v>496</v>
-      </c>
-      <c r="K229" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L229" t="n">
-        <v>696.8</v>
-      </c>
-      <c r="M229" t="n">
-        <v>695.7</v>
-      </c>
-      <c r="N229" t="n">
-        <v>689.4333333333333</v>
-      </c>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-      <c r="S229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>697</v>
-      </c>
-      <c r="C230" t="n">
-        <v>697</v>
-      </c>
-      <c r="D230" t="n">
-        <v>697</v>
-      </c>
-      <c r="E230" t="n">
-        <v>697</v>
-      </c>
-      <c r="F230" t="n">
-        <v>1414</v>
-      </c>
-      <c r="G230" t="n">
-        <v>674.85</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>64</v>
-      </c>
-      <c r="J230" t="n">
-        <v>502</v>
-      </c>
-      <c r="K230" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L230" t="n">
-        <v>697.2</v>
-      </c>
-      <c r="M230" t="n">
-        <v>696</v>
-      </c>
-      <c r="N230" t="n">
-        <v>690.3</v>
-      </c>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
-      <c r="S230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>697</v>
-      </c>
-      <c r="C231" t="n">
-        <v>696</v>
-      </c>
-      <c r="D231" t="n">
-        <v>697</v>
-      </c>
-      <c r="E231" t="n">
-        <v>696</v>
-      </c>
-      <c r="F231" t="n">
-        <v>3217.7593</v>
-      </c>
-      <c r="G231" t="n">
-        <v>675.5166666666667</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>63</v>
-      </c>
-      <c r="J231" t="n">
-        <v>503</v>
-      </c>
-      <c r="K231" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="L231" t="n">
-        <v>697.5</v>
-      </c>
-      <c r="M231" t="n">
-        <v>696</v>
-      </c>
-      <c r="N231" t="n">
-        <v>691.1333333333333</v>
-      </c>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
-      <c r="Q231" t="inlineStr"/>
-      <c r="R231" t="inlineStr"/>
-      <c r="S231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>695</v>
-      </c>
-      <c r="C232" t="n">
-        <v>702</v>
-      </c>
-      <c r="D232" t="n">
-        <v>702</v>
-      </c>
-      <c r="E232" t="n">
-        <v>679</v>
-      </c>
-      <c r="F232" t="n">
-        <v>2463.5394</v>
-      </c>
-      <c r="G232" t="n">
-        <v>676.3333333333334</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>69</v>
-      </c>
-      <c r="J232" t="n">
-        <v>509</v>
-      </c>
-      <c r="K232" t="n">
-        <v>24.13793103448276</v>
-      </c>
-      <c r="L232" t="n">
-        <v>698.3</v>
-      </c>
-      <c r="M232" t="n">
-        <v>696.2</v>
-      </c>
-      <c r="N232" t="n">
-        <v>692.1</v>
-      </c>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr"/>
-      <c r="Q232" t="inlineStr"/>
-      <c r="R232" t="inlineStr"/>
-      <c r="S232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>698</v>
-      </c>
-      <c r="C233" t="n">
-        <v>698</v>
-      </c>
-      <c r="D233" t="n">
-        <v>698</v>
-      </c>
-      <c r="E233" t="n">
-        <v>698</v>
-      </c>
-      <c r="F233" t="n">
-        <v>515.2069</v>
-      </c>
-      <c r="G233" t="n">
-        <v>677.1</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>65</v>
-      </c>
-      <c r="J233" t="n">
-        <v>513</v>
-      </c>
-      <c r="K233" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L233" t="n">
-        <v>698.6</v>
-      </c>
-      <c r="M233" t="n">
-        <v>696.2</v>
-      </c>
-      <c r="N233" t="n">
-        <v>692.9333333333333</v>
-      </c>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
-      <c r="Q233" t="inlineStr"/>
-      <c r="R233" t="inlineStr"/>
-      <c r="S233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>699</v>
-      </c>
-      <c r="C234" t="n">
-        <v>699</v>
-      </c>
-      <c r="D234" t="n">
-        <v>699</v>
-      </c>
-      <c r="E234" t="n">
-        <v>699</v>
-      </c>
-      <c r="F234" t="n">
-        <v>575.0244</v>
-      </c>
-      <c r="G234" t="n">
-        <v>677.9666666666667</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>66</v>
-      </c>
-      <c r="J234" t="n">
-        <v>514</v>
-      </c>
-      <c r="K234" t="n">
-        <v>-3.448275862068965</v>
-      </c>
-      <c r="L234" t="n">
-        <v>699</v>
-      </c>
-      <c r="M234" t="n">
-        <v>696.65</v>
-      </c>
-      <c r="N234" t="n">
-        <v>693.9666666666667</v>
-      </c>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
-      <c r="Q234" t="inlineStr"/>
-      <c r="R234" t="inlineStr"/>
-      <c r="S234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>699</v>
-      </c>
-      <c r="C235" t="n">
-        <v>699</v>
-      </c>
-      <c r="D235" t="n">
-        <v>699</v>
-      </c>
-      <c r="E235" t="n">
-        <v>699</v>
-      </c>
-      <c r="F235" t="n">
-        <v>2857.4801</v>
-      </c>
-      <c r="G235" t="n">
-        <v>678.7166666666667</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>66</v>
-      </c>
-      <c r="J235" t="n">
-        <v>514</v>
-      </c>
-      <c r="K235" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L235" t="n">
-        <v>698.9</v>
-      </c>
-      <c r="M235" t="n">
-        <v>696.7</v>
-      </c>
-      <c r="N235" t="n">
-        <v>694.8333333333334</v>
-      </c>
-      <c r="O235" t="inlineStr"/>
-      <c r="P235" t="inlineStr"/>
-      <c r="Q235" t="inlineStr"/>
-      <c r="R235" t="inlineStr"/>
-      <c r="S235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>700</v>
-      </c>
-      <c r="C236" t="n">
-        <v>702</v>
-      </c>
-      <c r="D236" t="n">
-        <v>702</v>
-      </c>
-      <c r="E236" t="n">
-        <v>691</v>
-      </c>
-      <c r="F236" t="n">
-        <v>5615.2105</v>
-      </c>
-      <c r="G236" t="n">
-        <v>679.6166666666667</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>69</v>
-      </c>
-      <c r="J236" t="n">
-        <v>517</v>
-      </c>
-      <c r="K236" t="n">
-        <v>21.42857142857143</v>
-      </c>
-      <c r="L236" t="n">
-        <v>699.4</v>
-      </c>
-      <c r="M236" t="n">
-        <v>697.3</v>
-      </c>
-      <c r="N236" t="n">
-        <v>695.4333333333333</v>
-      </c>
-      <c r="O236" t="inlineStr"/>
-      <c r="P236" t="inlineStr"/>
-      <c r="Q236" t="inlineStr"/>
-      <c r="R236" t="inlineStr"/>
-      <c r="S236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>703</v>
-      </c>
-      <c r="C237" t="n">
-        <v>704</v>
-      </c>
-      <c r="D237" t="n">
-        <v>705</v>
-      </c>
-      <c r="E237" t="n">
-        <v>703</v>
-      </c>
-      <c r="F237" t="n">
-        <v>5223.0469</v>
-      </c>
-      <c r="G237" t="n">
-        <v>680.45</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>71</v>
-      </c>
-      <c r="J237" t="n">
-        <v>519</v>
-      </c>
-      <c r="K237" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="L237" t="n">
-        <v>700.2</v>
-      </c>
-      <c r="M237" t="n">
-        <v>697.8</v>
-      </c>
-      <c r="N237" t="n">
-        <v>696.1</v>
-      </c>
-      <c r="O237" t="inlineStr"/>
-      <c r="P237" t="inlineStr"/>
-      <c r="Q237" t="inlineStr"/>
-      <c r="R237" t="inlineStr"/>
-      <c r="S237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>705</v>
-      </c>
-      <c r="C238" t="n">
-        <v>705</v>
-      </c>
-      <c r="D238" t="n">
-        <v>708</v>
-      </c>
-      <c r="E238" t="n">
-        <v>705</v>
-      </c>
-      <c r="F238" t="n">
-        <v>4422.0587</v>
-      </c>
-      <c r="G238" t="n">
-        <v>681.3</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>72</v>
-      </c>
-      <c r="J238" t="n">
-        <v>520</v>
-      </c>
-      <c r="K238" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="L238" t="n">
-        <v>700.5</v>
-      </c>
-      <c r="M238" t="n">
-        <v>698.25</v>
-      </c>
-      <c r="N238" t="n">
-        <v>696.7666666666667</v>
-      </c>
-      <c r="O238" t="inlineStr"/>
-      <c r="P238" t="inlineStr"/>
-      <c r="Q238" t="inlineStr"/>
-      <c r="R238" t="inlineStr"/>
-      <c r="S238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>708</v>
-      </c>
-      <c r="C239" t="n">
-        <v>708</v>
-      </c>
-      <c r="D239" t="n">
-        <v>708</v>
-      </c>
-      <c r="E239" t="n">
-        <v>708</v>
-      </c>
-      <c r="F239" t="n">
-        <v>724.367</v>
-      </c>
-      <c r="G239" t="n">
-        <v>682.25</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>75</v>
-      </c>
-      <c r="J239" t="n">
-        <v>523</v>
-      </c>
-      <c r="K239" t="n">
-        <v>52.38095238095239</v>
-      </c>
-      <c r="L239" t="n">
-        <v>701</v>
-      </c>
-      <c r="M239" t="n">
-        <v>698.9</v>
-      </c>
-      <c r="N239" t="n">
-        <v>697.4666666666667</v>
-      </c>
-      <c r="O239" t="inlineStr"/>
-      <c r="P239" t="inlineStr"/>
-      <c r="Q239" t="inlineStr"/>
-      <c r="R239" t="inlineStr"/>
-      <c r="S239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>709</v>
-      </c>
-      <c r="C240" t="n">
-        <v>713</v>
-      </c>
-      <c r="D240" t="n">
-        <v>713</v>
-      </c>
-      <c r="E240" t="n">
-        <v>708</v>
-      </c>
-      <c r="F240" t="n">
-        <v>1495.1746</v>
-      </c>
-      <c r="G240" t="n">
-        <v>683.2833333333333</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>80</v>
-      </c>
-      <c r="J240" t="n">
-        <v>528</v>
-      </c>
-      <c r="K240" t="n">
-        <v>68</v>
-      </c>
-      <c r="L240" t="n">
-        <v>702.6</v>
-      </c>
-      <c r="M240" t="n">
-        <v>699.9</v>
-      </c>
-      <c r="N240" t="n">
-        <v>698.2</v>
-      </c>
-      <c r="O240" t="inlineStr"/>
-      <c r="P240" t="inlineStr"/>
-      <c r="Q240" t="inlineStr"/>
-      <c r="R240" t="inlineStr"/>
-      <c r="S240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>713</v>
-      </c>
-      <c r="C241" t="n">
-        <v>717</v>
-      </c>
-      <c r="D241" t="n">
-        <v>717</v>
-      </c>
-      <c r="E241" t="n">
-        <v>713</v>
-      </c>
-      <c r="F241" t="n">
-        <v>4860.479</v>
-      </c>
-      <c r="G241" t="n">
-        <v>684.5166666666667</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>84</v>
-      </c>
-      <c r="J241" t="n">
-        <v>532</v>
-      </c>
-      <c r="K241" t="n">
-        <v>65.21739130434783</v>
-      </c>
-      <c r="L241" t="n">
-        <v>704.7</v>
-      </c>
-      <c r="M241" t="n">
-        <v>701.1</v>
-      </c>
-      <c r="N241" t="n">
-        <v>698.9</v>
-      </c>
-      <c r="O241" t="inlineStr"/>
-      <c r="P241" t="inlineStr"/>
-      <c r="Q241" t="inlineStr"/>
-      <c r="R241" t="inlineStr"/>
-      <c r="S241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>717</v>
-      </c>
-      <c r="C242" t="n">
-        <v>718</v>
-      </c>
-      <c r="D242" t="n">
-        <v>718</v>
-      </c>
-      <c r="E242" t="n">
-        <v>717</v>
-      </c>
-      <c r="F242" t="n">
-        <v>1587.2038</v>
-      </c>
-      <c r="G242" t="n">
-        <v>685.5833333333334</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>85</v>
-      </c>
-      <c r="J242" t="n">
-        <v>533</v>
-      </c>
-      <c r="K242" t="n">
-        <v>100</v>
-      </c>
-      <c r="L242" t="n">
-        <v>706.3</v>
-      </c>
-      <c r="M242" t="n">
-        <v>702.3</v>
-      </c>
-      <c r="N242" t="n">
-        <v>699.5666666666667</v>
-      </c>
-      <c r="O242" t="inlineStr"/>
-      <c r="P242" t="inlineStr"/>
-      <c r="Q242" t="inlineStr"/>
-      <c r="R242" t="inlineStr"/>
-      <c r="S242" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-14 BackTest PPT.xlsx
+++ b/BackTest/2019-11-14 BackTest PPT.xlsx
@@ -451,17 +451,13 @@
         <v>623.9833333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>633</v>
-      </c>
-      <c r="K2" t="n">
-        <v>633</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>624.3833333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>634</v>
-      </c>
-      <c r="K3" t="n">
-        <v>633</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>624.7166666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>630</v>
-      </c>
-      <c r="K4" t="n">
-        <v>633</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>625.0666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>631</v>
-      </c>
-      <c r="K5" t="n">
-        <v>631</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>625.4666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>634</v>
-      </c>
-      <c r="K6" t="n">
-        <v>631</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>625.8166666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>631</v>
-      </c>
-      <c r="K7" t="n">
-        <v>631</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,17 +661,13 @@
         <v>626.1666666666666</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>633</v>
-      </c>
-      <c r="K8" t="n">
-        <v>633</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -740,22 +696,14 @@
         <v>626.5166666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>634</v>
-      </c>
-      <c r="K9" t="n">
-        <v>633</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -783,22 +731,14 @@
         <v>626.8666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>634</v>
-      </c>
-      <c r="K10" t="n">
-        <v>633</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -826,17 +766,13 @@
         <v>627.1833333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>632</v>
-      </c>
-      <c r="K11" t="n">
-        <v>632</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -865,22 +801,14 @@
         <v>627.2833333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>620</v>
-      </c>
-      <c r="K12" t="n">
-        <v>632</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -908,22 +836,14 @@
         <v>627.4166666666666</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>619</v>
-      </c>
-      <c r="K13" t="n">
-        <v>632</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -951,22 +871,14 @@
         <v>627.55</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>622</v>
-      </c>
-      <c r="K14" t="n">
-        <v>632</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -994,22 +906,14 @@
         <v>627.8833333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>632</v>
-      </c>
-      <c r="K15" t="n">
-        <v>632</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1037,22 +941,14 @@
         <v>628.2166666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>632</v>
-      </c>
-      <c r="K16" t="n">
-        <v>632</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1080,22 +976,14 @@
         <v>628.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>630</v>
-      </c>
-      <c r="K17" t="n">
-        <v>632</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1123,22 +1011,14 @@
         <v>628.8666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>633</v>
-      </c>
-      <c r="K18" t="n">
-        <v>632</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1166,22 +1046,14 @@
         <v>629.2166666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>635</v>
-      </c>
-      <c r="K19" t="n">
-        <v>632</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1209,22 +1081,14 @@
         <v>629.65</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>638</v>
-      </c>
-      <c r="K20" t="n">
-        <v>632</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1252,22 +1116,14 @@
         <v>630.0666666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>640</v>
-      </c>
-      <c r="K21" t="n">
-        <v>632</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1295,22 +1151,14 @@
         <v>630.4166666666666</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>640</v>
-      </c>
-      <c r="K22" t="n">
-        <v>632</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1186,14 @@
         <v>630.6666666666666</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>640</v>
-      </c>
-      <c r="K23" t="n">
-        <v>632</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1387,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>632</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1428,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>632</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1469,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>632</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1510,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>632</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1545,22 +1361,14 @@
         <v>631.5166666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>631</v>
-      </c>
-      <c r="K28" t="n">
-        <v>632</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1594,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>632</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1629,22 +1431,14 @@
         <v>631.9</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>633</v>
-      </c>
-      <c r="K30" t="n">
-        <v>632</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1672,22 +1466,14 @@
         <v>632.0666666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>634</v>
-      </c>
-      <c r="K31" t="n">
-        <v>632</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1715,22 +1501,14 @@
         <v>632.2333333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>633</v>
-      </c>
-      <c r="K32" t="n">
-        <v>632</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1758,22 +1536,14 @@
         <v>632.4</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>634</v>
-      </c>
-      <c r="K33" t="n">
-        <v>632</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1801,22 +1571,14 @@
         <v>632.5666666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>634</v>
-      </c>
-      <c r="K34" t="n">
-        <v>632</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1844,22 +1606,14 @@
         <v>632.7333333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>634</v>
-      </c>
-      <c r="K35" t="n">
-        <v>632</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1887,22 +1641,14 @@
         <v>632.9333333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>634</v>
-      </c>
-      <c r="K36" t="n">
-        <v>632</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1930,22 +1676,14 @@
         <v>633.1666666666666</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>634</v>
-      </c>
-      <c r="K37" t="n">
-        <v>632</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +1711,14 @@
         <v>633.4</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>635</v>
-      </c>
-      <c r="K38" t="n">
-        <v>632</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2022,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>632</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2063,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>632</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2104,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>632</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2145,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>632</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2180,22 +1886,14 @@
         <v>633.8666666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>627</v>
-      </c>
-      <c r="K43" t="n">
-        <v>632</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2223,22 +1921,14 @@
         <v>633.8166666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>627</v>
-      </c>
-      <c r="K44" t="n">
-        <v>632</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2266,22 +1956,14 @@
         <v>633.7666666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>627</v>
-      </c>
-      <c r="K45" t="n">
-        <v>632</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2309,22 +1991,14 @@
         <v>633.6833333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>626</v>
-      </c>
-      <c r="K46" t="n">
-        <v>632</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2352,22 +2026,14 @@
         <v>633.5666666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>626</v>
-      </c>
-      <c r="K47" t="n">
-        <v>632</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2395,22 +2061,14 @@
         <v>633.45</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>626</v>
-      </c>
-      <c r="K48" t="n">
-        <v>632</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2438,22 +2096,14 @@
         <v>633.3333333333334</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>625</v>
-      </c>
-      <c r="K49" t="n">
-        <v>632</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2481,22 +2131,14 @@
         <v>633.2666666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>627</v>
-      </c>
-      <c r="K50" t="n">
-        <v>632</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2530,16 +2172,12 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="K51" t="n">
-        <v>632</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2573,14 +2211,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="K52" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -2616,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="K53" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2653,16 +2291,14 @@
         <v>632.95</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>636</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2696,16 +2332,14 @@
         <v>632.7</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>630</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2739,16 +2373,14 @@
         <v>632.4</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>630</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2782,16 +2414,14 @@
         <v>632.2333333333333</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>630</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2825,16 +2455,14 @@
         <v>632.2</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>630</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2868,16 +2496,14 @@
         <v>632.2333333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>632</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2911,16 +2537,14 @@
         <v>632.25</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>632</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2954,16 +2578,14 @@
         <v>632.2166666666667</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>633</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2997,16 +2619,14 @@
         <v>632.2333333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>632</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3040,16 +2660,14 @@
         <v>632.2333333333333</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>634</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3083,16 +2701,14 @@
         <v>632.2</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>628</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3126,16 +2742,14 @@
         <v>632.2666666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>635</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3169,16 +2783,14 @@
         <v>632.25</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>633</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3212,16 +2824,14 @@
         <v>632.3166666666667</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>635</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3255,16 +2865,14 @@
         <v>632.3333333333334</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>634</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3298,16 +2906,14 @@
         <v>632.3333333333334</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>634</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3341,16 +2947,14 @@
         <v>632.35</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>635</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3384,16 +2988,14 @@
         <v>632.4</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>635</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3427,16 +3029,14 @@
         <v>632.65</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>633</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3470,16 +3070,14 @@
         <v>632.8833333333333</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>635</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3513,16 +3111,14 @@
         <v>633.1</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>635</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3556,16 +3152,14 @@
         <v>633.1333333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>635</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3606,7 +3200,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3647,7 +3241,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3688,7 +3282,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3729,7 +3323,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3770,7 +3364,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3811,7 +3405,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3852,7 +3446,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3893,7 +3487,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3934,7 +3528,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3975,7 +3569,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -4016,7 +3610,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -4057,7 +3651,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4098,7 +3692,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4132,16 +3726,14 @@
         <v>632.9</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>636</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4182,7 +3774,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4223,7 +3815,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4264,7 +3856,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4305,7 +3897,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4346,7 +3938,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4387,7 +3979,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4428,7 +4020,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4469,7 +4061,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4510,7 +4102,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4551,7 +4143,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4592,7 +4184,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4633,7 +4225,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4674,7 +4266,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4708,16 +4300,14 @@
         <v>633.1166666666667</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>629</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4751,16 +4341,14 @@
         <v>633.1166666666667</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>627</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4794,16 +4382,14 @@
         <v>633.1166666666667</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>627</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4837,16 +4423,14 @@
         <v>633.1666666666666</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>629</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4880,16 +4464,14 @@
         <v>633.0666666666667</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>626</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4923,16 +4505,14 @@
         <v>633.1166666666667</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>627</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4966,16 +4546,14 @@
         <v>633.15</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>629</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -5009,16 +4587,14 @@
         <v>633.1333333333333</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>629</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -5052,16 +4628,14 @@
         <v>633.0166666666667</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>629</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5095,16 +4669,14 @@
         <v>632.9166666666666</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>629</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5138,16 +4710,14 @@
         <v>632.7833333333333</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>624</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5187,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="K114" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5233,7 +4803,7 @@
         <v>629</v>
       </c>
       <c r="K115" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5276,7 +4846,7 @@
         <v>629</v>
       </c>
       <c r="K116" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5319,7 +4889,7 @@
         <v>629</v>
       </c>
       <c r="K117" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5362,7 +4932,7 @@
         <v>629</v>
       </c>
       <c r="K118" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5405,7 +4975,7 @@
         <v>629</v>
       </c>
       <c r="K119" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5445,10 +5015,10 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K120" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5488,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="K121" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5534,7 +5104,7 @@
         <v>636</v>
       </c>
       <c r="K122" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5568,16 +5138,14 @@
         <v>632.4666666666667</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>625</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5611,16 +5179,14 @@
         <v>632.45</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>627</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5654,16 +5220,14 @@
         <v>632.3333333333334</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>628</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5697,16 +5261,14 @@
         <v>632.25</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>628</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5740,16 +5302,14 @@
         <v>632.2333333333333</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>628</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5783,16 +5343,14 @@
         <v>632.2166666666667</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>628</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5826,16 +5384,14 @@
         <v>632.1666666666666</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>627</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5869,16 +5425,14 @@
         <v>632.0333333333333</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>630</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5912,16 +5466,14 @@
         <v>631.9</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>630</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5955,16 +5507,14 @@
         <v>631.7666666666667</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>627</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5998,16 +5548,14 @@
         <v>631.6333333333333</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>627</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -6041,16 +5589,14 @@
         <v>631.5</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>627</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -6084,16 +5630,14 @@
         <v>631.3666666666667</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>627</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -6127,16 +5671,14 @@
         <v>631.2333333333333</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>627</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -6170,16 +5712,14 @@
         <v>631.2</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>633</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -6213,16 +5753,14 @@
         <v>631.1666666666666</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>633</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -6256,16 +5794,14 @@
         <v>631.1333333333333</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>633</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -6299,16 +5835,14 @@
         <v>631.1</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>633</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6342,16 +5876,14 @@
         <v>631.0666666666667</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>633</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6385,16 +5917,14 @@
         <v>631.0666666666667</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>636</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6428,16 +5958,14 @@
         <v>631.0833333333334</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>636</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6471,16 +5999,14 @@
         <v>631.15</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>637</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6514,16 +6040,14 @@
         <v>631.2333333333333</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>639</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6557,16 +6081,14 @@
         <v>631.2833333333333</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>640</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6607,7 +6129,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6648,7 +6170,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6689,7 +6211,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6730,7 +6252,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6771,7 +6293,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6812,7 +6334,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6853,7 +6375,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6894,7 +6416,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6935,7 +6457,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6976,7 +6498,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -7017,7 +6539,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -7058,7 +6580,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -7099,7 +6621,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -7140,7 +6662,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -7181,7 +6703,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -7222,7 +6744,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -7263,7 +6785,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -7300,19 +6822,19 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>1.048797468354431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -7341,11 +6863,17 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>630</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7376,11 +6904,17 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>630</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7411,11 +6945,17 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>630</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7449,8 +6989,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>630</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7484,8 +7030,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>630</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7519,8 +7071,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>630</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7551,11 +7109,17 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>630</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7589,8 +7153,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>630</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7624,8 +7194,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>630</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7659,8 +7235,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>630</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7694,8 +7276,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>630</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7729,8 +7317,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>630</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7764,8 +7358,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>630</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7799,8 +7399,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>630</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7834,8 +7440,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>630</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7869,8 +7481,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>630</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7904,8 +7522,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>630</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7939,8 +7563,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>630</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7974,8 +7604,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>630</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -8009,8 +7645,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>630</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -8044,8 +7686,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>630</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -8079,8 +7727,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>630</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -8114,8 +7768,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>630</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -8149,8 +7809,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>630</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -8184,8 +7850,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>630</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -8219,8 +7891,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>630</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8254,8 +7932,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>630</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8289,8 +7973,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>630</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8324,8 +8014,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>630</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8359,8 +8055,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>630</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8394,8 +8096,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>630</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8429,8 +8137,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>630</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8464,8 +8178,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>630</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8499,8 +8219,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>630</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8534,8 +8260,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>630</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8569,8 +8301,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>630</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8604,8 +8342,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>630</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8639,8 +8383,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>630</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8674,8 +8424,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>630</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8709,8 +8465,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>630</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8744,8 +8506,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>630</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8779,8 +8547,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>630</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8814,8 +8588,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>630</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8849,8 +8629,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>630</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8884,8 +8670,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>630</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8919,10 +8711,16 @@
         <v>1</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>630</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M210" t="n">
-        <v>1</v>
+        <v>1.091825396825397</v>
       </c>
     </row>
     <row r="211">
@@ -8951,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>

--- a/BackTest/2019-11-14 BackTest PPT.xlsx
+++ b/BackTest/2019-11-14 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M221"/>
+  <dimension ref="A1:M222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C2" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D2" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E2" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F2" t="n">
-        <v>1500</v>
+        <v>337.2457</v>
       </c>
       <c r="G2" t="n">
-        <v>623.9833333333333</v>
+        <v>623.6</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C3" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D3" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E3" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F3" t="n">
-        <v>350.3488</v>
+        <v>1500</v>
       </c>
       <c r="G3" t="n">
-        <v>624.3833333333333</v>
+        <v>623.9833333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C4" t="n">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D4" t="n">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E4" t="n">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="F4" t="n">
-        <v>6905.2844</v>
+        <v>350.3488</v>
       </c>
       <c r="G4" t="n">
-        <v>624.7166666666667</v>
+        <v>624.3833333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C5" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D5" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E5" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F5" t="n">
-        <v>1813.2403</v>
+        <v>6905.2844</v>
       </c>
       <c r="G5" t="n">
-        <v>625.0666666666667</v>
+        <v>624.7166666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C6" t="n">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D6" t="n">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E6" t="n">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>1813.2403</v>
       </c>
       <c r="G6" t="n">
-        <v>625.4666666666667</v>
+        <v>625.0666666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C7" t="n">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D7" t="n">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="E7" t="n">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="F7" t="n">
-        <v>4359.3726</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>625.8166666666667</v>
+        <v>625.4666666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C8" t="n">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D8" t="n">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E8" t="n">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F8" t="n">
-        <v>71.5508</v>
+        <v>4359.3726</v>
       </c>
       <c r="G8" t="n">
-        <v>626.1666666666666</v>
+        <v>625.8166666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C9" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D9" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E9" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F9" t="n">
-        <v>474.7371</v>
+        <v>71.5508</v>
       </c>
       <c r="G9" t="n">
-        <v>626.5166666666667</v>
+        <v>626.1666666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>634</v>
       </c>
       <c r="F10" t="n">
-        <v>385.5</v>
+        <v>474.7371</v>
       </c>
       <c r="G10" t="n">
-        <v>626.8666666666667</v>
+        <v>626.5166666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C11" t="n">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D11" t="n">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E11" t="n">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F11" t="n">
-        <v>390.5602</v>
+        <v>385.5</v>
       </c>
       <c r="G11" t="n">
-        <v>627.1833333333333</v>
+        <v>626.8666666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="C12" t="n">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="D12" t="n">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="E12" t="n">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="F12" t="n">
-        <v>581.5</v>
+        <v>390.5602</v>
       </c>
       <c r="G12" t="n">
-        <v>627.2833333333333</v>
+        <v>627.1833333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C13" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D13" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E13" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F13" t="n">
-        <v>2087.8234</v>
+        <v>581.5</v>
       </c>
       <c r="G13" t="n">
-        <v>627.4166666666666</v>
+        <v>627.2833333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C14" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D14" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E14" t="n">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F14" t="n">
-        <v>88.50449999999999</v>
+        <v>2087.8234</v>
       </c>
       <c r="G14" t="n">
-        <v>627.55</v>
+        <v>627.4166666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="C15" t="n">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D15" t="n">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="E15" t="n">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="F15" t="n">
-        <v>378.9099</v>
+        <v>88.50449999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>627.8833333333333</v>
+        <v>627.55</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -932,13 +932,13 @@
         <v>633</v>
       </c>
       <c r="E16" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F16" t="n">
-        <v>4274.3867</v>
+        <v>378.9099</v>
       </c>
       <c r="G16" t="n">
-        <v>628.2166666666667</v>
+        <v>627.8833333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C17" t="n">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D17" t="n">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="E17" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F17" t="n">
-        <v>47.9385</v>
+        <v>4274.3867</v>
       </c>
       <c r="G17" t="n">
-        <v>628.5</v>
+        <v>628.2166666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C18" t="n">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D18" t="n">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E18" t="n">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F18" t="n">
-        <v>3207.9267</v>
+        <v>47.9385</v>
       </c>
       <c r="G18" t="n">
-        <v>628.8666666666667</v>
+        <v>628.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C19" t="n">
         <v>635</v>
@@ -1037,13 +1037,13 @@
         <v>635</v>
       </c>
       <c r="E19" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F19" t="n">
-        <v>78.12130000000001</v>
+        <v>3207.9267</v>
       </c>
       <c r="G19" t="n">
-        <v>629.2166666666667</v>
+        <v>628.8666666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C20" t="n">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D20" t="n">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E20" t="n">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F20" t="n">
-        <v>2779.6124</v>
+        <v>78.12130000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>629.65</v>
+        <v>629.2166666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C21" t="n">
         <v>640</v>
@@ -1107,13 +1107,13 @@
         <v>640</v>
       </c>
       <c r="E21" t="n">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F21" t="n">
-        <v>1663.9968</v>
+        <v>2779.6124</v>
       </c>
       <c r="G21" t="n">
-        <v>630.0666666666667</v>
+        <v>629.65</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>640</v>
       </c>
       <c r="F22" t="n">
-        <v>39.3738</v>
+        <v>1663.9968</v>
       </c>
       <c r="G22" t="n">
-        <v>630.4166666666666</v>
+        <v>630.0666666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>640</v>
       </c>
       <c r="F23" t="n">
-        <v>50</v>
+        <v>39.3738</v>
       </c>
       <c r="G23" t="n">
-        <v>630.6666666666666</v>
+        <v>630.4166666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C24" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D24" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="E24" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="F24" t="n">
-        <v>131.6238</v>
+        <v>50</v>
       </c>
       <c r="G24" t="n">
-        <v>630.85</v>
+        <v>630.6666666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="C25" t="n">
         <v>636</v>
@@ -1247,13 +1247,13 @@
         <v>636</v>
       </c>
       <c r="E25" t="n">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="F25" t="n">
-        <v>1400.9968</v>
+        <v>131.6238</v>
       </c>
       <c r="G25" t="n">
-        <v>631.0333333333333</v>
+        <v>630.85</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C26" t="n">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D26" t="n">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E26" t="n">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F26" t="n">
-        <v>88</v>
+        <v>1400.9968</v>
       </c>
       <c r="G26" t="n">
-        <v>631.1833333333333</v>
+        <v>631.0333333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C27" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D27" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E27" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F27" t="n">
-        <v>84.74509999999999</v>
+        <v>88</v>
       </c>
       <c r="G27" t="n">
-        <v>631.35</v>
+        <v>631.1833333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="C28" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D28" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E28" t="n">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="F28" t="n">
-        <v>908.0526</v>
+        <v>84.74509999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>631.5166666666667</v>
+        <v>631.35</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C29" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D29" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E29" t="n">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F29" t="n">
-        <v>305</v>
+        <v>908.0526</v>
       </c>
       <c r="G29" t="n">
-        <v>631.7333333333333</v>
+        <v>631.5166666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>633</v>
       </c>
       <c r="C30" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D30" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E30" t="n">
         <v>633</v>
       </c>
       <c r="F30" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G30" t="n">
-        <v>631.9</v>
+        <v>631.7333333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C31" t="n">
         <v>634</v>
@@ -1457,13 +1457,13 @@
         <v>634</v>
       </c>
       <c r="E31" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F31" t="n">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="G31" t="n">
-        <v>632.0666666666667</v>
+        <v>631.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C32" t="n">
         <v>634</v>
@@ -1492,13 +1492,13 @@
         <v>634</v>
       </c>
       <c r="E32" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F32" t="n">
-        <v>513</v>
+        <v>212</v>
       </c>
       <c r="G32" t="n">
-        <v>632.2333333333333</v>
+        <v>632.0666666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C33" t="n">
         <v>634</v>
@@ -1527,13 +1527,13 @@
         <v>634</v>
       </c>
       <c r="E33" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5674</v>
+        <v>513</v>
       </c>
       <c r="G33" t="n">
-        <v>632.4</v>
+        <v>632.2333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>634</v>
       </c>
       <c r="F34" t="n">
-        <v>401</v>
+        <v>0.5674</v>
       </c>
       <c r="G34" t="n">
-        <v>632.5666666666667</v>
+        <v>632.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>634</v>
       </c>
       <c r="F35" t="n">
-        <v>146</v>
+        <v>401</v>
       </c>
       <c r="G35" t="n">
-        <v>632.7333333333333</v>
+        <v>632.5666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>634</v>
       </c>
       <c r="F36" t="n">
-        <v>1801.898</v>
+        <v>146</v>
       </c>
       <c r="G36" t="n">
-        <v>632.9333333333333</v>
+        <v>632.7333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>634</v>
       </c>
       <c r="C37" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D37" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E37" t="n">
         <v>634</v>
       </c>
       <c r="F37" t="n">
-        <v>150</v>
+        <v>1801.898</v>
       </c>
       <c r="G37" t="n">
-        <v>633.1666666666666</v>
+        <v>632.9333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C38" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D38" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E38" t="n">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F38" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G38" t="n">
-        <v>633.4</v>
+        <v>633.1666666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C39" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D39" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E39" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F39" t="n">
-        <v>268</v>
+        <v>50</v>
       </c>
       <c r="G39" t="n">
-        <v>633.6</v>
+        <v>633.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C40" t="n">
         <v>636</v>
@@ -1772,13 +1772,13 @@
         <v>636</v>
       </c>
       <c r="E40" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F40" t="n">
-        <v>397</v>
+        <v>268</v>
       </c>
       <c r="G40" t="n">
-        <v>633.8</v>
+        <v>633.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="C41" t="n">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="D41" t="n">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="E41" t="n">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>397</v>
       </c>
       <c r="G41" t="n">
-        <v>633.8333333333334</v>
+        <v>633.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1836,19 @@
         <v>628</v>
       </c>
       <c r="C42" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D42" t="n">
         <v>628</v>
       </c>
       <c r="E42" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F42" t="n">
-        <v>6348.6422</v>
+        <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>633.85</v>
+        <v>633.8333333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C43" t="n">
         <v>627</v>
       </c>
       <c r="D43" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E43" t="n">
         <v>627</v>
       </c>
       <c r="F43" t="n">
-        <v>1352</v>
+        <v>6348.6422</v>
       </c>
       <c r="G43" t="n">
-        <v>633.8666666666667</v>
+        <v>633.85</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>627</v>
       </c>
       <c r="F44" t="n">
-        <v>1240.2009</v>
+        <v>1352</v>
       </c>
       <c r="G44" t="n">
-        <v>633.8166666666667</v>
+        <v>633.8666666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>627</v>
       </c>
       <c r="F45" t="n">
-        <v>225</v>
+        <v>1240.2009</v>
       </c>
       <c r="G45" t="n">
-        <v>633.7666666666667</v>
+        <v>633.8166666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C46" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D46" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E46" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F46" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="G46" t="n">
-        <v>633.6833333333333</v>
+        <v>633.7666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>626</v>
       </c>
       <c r="F47" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="G47" t="n">
-        <v>633.5666666666667</v>
+        <v>633.6833333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>626</v>
       </c>
       <c r="F48" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G48" t="n">
-        <v>633.45</v>
+        <v>633.5666666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,31 +2078,35 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C49" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D49" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E49" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F49" t="n">
-        <v>615.9008</v>
+        <v>83</v>
       </c>
       <c r="G49" t="n">
-        <v>633.3333333333334</v>
+        <v>633.45</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>626</v>
+      </c>
+      <c r="K49" t="n">
+        <v>626</v>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
@@ -2113,32 +2117,40 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>625</v>
+      </c>
+      <c r="C50" t="n">
         <v>627</v>
       </c>
-      <c r="C50" t="n">
-        <v>630</v>
-      </c>
       <c r="D50" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E50" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F50" t="n">
-        <v>150</v>
+        <v>615.9008</v>
       </c>
       <c r="G50" t="n">
-        <v>633.2666666666667</v>
+        <v>633.3333333333334</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>626</v>
+      </c>
+      <c r="K50" t="n">
+        <v>626</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2160,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="C51" t="n">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D51" t="n">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E51" t="n">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F51" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G51" t="n">
-        <v>633.2333333333333</v>
+        <v>633.2666666666667</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -2172,12 +2184,16 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="K51" t="n">
-        <v>630</v>
-      </c>
-      <c r="L51" t="inlineStr"/>
+        <v>626</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2187,38 +2203,38 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="C52" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D52" t="n">
         <v>636</v>
       </c>
       <c r="E52" t="n">
+        <v>635</v>
+      </c>
+      <c r="F52" t="n">
+        <v>50</v>
+      </c>
+      <c r="G52" t="n">
+        <v>633.2333333333333</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
         <v>630</v>
       </c>
-      <c r="F52" t="n">
-        <v>214</v>
-      </c>
-      <c r="G52" t="n">
-        <v>633.1833333333333</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>636</v>
-      </c>
       <c r="K52" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -2230,34 +2246,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C53" t="n">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D53" t="n">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="E53" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F53" t="n">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="G53" t="n">
-        <v>633.05</v>
+        <v>633.1833333333333</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>635</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2273,22 +2287,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="C54" t="n">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D54" t="n">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E54" t="n">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F54" t="n">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="G54" t="n">
-        <v>632.95</v>
+        <v>633.05</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2298,7 +2312,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2314,22 +2328,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="C55" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="D55" t="n">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E55" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="F55" t="n">
-        <v>275</v>
+        <v>127</v>
       </c>
       <c r="G55" t="n">
-        <v>632.7</v>
+        <v>632.95</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2339,7 +2353,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2361,16 +2375,16 @@
         <v>630</v>
       </c>
       <c r="D56" t="n">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E56" t="n">
         <v>630</v>
       </c>
       <c r="F56" t="n">
-        <v>50</v>
+        <v>275</v>
       </c>
       <c r="G56" t="n">
-        <v>632.4</v>
+        <v>632.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2380,7 +2394,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2399,19 +2413,19 @@
         <v>630</v>
       </c>
       <c r="C57" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D57" t="n">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E57" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F57" t="n">
-        <v>775</v>
+        <v>50</v>
       </c>
       <c r="G57" t="n">
-        <v>632.2333333333333</v>
+        <v>632.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2421,7 +2435,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2440,19 +2454,19 @@
         <v>630</v>
       </c>
       <c r="C58" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D58" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="E58" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F58" t="n">
-        <v>125</v>
+        <v>775</v>
       </c>
       <c r="G58" t="n">
-        <v>632.2</v>
+        <v>632.2333333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2462,7 +2476,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2478,22 +2492,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C59" t="n">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D59" t="n">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E59" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F59" t="n">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="G59" t="n">
-        <v>632.2333333333333</v>
+        <v>632.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2503,7 +2517,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2522,19 +2536,19 @@
         <v>632</v>
       </c>
       <c r="C60" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D60" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E60" t="n">
         <v>632</v>
       </c>
       <c r="F60" t="n">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="G60" t="n">
-        <v>632.25</v>
+        <v>632.2333333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2544,7 +2558,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2560,22 +2574,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C61" t="n">
         <v>632</v>
       </c>
       <c r="D61" t="n">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E61" t="n">
         <v>632</v>
       </c>
       <c r="F61" t="n">
-        <v>1425</v>
+        <v>36</v>
       </c>
       <c r="G61" t="n">
-        <v>632.2166666666667</v>
+        <v>632.25</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2585,7 +2599,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2601,22 +2615,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>633</v>
+      </c>
+      <c r="C62" t="n">
         <v>632</v>
       </c>
-      <c r="C62" t="n">
-        <v>634</v>
-      </c>
       <c r="D62" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E62" t="n">
         <v>632</v>
       </c>
       <c r="F62" t="n">
-        <v>950</v>
+        <v>1425</v>
       </c>
       <c r="G62" t="n">
-        <v>632.2333333333333</v>
+        <v>632.2166666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2626,7 +2640,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2642,7 +2656,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C63" t="n">
         <v>634</v>
@@ -2651,10 +2665,10 @@
         <v>634</v>
       </c>
       <c r="E63" t="n">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F63" t="n">
-        <v>1458.664</v>
+        <v>950</v>
       </c>
       <c r="G63" t="n">
         <v>632.2333333333333</v>
@@ -2667,7 +2681,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2683,22 +2697,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="C64" t="n">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="D64" t="n">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="E64" t="n">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>1458.664</v>
       </c>
       <c r="G64" t="n">
-        <v>632.2</v>
+        <v>632.2333333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2708,7 +2722,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2724,22 +2738,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C65" t="n">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="D65" t="n">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="E65" t="n">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>632.2666666666667</v>
+        <v>632.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2749,7 +2763,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2765,22 +2779,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C66" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D66" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E66" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F66" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>632.25</v>
+        <v>632.2666666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2790,7 +2804,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2806,22 +2820,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C67" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D67" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E67" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F67" t="n">
-        <v>250</v>
+        <v>72</v>
       </c>
       <c r="G67" t="n">
-        <v>632.3166666666667</v>
+        <v>632.25</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2831,7 +2845,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2847,22 +2861,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C68" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D68" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E68" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F68" t="n">
-        <v>86.89239999999999</v>
+        <v>250</v>
       </c>
       <c r="G68" t="n">
-        <v>632.3333333333334</v>
+        <v>632.3166666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2872,7 +2886,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -2900,7 +2914,7 @@
         <v>634</v>
       </c>
       <c r="F69" t="n">
-        <v>99.75920000000001</v>
+        <v>86.89239999999999</v>
       </c>
       <c r="G69" t="n">
         <v>632.3333333333334</v>
@@ -2913,7 +2927,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -2929,22 +2943,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C70" t="n">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D70" t="n">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E70" t="n">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F70" t="n">
-        <v>300</v>
+        <v>99.75920000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>632.35</v>
+        <v>632.3333333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2954,7 +2968,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -2982,10 +2996,10 @@
         <v>635</v>
       </c>
       <c r="F71" t="n">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="G71" t="n">
-        <v>632.4</v>
+        <v>632.35</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2995,7 +3009,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3011,7 +3025,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C72" t="n">
         <v>635</v>
@@ -3020,13 +3034,13 @@
         <v>635</v>
       </c>
       <c r="E72" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F72" t="n">
-        <v>1258</v>
+        <v>125</v>
       </c>
       <c r="G72" t="n">
-        <v>632.65</v>
+        <v>632.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3036,7 +3050,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3052,7 +3066,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C73" t="n">
         <v>635</v>
@@ -3061,13 +3075,13 @@
         <v>635</v>
       </c>
       <c r="E73" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F73" t="n">
-        <v>617</v>
+        <v>1258</v>
       </c>
       <c r="G73" t="n">
-        <v>632.8833333333333</v>
+        <v>632.65</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3077,7 +3091,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3105,10 +3119,10 @@
         <v>635</v>
       </c>
       <c r="F74" t="n">
-        <v>50</v>
+        <v>617</v>
       </c>
       <c r="G74" t="n">
-        <v>633.1</v>
+        <v>632.8833333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3118,7 +3132,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3146,10 +3160,10 @@
         <v>635</v>
       </c>
       <c r="F75" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G75" t="n">
-        <v>633.1333333333333</v>
+        <v>633.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3159,7 +3173,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3187,10 +3201,10 @@
         <v>635</v>
       </c>
       <c r="F76" t="n">
-        <v>321</v>
+        <v>100</v>
       </c>
       <c r="G76" t="n">
-        <v>633.1666666666666</v>
+        <v>633.1333333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3200,7 +3214,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3228,10 +3242,10 @@
         <v>635</v>
       </c>
       <c r="F77" t="n">
-        <v>457</v>
+        <v>321</v>
       </c>
       <c r="G77" t="n">
-        <v>633.25</v>
+        <v>633.1666666666666</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3241,7 +3255,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3269,7 +3283,7 @@
         <v>635</v>
       </c>
       <c r="F78" t="n">
-        <v>1163</v>
+        <v>457</v>
       </c>
       <c r="G78" t="n">
         <v>633.25</v>
@@ -3282,7 +3296,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3310,7 +3324,7 @@
         <v>635</v>
       </c>
       <c r="F79" t="n">
-        <v>868</v>
+        <v>1163</v>
       </c>
       <c r="G79" t="n">
         <v>633.25</v>
@@ -3323,7 +3337,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3351,10 +3365,10 @@
         <v>635</v>
       </c>
       <c r="F80" t="n">
-        <v>375</v>
+        <v>868</v>
       </c>
       <c r="G80" t="n">
-        <v>633.1666666666666</v>
+        <v>633.25</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3364,7 +3378,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3383,10 +3397,10 @@
         <v>635</v>
       </c>
       <c r="C81" t="n">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D81" t="n">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E81" t="n">
         <v>635</v>
@@ -3395,7 +3409,7 @@
         <v>375</v>
       </c>
       <c r="G81" t="n">
-        <v>633.1166666666667</v>
+        <v>633.1666666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3405,7 +3419,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3421,22 +3435,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C82" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D82" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E82" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F82" t="n">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="G82" t="n">
-        <v>633.05</v>
+        <v>633.1166666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3446,7 +3460,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3462,22 +3476,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C83" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D83" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E83" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F83" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G83" t="n">
-        <v>632.9666666666667</v>
+        <v>633.05</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3487,7 +3501,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3515,10 +3529,10 @@
         <v>635</v>
       </c>
       <c r="F84" t="n">
-        <v>875</v>
+        <v>50</v>
       </c>
       <c r="G84" t="n">
-        <v>632.95</v>
+        <v>632.9666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3528,7 +3542,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3556,10 +3570,10 @@
         <v>635</v>
       </c>
       <c r="F85" t="n">
-        <v>200</v>
+        <v>875</v>
       </c>
       <c r="G85" t="n">
-        <v>632.9333333333333</v>
+        <v>632.95</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3569,7 +3583,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3588,19 +3602,19 @@
         <v>635</v>
       </c>
       <c r="C86" t="n">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D86" t="n">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E86" t="n">
         <v>635</v>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G86" t="n">
-        <v>632.9833333333333</v>
+        <v>632.9333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3610,7 +3624,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3626,22 +3640,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="C87" t="n">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="D87" t="n">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="E87" t="n">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="F87" t="n">
-        <v>651</v>
+        <v>250</v>
       </c>
       <c r="G87" t="n">
-        <v>632.8333333333334</v>
+        <v>632.9833333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3651,7 +3665,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3667,22 +3681,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C88" t="n">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="D88" t="n">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="E88" t="n">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F88" t="n">
-        <v>152</v>
+        <v>651</v>
       </c>
       <c r="G88" t="n">
-        <v>632.85</v>
+        <v>632.8333333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3692,7 +3706,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3708,7 +3722,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C89" t="n">
         <v>636</v>
@@ -3717,13 +3731,13 @@
         <v>636</v>
       </c>
       <c r="E89" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F89" t="n">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="G89" t="n">
-        <v>632.9</v>
+        <v>632.85</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3733,7 +3747,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3749,22 +3763,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C90" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D90" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E90" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F90" t="n">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="G90" t="n">
-        <v>632.9166666666666</v>
+        <v>632.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3774,7 +3788,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3790,22 +3804,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C91" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D91" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E91" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="G91" t="n">
-        <v>632.95</v>
+        <v>632.9166666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3815,7 +3829,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3843,10 +3857,10 @@
         <v>636</v>
       </c>
       <c r="F92" t="n">
-        <v>477.4614</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>632.9833333333333</v>
+        <v>632.95</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3856,7 +3870,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3872,19 +3886,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C93" t="n">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D93" t="n">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E93" t="n">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F93" t="n">
-        <v>31</v>
+        <v>477.4614</v>
       </c>
       <c r="G93" t="n">
         <v>632.9833333333333</v>
@@ -3897,7 +3911,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -3925,7 +3939,7 @@
         <v>634</v>
       </c>
       <c r="F94" t="n">
-        <v>260</v>
+        <v>31</v>
       </c>
       <c r="G94" t="n">
         <v>632.9833333333333</v>
@@ -3938,7 +3952,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -3957,19 +3971,19 @@
         <v>634</v>
       </c>
       <c r="C95" t="n">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D95" t="n">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E95" t="n">
         <v>634</v>
       </c>
       <c r="F95" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="G95" t="n">
-        <v>633.0333333333333</v>
+        <v>632.9833333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3979,7 +3993,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -3995,22 +4009,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C96" t="n">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="D96" t="n">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="E96" t="n">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F96" t="n">
-        <v>339.0229</v>
+        <v>283</v>
       </c>
       <c r="G96" t="n">
-        <v>633</v>
+        <v>633.0333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4020,7 +4034,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4036,19 +4050,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>633</v>
+      </c>
+      <c r="C97" t="n">
         <v>632</v>
       </c>
-      <c r="C97" t="n">
-        <v>636</v>
-      </c>
       <c r="D97" t="n">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E97" t="n">
         <v>632</v>
       </c>
       <c r="F97" t="n">
-        <v>1351.1131</v>
+        <v>339.0229</v>
       </c>
       <c r="G97" t="n">
         <v>633</v>
@@ -4061,7 +4075,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4077,7 +4091,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C98" t="n">
         <v>636</v>
@@ -4086,13 +4100,13 @@
         <v>636</v>
       </c>
       <c r="E98" t="n">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F98" t="n">
-        <v>50</v>
+        <v>1351.1131</v>
       </c>
       <c r="G98" t="n">
-        <v>633.0166666666667</v>
+        <v>633</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4102,7 +4116,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4118,22 +4132,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C99" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D99" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E99" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F99" t="n">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="G99" t="n">
-        <v>633</v>
+        <v>633.0166666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4143,7 +4157,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4162,16 +4176,16 @@
         <v>635</v>
       </c>
       <c r="C100" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D100" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E100" t="n">
         <v>635</v>
       </c>
       <c r="F100" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="G100" t="n">
         <v>633</v>
@@ -4184,7 +4198,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4200,22 +4214,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C101" t="n">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="D101" t="n">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="E101" t="n">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="F101" t="n">
-        <v>522.9729</v>
+        <v>125</v>
       </c>
       <c r="G101" t="n">
-        <v>633.05</v>
+        <v>633</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4225,7 +4239,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4241,22 +4255,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C102" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D102" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E102" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F102" t="n">
-        <v>639.7996000000001</v>
+        <v>522.9729</v>
       </c>
       <c r="G102" t="n">
-        <v>633.0833333333334</v>
+        <v>633.05</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4266,7 +4280,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4282,22 +4296,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C103" t="n">
         <v>629</v>
       </c>
       <c r="D103" t="n">
+        <v>630</v>
+      </c>
+      <c r="E103" t="n">
         <v>629</v>
       </c>
-      <c r="E103" t="n">
-        <v>628</v>
-      </c>
       <c r="F103" t="n">
-        <v>492.2004</v>
+        <v>639.7996000000001</v>
       </c>
       <c r="G103" t="n">
-        <v>633.1166666666667</v>
+        <v>633.0833333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4307,7 +4321,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4323,19 +4337,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C104" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D104" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E104" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F104" t="n">
-        <v>148.2858</v>
+        <v>492.2004</v>
       </c>
       <c r="G104" t="n">
         <v>633.1166666666667</v>
@@ -4348,7 +4362,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4376,7 +4390,7 @@
         <v>627</v>
       </c>
       <c r="F105" t="n">
-        <v>30</v>
+        <v>148.2858</v>
       </c>
       <c r="G105" t="n">
         <v>633.1166666666667</v>
@@ -4389,7 +4403,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4405,22 +4419,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C106" t="n">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D106" t="n">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E106" t="n">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F106" t="n">
-        <v>461</v>
+        <v>30</v>
       </c>
       <c r="G106" t="n">
-        <v>633.1666666666666</v>
+        <v>633.1166666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4430,7 +4444,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4446,22 +4460,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C107" t="n">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="D107" t="n">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="E107" t="n">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="F107" t="n">
-        <v>7874.3461</v>
+        <v>461</v>
       </c>
       <c r="G107" t="n">
-        <v>633.0666666666667</v>
+        <v>633.1666666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4471,7 +4485,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4487,22 +4501,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C108" t="n">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="D108" t="n">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E108" t="n">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F108" t="n">
-        <v>425</v>
+        <v>7874.3461</v>
       </c>
       <c r="G108" t="n">
-        <v>633.1166666666667</v>
+        <v>633.0666666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4512,7 +4526,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4528,7 +4542,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C109" t="n">
         <v>629</v>
@@ -4537,13 +4551,13 @@
         <v>629</v>
       </c>
       <c r="E109" t="n">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F109" t="n">
-        <v>57</v>
+        <v>425</v>
       </c>
       <c r="G109" t="n">
-        <v>633.15</v>
+        <v>633.1166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4553,7 +4567,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4581,10 +4595,10 @@
         <v>629</v>
       </c>
       <c r="F110" t="n">
-        <v>625</v>
+        <v>57</v>
       </c>
       <c r="G110" t="n">
-        <v>633.1333333333333</v>
+        <v>633.15</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4594,7 +4608,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4622,10 +4636,10 @@
         <v>629</v>
       </c>
       <c r="F111" t="n">
-        <v>1325</v>
+        <v>625</v>
       </c>
       <c r="G111" t="n">
-        <v>633.0166666666667</v>
+        <v>633.1333333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4635,7 +4649,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4663,10 +4677,10 @@
         <v>629</v>
       </c>
       <c r="F112" t="n">
-        <v>488</v>
+        <v>1325</v>
       </c>
       <c r="G112" t="n">
-        <v>632.9166666666666</v>
+        <v>633.0166666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4676,7 +4690,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4692,22 +4706,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="C113" t="n">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="D113" t="n">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="E113" t="n">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="F113" t="n">
-        <v>815</v>
+        <v>488</v>
       </c>
       <c r="G113" t="n">
-        <v>632.7833333333333</v>
+        <v>632.9166666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4717,7 +4731,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4733,34 +4747,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C114" t="n">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D114" t="n">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E114" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F114" t="n">
-        <v>1093</v>
+        <v>815</v>
       </c>
       <c r="G114" t="n">
-        <v>632.6833333333333</v>
+        <v>632.7833333333333</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>624</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4785,13 +4797,13 @@
         <v>629</v>
       </c>
       <c r="E115" t="n">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F115" t="n">
-        <v>250</v>
+        <v>1093</v>
       </c>
       <c r="G115" t="n">
-        <v>632.6666666666666</v>
+        <v>632.6833333333333</v>
       </c>
       <c r="H115" t="n">
         <v>1</v>
@@ -4800,10 +4812,10 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="K115" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4831,22 +4843,20 @@
         <v>629</v>
       </c>
       <c r="F116" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="G116" t="n">
-        <v>632.65</v>
+        <v>632.6666666666666</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>629</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4874,22 +4884,20 @@
         <v>629</v>
       </c>
       <c r="F117" t="n">
-        <v>277</v>
+        <v>350</v>
       </c>
       <c r="G117" t="n">
-        <v>632.6166666666667</v>
+        <v>632.65</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>629</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4917,22 +4925,20 @@
         <v>629</v>
       </c>
       <c r="F118" t="n">
-        <v>850</v>
+        <v>277</v>
       </c>
       <c r="G118" t="n">
-        <v>632.6</v>
+        <v>632.6166666666667</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>629</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4951,31 +4957,29 @@
         <v>629</v>
       </c>
       <c r="C119" t="n">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D119" t="n">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="E119" t="n">
         <v>629</v>
       </c>
       <c r="F119" t="n">
-        <v>1199.0373</v>
+        <v>850</v>
       </c>
       <c r="G119" t="n">
-        <v>632.6166666666667</v>
+        <v>632.6</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>629</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4991,7 +4995,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C120" t="n">
         <v>634</v>
@@ -5000,25 +5004,23 @@
         <v>634</v>
       </c>
       <c r="E120" t="n">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F120" t="n">
-        <v>300</v>
+        <v>1199.0373</v>
       </c>
       <c r="G120" t="n">
-        <v>632.65</v>
+        <v>632.6166666666667</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>634</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5034,34 +5036,32 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C121" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D121" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E121" t="n">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F121" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="G121" t="n">
-        <v>632.7166666666667</v>
+        <v>632.65</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>634</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5080,31 +5080,29 @@
         <v>636</v>
       </c>
       <c r="C122" t="n">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="D122" t="n">
         <v>636</v>
       </c>
       <c r="E122" t="n">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="F122" t="n">
-        <v>1160.0646</v>
+        <v>175</v>
       </c>
       <c r="G122" t="n">
-        <v>632.5833333333334</v>
+        <v>632.7166666666667</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>636</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5120,22 +5118,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="C123" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D123" t="n">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="E123" t="n">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="F123" t="n">
-        <v>3542.0989</v>
+        <v>1160.0646</v>
       </c>
       <c r="G123" t="n">
-        <v>632.4666666666667</v>
+        <v>632.5833333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5145,7 +5143,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5161,22 +5159,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C124" t="n">
         <v>627</v>
       </c>
       <c r="D124" t="n">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="E124" t="n">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="F124" t="n">
-        <v>772</v>
+        <v>3542.0989</v>
       </c>
       <c r="G124" t="n">
-        <v>632.45</v>
+        <v>632.4666666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5186,7 +5184,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5202,22 +5200,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C125" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D125" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E125" t="n">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F125" t="n">
-        <v>125</v>
+        <v>772</v>
       </c>
       <c r="G125" t="n">
-        <v>632.3333333333334</v>
+        <v>632.45</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5227,7 +5225,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5255,10 +5253,10 @@
         <v>628</v>
       </c>
       <c r="F126" t="n">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="G126" t="n">
-        <v>632.25</v>
+        <v>632.3333333333334</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5268,7 +5266,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5287,19 +5285,19 @@
         <v>628</v>
       </c>
       <c r="C127" t="n">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D127" t="n">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E127" t="n">
         <v>628</v>
       </c>
       <c r="F127" t="n">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G127" t="n">
-        <v>632.2333333333333</v>
+        <v>632.25</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5309,7 +5307,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5328,19 +5326,19 @@
         <v>628</v>
       </c>
       <c r="C128" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D128" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E128" t="n">
         <v>628</v>
       </c>
       <c r="F128" t="n">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="G128" t="n">
-        <v>632.2166666666667</v>
+        <v>632.2333333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5350,7 +5348,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5366,22 +5364,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C129" t="n">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D129" t="n">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E129" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F129" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="G129" t="n">
-        <v>632.1666666666666</v>
+        <v>632.2166666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5391,7 +5389,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5407,22 +5405,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C130" t="n">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D130" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E130" t="n">
         <v>627</v>
       </c>
       <c r="F130" t="n">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c r="G130" t="n">
-        <v>632.0333333333333</v>
+        <v>632.1666666666666</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5432,7 +5430,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5460,10 +5458,10 @@
         <v>627</v>
       </c>
       <c r="F131" t="n">
-        <v>2639</v>
+        <v>117</v>
       </c>
       <c r="G131" t="n">
-        <v>631.9</v>
+        <v>632.0333333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5473,7 +5471,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5489,22 +5487,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C132" t="n">
         <v>627</v>
       </c>
       <c r="D132" t="n">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E132" t="n">
         <v>627</v>
       </c>
       <c r="F132" t="n">
-        <v>500</v>
+        <v>2639</v>
       </c>
       <c r="G132" t="n">
-        <v>631.7666666666667</v>
+        <v>631.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5514,7 +5512,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5542,10 +5540,10 @@
         <v>627</v>
       </c>
       <c r="F133" t="n">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="G133" t="n">
-        <v>631.6333333333333</v>
+        <v>631.7666666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5555,7 +5553,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5583,10 +5581,10 @@
         <v>627</v>
       </c>
       <c r="F134" t="n">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="G134" t="n">
-        <v>631.5</v>
+        <v>631.6333333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5596,7 +5594,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5624,10 +5622,10 @@
         <v>627</v>
       </c>
       <c r="F135" t="n">
-        <v>750</v>
+        <v>425</v>
       </c>
       <c r="G135" t="n">
-        <v>631.3666666666667</v>
+        <v>631.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5637,7 +5635,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5665,10 +5663,10 @@
         <v>627</v>
       </c>
       <c r="F136" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="G136" t="n">
-        <v>631.2333333333333</v>
+        <v>631.3666666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5678,7 +5676,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5694,22 +5692,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C137" t="n">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D137" t="n">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E137" t="n">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="G137" t="n">
-        <v>631.2</v>
+        <v>631.2333333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5719,7 +5717,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5747,10 +5745,10 @@
         <v>633</v>
       </c>
       <c r="F138" t="n">
-        <v>11.7305</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>631.1666666666666</v>
+        <v>631.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5760,7 +5758,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5788,10 +5786,10 @@
         <v>633</v>
       </c>
       <c r="F139" t="n">
-        <v>2727.9999</v>
+        <v>11.7305</v>
       </c>
       <c r="G139" t="n">
-        <v>631.1333333333333</v>
+        <v>631.1666666666666</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5801,7 +5799,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5829,10 +5827,10 @@
         <v>633</v>
       </c>
       <c r="F140" t="n">
-        <v>50</v>
+        <v>2727.9999</v>
       </c>
       <c r="G140" t="n">
-        <v>631.1</v>
+        <v>631.1333333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5842,7 +5840,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5861,19 +5859,19 @@
         <v>633</v>
       </c>
       <c r="C141" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D141" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E141" t="n">
         <v>633</v>
       </c>
       <c r="F141" t="n">
-        <v>3334.4141</v>
+        <v>50</v>
       </c>
       <c r="G141" t="n">
-        <v>631.0666666666667</v>
+        <v>631.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5883,7 +5881,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5899,19 +5897,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C142" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D142" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E142" t="n">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F142" t="n">
-        <v>617.9999</v>
+        <v>3334.4141</v>
       </c>
       <c r="G142" t="n">
         <v>631.0666666666667</v>
@@ -5924,7 +5922,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5952,10 +5950,10 @@
         <v>636</v>
       </c>
       <c r="F143" t="n">
-        <v>315.7491</v>
+        <v>617.9999</v>
       </c>
       <c r="G143" t="n">
-        <v>631.0833333333334</v>
+        <v>631.0666666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5965,7 +5963,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5981,22 +5979,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C144" t="n">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D144" t="n">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E144" t="n">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F144" t="n">
-        <v>2970</v>
+        <v>315.7491</v>
       </c>
       <c r="G144" t="n">
-        <v>631.15</v>
+        <v>631.0833333333334</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6006,7 +6004,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6022,22 +6020,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
+        <v>637</v>
+      </c>
+      <c r="C145" t="n">
         <v>639</v>
       </c>
-      <c r="C145" t="n">
-        <v>640</v>
-      </c>
       <c r="D145" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E145" t="n">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F145" t="n">
-        <v>1716.4854</v>
+        <v>2970</v>
       </c>
       <c r="G145" t="n">
-        <v>631.2333333333333</v>
+        <v>631.15</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6047,7 +6045,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6063,7 +6061,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C146" t="n">
         <v>640</v>
@@ -6072,13 +6070,13 @@
         <v>640</v>
       </c>
       <c r="E146" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F146" t="n">
-        <v>400</v>
+        <v>1716.4854</v>
       </c>
       <c r="G146" t="n">
-        <v>631.2833333333333</v>
+        <v>631.2333333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6088,7 +6086,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6116,10 +6114,10 @@
         <v>640</v>
       </c>
       <c r="F147" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="G147" t="n">
-        <v>631.5</v>
+        <v>631.2833333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6129,7 +6127,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6157,10 +6155,10 @@
         <v>640</v>
       </c>
       <c r="F148" t="n">
-        <v>450</v>
+        <v>1100</v>
       </c>
       <c r="G148" t="n">
-        <v>631.5666666666667</v>
+        <v>631.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6170,7 +6168,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6198,10 +6196,10 @@
         <v>640</v>
       </c>
       <c r="F149" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="G149" t="n">
-        <v>631.6333333333333</v>
+        <v>631.5666666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6211,7 +6209,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6230,19 +6228,19 @@
         <v>640</v>
       </c>
       <c r="C150" t="n">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D150" t="n">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E150" t="n">
         <v>640</v>
       </c>
       <c r="F150" t="n">
-        <v>5416.3279</v>
+        <v>650</v>
       </c>
       <c r="G150" t="n">
-        <v>631.75</v>
+        <v>631.6333333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6252,7 +6250,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6268,7 +6266,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C151" t="n">
         <v>642</v>
@@ -6277,13 +6275,13 @@
         <v>642</v>
       </c>
       <c r="E151" t="n">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F151" t="n">
-        <v>8811.0648</v>
+        <v>5416.3279</v>
       </c>
       <c r="G151" t="n">
-        <v>631.85</v>
+        <v>631.75</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6293,7 +6291,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6321,10 +6319,10 @@
         <v>642</v>
       </c>
       <c r="F152" t="n">
-        <v>1115.9681</v>
+        <v>8811.0648</v>
       </c>
       <c r="G152" t="n">
-        <v>631.95</v>
+        <v>631.85</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6334,7 +6332,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6353,19 +6351,19 @@
         <v>642</v>
       </c>
       <c r="C153" t="n">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D153" t="n">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E153" t="n">
         <v>642</v>
       </c>
       <c r="F153" t="n">
-        <v>378.8842</v>
+        <v>1115.9681</v>
       </c>
       <c r="G153" t="n">
-        <v>632.1</v>
+        <v>631.95</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6375,7 +6373,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6391,7 +6389,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C154" t="n">
         <v>643</v>
@@ -6400,13 +6398,13 @@
         <v>643</v>
       </c>
       <c r="E154" t="n">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F154" t="n">
-        <v>110</v>
+        <v>378.8842</v>
       </c>
       <c r="G154" t="n">
-        <v>632.25</v>
+        <v>632.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6416,7 +6414,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6444,10 +6442,10 @@
         <v>643</v>
       </c>
       <c r="F155" t="n">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="G155" t="n">
-        <v>632.35</v>
+        <v>632.25</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6457,7 +6455,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6485,10 +6483,10 @@
         <v>643</v>
       </c>
       <c r="F156" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G156" t="n">
-        <v>632.5333333333333</v>
+        <v>632.35</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6498,7 +6496,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6514,22 +6512,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C157" t="n">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D157" t="n">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E157" t="n">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F157" t="n">
-        <v>577</v>
+        <v>2</v>
       </c>
       <c r="G157" t="n">
-        <v>632.6833333333333</v>
+        <v>632.5333333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6539,7 +6537,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6558,19 +6556,19 @@
         <v>645</v>
       </c>
       <c r="C158" t="n">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D158" t="n">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E158" t="n">
         <v>645</v>
       </c>
       <c r="F158" t="n">
-        <v>1378.3217</v>
+        <v>577</v>
       </c>
       <c r="G158" t="n">
-        <v>632.8833333333333</v>
+        <v>632.6833333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6580,7 +6578,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6596,22 +6594,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
+        <v>645</v>
+      </c>
+      <c r="C159" t="n">
         <v>648</v>
       </c>
-      <c r="C159" t="n">
-        <v>649</v>
-      </c>
       <c r="D159" t="n">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E159" t="n">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F159" t="n">
-        <v>1730.9303</v>
+        <v>1378.3217</v>
       </c>
       <c r="G159" t="n">
-        <v>633.1166666666667</v>
+        <v>632.8833333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6621,7 +6619,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6637,22 +6635,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C160" t="n">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="D160" t="n">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="E160" t="n">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F160" t="n">
-        <v>504</v>
+        <v>1730.9303</v>
       </c>
       <c r="G160" t="n">
-        <v>633.5166666666667</v>
+        <v>633.1166666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6662,7 +6660,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6678,22 +6676,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="C161" t="n">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D161" t="n">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E161" t="n">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="F161" t="n">
-        <v>1630</v>
+        <v>504</v>
       </c>
       <c r="G161" t="n">
-        <v>634.0333333333333</v>
+        <v>633.5166666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6703,7 +6701,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6719,22 +6717,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C162" t="n">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D162" t="n">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E162" t="n">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="F162" t="n">
-        <v>1543.3233</v>
+        <v>1630</v>
       </c>
       <c r="G162" t="n">
-        <v>634.6666666666666</v>
+        <v>634.0333333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6744,7 +6742,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6760,40 +6758,40 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="C163" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D163" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E163" t="n">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="F163" t="n">
-        <v>4387.4959</v>
+        <v>1543.3233</v>
       </c>
       <c r="G163" t="n">
-        <v>635.2833333333333</v>
+        <v>634.6666666666666</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>1</v>
+        <v>1.060495207667732</v>
       </c>
     </row>
     <row r="164">
@@ -6801,38 +6799,32 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="C164" t="n">
         <v>666</v>
       </c>
       <c r="D164" t="n">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E164" t="n">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="F164" t="n">
-        <v>576.0238000000001</v>
+        <v>4387.4959</v>
       </c>
       <c r="G164" t="n">
-        <v>635.9333333333333</v>
+        <v>635.2833333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>630</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6842,38 +6834,32 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="C165" t="n">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="D165" t="n">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="E165" t="n">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="F165" t="n">
-        <v>2334.7073</v>
+        <v>576.0238000000001</v>
       </c>
       <c r="G165" t="n">
-        <v>636.4666666666667</v>
+        <v>635.9333333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>630</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6895,26 +6881,20 @@
         <v>659</v>
       </c>
       <c r="F166" t="n">
-        <v>234.0165</v>
+        <v>2334.7073</v>
       </c>
       <c r="G166" t="n">
-        <v>636.9666666666667</v>
+        <v>636.4666666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>630</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6924,22 +6904,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="C167" t="n">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="D167" t="n">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="E167" t="n">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="F167" t="n">
-        <v>50</v>
+        <v>234.0165</v>
       </c>
       <c r="G167" t="n">
-        <v>637.5166666666667</v>
+        <v>636.9666666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6948,14 +6928,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>630</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6965,22 +6939,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C168" t="n">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D168" t="n">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="E168" t="n">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="F168" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G168" t="n">
-        <v>638.0166666666667</v>
+        <v>637.5166666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6989,14 +6963,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>630</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7006,7 +6974,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C169" t="n">
         <v>659</v>
@@ -7015,13 +6983,13 @@
         <v>659</v>
       </c>
       <c r="E169" t="n">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F169" t="n">
-        <v>198.0274</v>
+        <v>100</v>
       </c>
       <c r="G169" t="n">
-        <v>638.5166666666667</v>
+        <v>638.0166666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -7030,14 +6998,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>630</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7047,22 +7009,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="C170" t="n">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="D170" t="n">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="E170" t="n">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="F170" t="n">
-        <v>798.6244</v>
+        <v>198.0274</v>
       </c>
       <c r="G170" t="n">
-        <v>638.9166666666666</v>
+        <v>638.5166666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7071,14 +7033,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>630</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7088,22 +7044,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C171" t="n">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D171" t="n">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E171" t="n">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F171" t="n">
-        <v>570</v>
+        <v>798.6244</v>
       </c>
       <c r="G171" t="n">
-        <v>639.3666666666667</v>
+        <v>638.9166666666666</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7112,14 +7068,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>630</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7129,22 +7079,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C172" t="n">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D172" t="n">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="E172" t="n">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="F172" t="n">
-        <v>6.5059</v>
+        <v>570</v>
       </c>
       <c r="G172" t="n">
-        <v>639.7666666666667</v>
+        <v>639.3666666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7153,14 +7103,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>630</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7170,22 +7114,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C173" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D173" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E173" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F173" t="n">
-        <v>282.072</v>
+        <v>6.5059</v>
       </c>
       <c r="G173" t="n">
-        <v>640.2333333333333</v>
+        <v>639.7666666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7194,14 +7138,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>630</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7211,22 +7149,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="C174" t="n">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="D174" t="n">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="E174" t="n">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="F174" t="n">
-        <v>96.07089999999999</v>
+        <v>282.072</v>
       </c>
       <c r="G174" t="n">
-        <v>640.5333333333333</v>
+        <v>640.2333333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7235,14 +7173,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>630</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7252,22 +7184,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="C175" t="n">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="D175" t="n">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E175" t="n">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="F175" t="n">
-        <v>96.071</v>
+        <v>96.07089999999999</v>
       </c>
       <c r="G175" t="n">
-        <v>640.95</v>
+        <v>640.5333333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7276,14 +7208,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>630</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7293,22 +7219,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C176" t="n">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="D176" t="n">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="E176" t="n">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="F176" t="n">
-        <v>714.9651</v>
+        <v>96.071</v>
       </c>
       <c r="G176" t="n">
-        <v>641.2666666666667</v>
+        <v>640.95</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7317,14 +7243,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>630</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7334,22 +7254,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
+        <v>650</v>
+      </c>
+      <c r="C177" t="n">
         <v>648</v>
       </c>
-      <c r="C177" t="n">
-        <v>654</v>
-      </c>
       <c r="D177" t="n">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E177" t="n">
         <v>648</v>
       </c>
       <c r="F177" t="n">
-        <v>215.6807</v>
+        <v>714.9651</v>
       </c>
       <c r="G177" t="n">
-        <v>641.6833333333333</v>
+        <v>641.2666666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7358,14 +7278,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>630</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7375,7 +7289,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C178" t="n">
         <v>654</v>
@@ -7384,13 +7298,13 @@
         <v>654</v>
       </c>
       <c r="E178" t="n">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="F178" t="n">
-        <v>294.4416</v>
+        <v>215.6807</v>
       </c>
       <c r="G178" t="n">
-        <v>642.1</v>
+        <v>641.6833333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7399,14 +7313,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>630</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7416,22 +7324,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C179" t="n">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="D179" t="n">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="E179" t="n">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="F179" t="n">
-        <v>338.8074</v>
+        <v>294.4416</v>
       </c>
       <c r="G179" t="n">
-        <v>642.3833333333333</v>
+        <v>642.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7440,14 +7348,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>630</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7469,10 +7371,10 @@
         <v>651</v>
       </c>
       <c r="F180" t="n">
-        <v>176.1578</v>
+        <v>338.8074</v>
       </c>
       <c r="G180" t="n">
-        <v>642.6666666666666</v>
+        <v>642.3833333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7481,14 +7383,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>630</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7498,22 +7394,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="C181" t="n">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="D181" t="n">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="E181" t="n">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="F181" t="n">
-        <v>1716.4854</v>
+        <v>176.1578</v>
       </c>
       <c r="G181" t="n">
-        <v>642.7833333333333</v>
+        <v>642.6666666666666</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7522,14 +7418,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>630</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7539,22 +7429,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C182" t="n">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="D182" t="n">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="E182" t="n">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F182" t="n">
-        <v>1252.1572</v>
+        <v>1716.4854</v>
       </c>
       <c r="G182" t="n">
-        <v>643.25</v>
+        <v>642.7833333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7563,14 +7453,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>630</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7580,22 +7464,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C183" t="n">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D183" t="n">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E183" t="n">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F183" t="n">
-        <v>1786.0409</v>
+        <v>1252.1572</v>
       </c>
       <c r="G183" t="n">
-        <v>643.7666666666667</v>
+        <v>643.25</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7604,14 +7488,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>630</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7621,7 +7499,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C184" t="n">
         <v>658</v>
@@ -7630,13 +7508,13 @@
         <v>658</v>
       </c>
       <c r="E184" t="n">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F184" t="n">
-        <v>390</v>
+        <v>1786.0409</v>
       </c>
       <c r="G184" t="n">
-        <v>644.2833333333333</v>
+        <v>643.7666666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7645,14 +7523,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>630</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7674,10 +7546,10 @@
         <v>658</v>
       </c>
       <c r="F185" t="n">
-        <v>563</v>
+        <v>390</v>
       </c>
       <c r="G185" t="n">
-        <v>644.7833333333333</v>
+        <v>644.2833333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7686,14 +7558,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>630</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7706,19 +7572,19 @@
         <v>658</v>
       </c>
       <c r="C186" t="n">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="D186" t="n">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="E186" t="n">
         <v>658</v>
       </c>
       <c r="F186" t="n">
-        <v>6665.28</v>
+        <v>563</v>
       </c>
       <c r="G186" t="n">
-        <v>645.4833333333333</v>
+        <v>644.7833333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7727,14 +7593,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>630</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7744,7 +7604,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="C187" t="n">
         <v>670</v>
@@ -7753,13 +7613,13 @@
         <v>670</v>
       </c>
       <c r="E187" t="n">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="F187" t="n">
-        <v>494.2743</v>
+        <v>6665.28</v>
       </c>
       <c r="G187" t="n">
-        <v>646.0833333333334</v>
+        <v>645.4833333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7768,14 +7628,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>630</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7797,10 +7651,10 @@
         <v>670</v>
       </c>
       <c r="F188" t="n">
-        <v>8.6409</v>
+        <v>494.2743</v>
       </c>
       <c r="G188" t="n">
-        <v>646.7</v>
+        <v>646.0833333333334</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7809,14 +7663,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>630</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7838,10 +7686,10 @@
         <v>670</v>
       </c>
       <c r="F189" t="n">
-        <v>30.6908</v>
+        <v>8.6409</v>
       </c>
       <c r="G189" t="n">
-        <v>647.35</v>
+        <v>646.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7850,14 +7698,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>630</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7879,10 +7721,10 @@
         <v>670</v>
       </c>
       <c r="F190" t="n">
-        <v>131.2653</v>
+        <v>30.6908</v>
       </c>
       <c r="G190" t="n">
-        <v>648.0666666666667</v>
+        <v>647.35</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7891,14 +7733,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>630</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7908,22 +7744,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="C191" t="n">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="D191" t="n">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E191" t="n">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="F191" t="n">
-        <v>808.7175</v>
+        <v>131.2653</v>
       </c>
       <c r="G191" t="n">
-        <v>648.7333333333333</v>
+        <v>648.0666666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7932,14 +7768,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>630</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7952,19 +7782,19 @@
         <v>664</v>
       </c>
       <c r="C192" t="n">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D192" t="n">
+        <v>667</v>
+      </c>
+      <c r="E192" t="n">
         <v>664</v>
       </c>
-      <c r="E192" t="n">
-        <v>663</v>
-      </c>
       <c r="F192" t="n">
-        <v>138.0141</v>
+        <v>808.7175</v>
       </c>
       <c r="G192" t="n">
-        <v>649.3333333333334</v>
+        <v>648.7333333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7973,14 +7803,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>630</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7990,22 +7814,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
+        <v>664</v>
+      </c>
+      <c r="C193" t="n">
         <v>663</v>
       </c>
-      <c r="C193" t="n">
-        <v>658</v>
-      </c>
       <c r="D193" t="n">
+        <v>664</v>
+      </c>
+      <c r="E193" t="n">
         <v>663</v>
       </c>
-      <c r="E193" t="n">
-        <v>658</v>
-      </c>
       <c r="F193" t="n">
-        <v>1542.8185</v>
+        <v>138.0141</v>
       </c>
       <c r="G193" t="n">
-        <v>649.85</v>
+        <v>649.3333333333334</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -8014,14 +7838,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>630</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8031,22 +7849,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C194" t="n">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D194" t="n">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E194" t="n">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F194" t="n">
-        <v>1000</v>
+        <v>1542.8185</v>
       </c>
       <c r="G194" t="n">
-        <v>650.4333333333333</v>
+        <v>649.85</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -8055,14 +7873,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>630</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8072,22 +7884,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
+        <v>659</v>
+      </c>
+      <c r="C195" t="n">
         <v>662</v>
       </c>
-      <c r="C195" t="n">
-        <v>664</v>
-      </c>
       <c r="D195" t="n">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E195" t="n">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F195" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G195" t="n">
-        <v>651.05</v>
+        <v>650.4333333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -8096,14 +7908,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>630</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8113,7 +7919,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C196" t="n">
         <v>664</v>
@@ -8122,13 +7928,13 @@
         <v>664</v>
       </c>
       <c r="E196" t="n">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F196" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="G196" t="n">
-        <v>651.6666666666666</v>
+        <v>651.05</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -8137,14 +7943,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>630</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8154,22 +7954,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C197" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D197" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E197" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="F197" t="n">
-        <v>547.1336</v>
+        <v>950</v>
       </c>
       <c r="G197" t="n">
-        <v>652.15</v>
+        <v>651.6666666666666</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -8178,14 +7978,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>630</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8207,10 +8001,10 @@
         <v>662</v>
       </c>
       <c r="F198" t="n">
-        <v>452.8664</v>
+        <v>547.1336</v>
       </c>
       <c r="G198" t="n">
-        <v>652.6333333333333</v>
+        <v>652.15</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -8219,14 +8013,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>630</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8236,22 +8024,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C199" t="n">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D199" t="n">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="E199" t="n">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F199" t="n">
-        <v>3362.489</v>
+        <v>452.8664</v>
       </c>
       <c r="G199" t="n">
-        <v>653.2166666666667</v>
+        <v>652.6333333333333</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -8260,14 +8048,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>630</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8277,22 +8059,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="C200" t="n">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D200" t="n">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E200" t="n">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F200" t="n">
-        <v>6.657</v>
+        <v>3362.489</v>
       </c>
       <c r="G200" t="n">
-        <v>653.85</v>
+        <v>653.2166666666667</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -8301,14 +8083,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>630</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8330,10 +8106,10 @@
         <v>671</v>
       </c>
       <c r="F201" t="n">
-        <v>389.943</v>
+        <v>6.657</v>
       </c>
       <c r="G201" t="n">
-        <v>654.45</v>
+        <v>653.85</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8342,14 +8118,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>630</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8359,22 +8129,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C202" t="n">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D202" t="n">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E202" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F202" t="n">
-        <v>846.8163</v>
+        <v>389.943</v>
       </c>
       <c r="G202" t="n">
-        <v>655.0666666666667</v>
+        <v>654.45</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8383,14 +8153,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>630</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8400,7 +8164,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C203" t="n">
         <v>673</v>
@@ -8409,13 +8173,13 @@
         <v>673</v>
       </c>
       <c r="E203" t="n">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F203" t="n">
-        <v>589.8575</v>
+        <v>846.8163</v>
       </c>
       <c r="G203" t="n">
-        <v>655.6833333333333</v>
+        <v>655.0666666666667</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8424,14 +8188,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>630</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8444,19 +8202,19 @@
         <v>673</v>
       </c>
       <c r="C204" t="n">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="D204" t="n">
         <v>673</v>
       </c>
       <c r="E204" t="n">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="F204" t="n">
-        <v>1920</v>
+        <v>589.8575</v>
       </c>
       <c r="G204" t="n">
-        <v>656.1666666666666</v>
+        <v>655.6833333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8465,14 +8223,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>630</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8482,22 +8234,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C205" t="n">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D205" t="n">
         <v>673</v>
       </c>
       <c r="E205" t="n">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F205" t="n">
-        <v>728</v>
+        <v>1920</v>
       </c>
       <c r="G205" t="n">
-        <v>656.7166666666667</v>
+        <v>656.1666666666666</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8506,14 +8258,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>630</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8523,22 +8269,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
+        <v>672</v>
+      </c>
+      <c r="C206" t="n">
         <v>673</v>
       </c>
-      <c r="C206" t="n">
-        <v>684</v>
-      </c>
       <c r="D206" t="n">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="E206" t="n">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F206" t="n">
-        <v>7122.85335784</v>
+        <v>728</v>
       </c>
       <c r="G206" t="n">
-        <v>657.45</v>
+        <v>656.7166666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8547,14 +8293,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>630</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8564,7 +8304,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="C207" t="n">
         <v>684</v>
@@ -8573,13 +8313,13 @@
         <v>684</v>
       </c>
       <c r="E207" t="n">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="F207" t="n">
-        <v>100</v>
+        <v>7122.85335784</v>
       </c>
       <c r="G207" t="n">
-        <v>658.1833333333333</v>
+        <v>657.45</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8588,14 +8328,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>630</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8608,19 +8342,19 @@
         <v>684</v>
       </c>
       <c r="C208" t="n">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D208" t="n">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E208" t="n">
         <v>684</v>
       </c>
       <c r="F208" t="n">
-        <v>23574.0854</v>
+        <v>100</v>
       </c>
       <c r="G208" t="n">
-        <v>658.9333333333333</v>
+        <v>658.1833333333333</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8629,14 +8363,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>630</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8646,22 +8374,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
+        <v>684</v>
+      </c>
+      <c r="C209" t="n">
         <v>685</v>
       </c>
-      <c r="C209" t="n">
-        <v>687</v>
-      </c>
       <c r="D209" t="n">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="E209" t="n">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="F209" t="n">
-        <v>20883.25808656</v>
+        <v>23574.0854</v>
       </c>
       <c r="G209" t="n">
-        <v>659.7166666666667</v>
+        <v>658.9333333333333</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8670,14 +8398,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>630</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8687,40 +8409,34 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C210" t="n">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D210" t="n">
         <v>700</v>
       </c>
       <c r="E210" t="n">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="F210" t="n">
-        <v>7235.93912612</v>
+        <v>20883.25808656</v>
       </c>
       <c r="G210" t="n">
-        <v>660.5333333333333</v>
+        <v>659.7166666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>630</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
-        <v>1.091825396825397</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -8728,28 +8444,28 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
+        <v>688</v>
+      </c>
+      <c r="C211" t="n">
         <v>691</v>
       </c>
-      <c r="C211" t="n">
-        <v>696</v>
-      </c>
       <c r="D211" t="n">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="E211" t="n">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F211" t="n">
-        <v>953.91500172</v>
+        <v>7235.93912612</v>
       </c>
       <c r="G211" t="n">
-        <v>661.4333333333333</v>
+        <v>660.5333333333333</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
@@ -8763,22 +8479,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
+        <v>691</v>
+      </c>
+      <c r="C212" t="n">
         <v>696</v>
       </c>
-      <c r="C212" t="n">
-        <v>698</v>
-      </c>
       <c r="D212" t="n">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E212" t="n">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F212" t="n">
-        <v>1126.0502</v>
+        <v>953.91500172</v>
       </c>
       <c r="G212" t="n">
-        <v>662.3666666666667</v>
+        <v>661.4333333333333</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8798,7 +8514,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C213" t="n">
         <v>698</v>
@@ -8807,13 +8523,13 @@
         <v>698</v>
       </c>
       <c r="E213" t="n">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F213" t="n">
-        <v>1628.7317</v>
+        <v>1126.0502</v>
       </c>
       <c r="G213" t="n">
-        <v>663.2833333333333</v>
+        <v>662.3666666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8836,19 +8552,19 @@
         <v>698</v>
       </c>
       <c r="C214" t="n">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="D214" t="n">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E214" t="n">
         <v>690</v>
       </c>
       <c r="F214" t="n">
-        <v>3369.4269</v>
+        <v>1628.7317</v>
       </c>
       <c r="G214" t="n">
-        <v>664.0666666666667</v>
+        <v>663.2833333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8871,19 +8587,19 @@
         <v>698</v>
       </c>
       <c r="C215" t="n">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="D215" t="n">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E215" t="n">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="F215" t="n">
-        <v>1.4003</v>
+        <v>3369.4269</v>
       </c>
       <c r="G215" t="n">
-        <v>664.9833333333333</v>
+        <v>664.0666666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8903,22 +8619,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C216" t="n">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="D216" t="n">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="E216" t="n">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="F216" t="n">
-        <v>5072.7539</v>
+        <v>1.4003</v>
       </c>
       <c r="G216" t="n">
-        <v>665.7666666666667</v>
+        <v>664.9833333333333</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8938,22 +8654,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
+        <v>695</v>
+      </c>
+      <c r="C217" t="n">
         <v>690</v>
       </c>
-      <c r="C217" t="n">
-        <v>694</v>
-      </c>
       <c r="D217" t="n">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E217" t="n">
         <v>690</v>
       </c>
       <c r="F217" t="n">
-        <v>7884.275</v>
+        <v>5072.7539</v>
       </c>
       <c r="G217" t="n">
-        <v>666.5833333333334</v>
+        <v>665.7666666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8973,22 +8689,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C218" t="n">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D218" t="n">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E218" t="n">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="F218" t="n">
-        <v>274.2432</v>
+        <v>7884.275</v>
       </c>
       <c r="G218" t="n">
-        <v>667.3833333333333</v>
+        <v>666.5833333333334</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -9011,19 +8727,19 @@
         <v>696</v>
       </c>
       <c r="C219" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D219" t="n">
         <v>696</v>
       </c>
       <c r="E219" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F219" t="n">
-        <v>2218.5356</v>
+        <v>274.2432</v>
       </c>
       <c r="G219" t="n">
-        <v>668.15</v>
+        <v>667.3833333333333</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -9043,22 +8759,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C220" t="n">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D220" t="n">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="E220" t="n">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F220" t="n">
-        <v>784.2544</v>
+        <v>2218.5356</v>
       </c>
       <c r="G220" t="n">
-        <v>668.7</v>
+        <v>668.15</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -9078,7 +8794,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C221" t="n">
         <v>693</v>
@@ -9087,13 +8803,13 @@
         <v>693</v>
       </c>
       <c r="E221" t="n">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F221" t="n">
-        <v>42.4687</v>
+        <v>784.2544</v>
       </c>
       <c r="G221" t="n">
-        <v>669.2166666666667</v>
+        <v>668.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -9108,6 +8824,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>692</v>
+      </c>
+      <c r="C222" t="n">
+        <v>693</v>
+      </c>
+      <c r="D222" t="n">
+        <v>693</v>
+      </c>
+      <c r="E222" t="n">
+        <v>692</v>
+      </c>
+      <c r="F222" t="n">
+        <v>42.4687</v>
+      </c>
+      <c r="G222" t="n">
+        <v>669.2166666666667</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-14 BackTest PPT.xlsx
+++ b/BackTest/2019-11-14 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M222"/>
+  <dimension ref="A1:N232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>337.2457</v>
       </c>
       <c r="G2" t="n">
+        <v>636.8666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>623.6</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>1500</v>
       </c>
       <c r="G3" t="n">
+        <v>636.8666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>623.9833333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>634</v>
+      </c>
+      <c r="L3" t="n">
+        <v>634</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>350.3488</v>
       </c>
       <c r="G4" t="n">
+        <v>636.9333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>624.3833333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>633</v>
+      </c>
+      <c r="L4" t="n">
+        <v>634</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>6905.2844</v>
       </c>
       <c r="G5" t="n">
+        <v>636.6666666666666</v>
+      </c>
+      <c r="H5" t="n">
         <v>624.7166666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>634</v>
+      </c>
+      <c r="L5" t="n">
+        <v>634</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,25 @@
         <v>1813.2403</v>
       </c>
       <c r="G6" t="n">
+        <v>636.4666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>625.0666666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>630</v>
+      </c>
+      <c r="L6" t="n">
+        <v>630</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,29 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
+        <v>636.2</v>
+      </c>
+      <c r="H7" t="n">
         <v>625.4666666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>631</v>
+      </c>
+      <c r="L7" t="n">
+        <v>630</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +713,29 @@
         <v>4359.3726</v>
       </c>
       <c r="G8" t="n">
+        <v>635.7333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>625.8166666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>634</v>
+      </c>
+      <c r="L8" t="n">
+        <v>630</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +759,25 @@
         <v>71.5508</v>
       </c>
       <c r="G9" t="n">
+        <v>635.2666666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>626.1666666666666</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>631</v>
+      </c>
+      <c r="L9" t="n">
+        <v>631</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +801,29 @@
         <v>474.7371</v>
       </c>
       <c r="G10" t="n">
+        <v>634.8</v>
+      </c>
+      <c r="H10" t="n">
         <v>626.5166666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>633</v>
+      </c>
+      <c r="L10" t="n">
+        <v>631</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +847,29 @@
         <v>385.5</v>
       </c>
       <c r="G11" t="n">
+        <v>634.0666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>626.8666666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>634</v>
+      </c>
+      <c r="L11" t="n">
+        <v>631</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +893,25 @@
         <v>390.5602</v>
       </c>
       <c r="G12" t="n">
+        <v>633</v>
+      </c>
+      <c r="H12" t="n">
         <v>627.1833333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>634</v>
+      </c>
+      <c r="L12" t="n">
+        <v>634</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +935,27 @@
         <v>581.5</v>
       </c>
       <c r="G13" t="n">
+        <v>631.6</v>
+      </c>
+      <c r="H13" t="n">
         <v>627.2833333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>634</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +979,29 @@
         <v>2087.8234</v>
       </c>
       <c r="G14" t="n">
+        <v>630.8666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>627.4166666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>620</v>
+      </c>
+      <c r="L14" t="n">
+        <v>634</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1025,29 @@
         <v>88.50449999999999</v>
       </c>
       <c r="G15" t="n">
+        <v>630.2666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>627.55</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>621</v>
+      </c>
+      <c r="L15" t="n">
+        <v>634</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1071,27 @@
         <v>378.9099</v>
       </c>
       <c r="G16" t="n">
+        <v>630.4</v>
+      </c>
+      <c r="H16" t="n">
         <v>627.8833333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>634</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1115,27 @@
         <v>4274.3867</v>
       </c>
       <c r="G17" t="n">
+        <v>630.3333333333334</v>
+      </c>
+      <c r="H17" t="n">
         <v>628.2166666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>634</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1159,27 @@
         <v>47.9385</v>
       </c>
       <c r="G18" t="n">
+        <v>630.1333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>628.5</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>634</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1203,27 @@
         <v>3207.9267</v>
       </c>
       <c r="G19" t="n">
+        <v>630.2</v>
+      </c>
+      <c r="H19" t="n">
         <v>628.8666666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>634</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1247,27 @@
         <v>78.12130000000001</v>
       </c>
       <c r="G20" t="n">
+        <v>630.5333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>629.2166666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>634</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1291,27 @@
         <v>2779.6124</v>
       </c>
       <c r="G21" t="n">
+        <v>631.1333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>629.65</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>634</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1335,27 @@
         <v>1663.9968</v>
       </c>
       <c r="G22" t="n">
+        <v>631.5333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>630.0666666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>634</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1379,27 @@
         <v>39.3738</v>
       </c>
       <c r="G23" t="n">
+        <v>632.1333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>630.4166666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>634</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1423,27 @@
         <v>50</v>
       </c>
       <c r="G24" t="n">
+        <v>632.6</v>
+      </c>
+      <c r="H24" t="n">
         <v>630.6666666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>634</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1467,27 @@
         <v>131.6238</v>
       </c>
       <c r="G25" t="n">
+        <v>632.7333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>630.85</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>634</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1511,27 @@
         <v>1400.9968</v>
       </c>
       <c r="G26" t="n">
+        <v>632.8666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>631.0333333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>634</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1555,27 @@
         <v>88</v>
       </c>
       <c r="G27" t="n">
+        <v>633</v>
+      </c>
+      <c r="H27" t="n">
         <v>631.1833333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>634</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1599,27 @@
         <v>84.74509999999999</v>
       </c>
       <c r="G28" t="n">
+        <v>634.0666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>631.35</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>634</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1643,27 @@
         <v>908.0526</v>
       </c>
       <c r="G29" t="n">
+        <v>635</v>
+      </c>
+      <c r="H29" t="n">
         <v>631.5166666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>634</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1687,27 @@
         <v>305</v>
       </c>
       <c r="G30" t="n">
+        <v>635.7333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>631.7333333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>634</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1731,27 @@
         <v>300</v>
       </c>
       <c r="G31" t="n">
+        <v>635.8</v>
+      </c>
+      <c r="H31" t="n">
         <v>631.9</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>634</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1775,27 @@
         <v>212</v>
       </c>
       <c r="G32" t="n">
+        <v>635.8666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>632.0666666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>634</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1819,27 @@
         <v>513</v>
       </c>
       <c r="G33" t="n">
+        <v>636.1333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>632.2333333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>634</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1863,27 @@
         <v>0.5674</v>
       </c>
       <c r="G34" t="n">
+        <v>636.0666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>632.4</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>634</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1907,27 @@
         <v>401</v>
       </c>
       <c r="G35" t="n">
+        <v>636</v>
+      </c>
+      <c r="H35" t="n">
         <v>632.5666666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>634</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1951,27 @@
         <v>146</v>
       </c>
       <c r="G36" t="n">
+        <v>635.6</v>
+      </c>
+      <c r="H36" t="n">
         <v>632.7333333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>634</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1995,27 @@
         <v>1801.898</v>
       </c>
       <c r="G37" t="n">
+        <v>635.2</v>
+      </c>
+      <c r="H37" t="n">
         <v>632.9333333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>634</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2039,27 @@
         <v>150</v>
       </c>
       <c r="G38" t="n">
+        <v>634.9333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>633.1666666666666</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>634</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2083,27 @@
         <v>50</v>
       </c>
       <c r="G39" t="n">
+        <v>634.6</v>
+      </c>
+      <c r="H39" t="n">
         <v>633.4</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>634</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2127,27 @@
         <v>268</v>
       </c>
       <c r="G40" t="n">
+        <v>634.6</v>
+      </c>
+      <c r="H40" t="n">
         <v>633.6</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>634</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2171,27 @@
         <v>397</v>
       </c>
       <c r="G41" t="n">
+        <v>634.6</v>
+      </c>
+      <c r="H41" t="n">
         <v>633.8</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>634</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2215,27 @@
         <v>10</v>
       </c>
       <c r="G42" t="n">
+        <v>634.2</v>
+      </c>
+      <c r="H42" t="n">
         <v>633.8333333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>634</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2259,27 @@
         <v>6348.6422</v>
       </c>
       <c r="G43" t="n">
+        <v>633.6</v>
+      </c>
+      <c r="H43" t="n">
         <v>633.85</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>634</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2303,27 @@
         <v>1352</v>
       </c>
       <c r="G44" t="n">
+        <v>633.0666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>633.8666666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>634</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2347,27 @@
         <v>1240.2009</v>
       </c>
       <c r="G45" t="n">
+        <v>632.6666666666666</v>
+      </c>
+      <c r="H45" t="n">
         <v>633.8166666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>634</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2391,27 @@
         <v>225</v>
       </c>
       <c r="G46" t="n">
+        <v>632.2</v>
+      </c>
+      <c r="H46" t="n">
         <v>633.7666666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>634</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2435,27 @@
         <v>200</v>
       </c>
       <c r="G47" t="n">
+        <v>631.6666666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>633.6833333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>634</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2479,27 @@
         <v>90</v>
       </c>
       <c r="G48" t="n">
+        <v>631.1333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>633.5666666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>634</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,22 +2523,27 @@
         <v>83</v>
       </c>
       <c r="G49" t="n">
+        <v>630.6</v>
+      </c>
+      <c r="H49" t="n">
         <v>633.45</v>
       </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>626</v>
-      </c>
-      <c r="K49" t="n">
-        <v>626</v>
-      </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>634</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2132,26 +2567,27 @@
         <v>615.9008</v>
       </c>
       <c r="G50" t="n">
+        <v>630.1333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>633.3333333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>626</v>
-      </c>
-      <c r="K50" t="n">
-        <v>626</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>634</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2175,26 +2611,27 @@
         <v>150</v>
       </c>
       <c r="G51" t="n">
+        <v>629.8666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>633.2666666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>627</v>
-      </c>
-      <c r="K51" t="n">
-        <v>626</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>634</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2218,26 +2655,27 @@
         <v>50</v>
       </c>
       <c r="G52" t="n">
+        <v>630</v>
+      </c>
+      <c r="H52" t="n">
         <v>633.2333333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>630</v>
-      </c>
-      <c r="K52" t="n">
-        <v>626</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>634</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2261,24 +2699,27 @@
         <v>214</v>
       </c>
       <c r="G53" t="n">
+        <v>629.9333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>633.1833333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>626</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>634</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2302,24 +2743,27 @@
         <v>150</v>
       </c>
       <c r="G54" t="n">
+        <v>629.7333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>633.05</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>626</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>634</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2343,24 +2787,27 @@
         <v>127</v>
       </c>
       <c r="G55" t="n">
+        <v>629.6666666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>632.95</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>626</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>634</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2384,24 +2831,27 @@
         <v>275</v>
       </c>
       <c r="G56" t="n">
+        <v>629.2666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>632.7</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>626</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>634</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2425,24 +2875,27 @@
         <v>50</v>
       </c>
       <c r="G57" t="n">
+        <v>629.4</v>
+      </c>
+      <c r="H57" t="n">
         <v>632.4</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>626</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>634</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2466,24 +2919,27 @@
         <v>775</v>
       </c>
       <c r="G58" t="n">
+        <v>629.6666666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>632.2333333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>626</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>634</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2507,24 +2963,27 @@
         <v>125</v>
       </c>
       <c r="G59" t="n">
+        <v>629.8666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>632.2</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>626</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>634</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,24 +3007,27 @@
         <v>200</v>
       </c>
       <c r="G60" t="n">
+        <v>630.2666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>632.2333333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>626</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>634</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2589,24 +3051,27 @@
         <v>36</v>
       </c>
       <c r="G61" t="n">
+        <v>630.6</v>
+      </c>
+      <c r="H61" t="n">
         <v>632.25</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>626</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>634</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2630,24 +3095,27 @@
         <v>1425</v>
       </c>
       <c r="G62" t="n">
+        <v>631</v>
+      </c>
+      <c r="H62" t="n">
         <v>632.2166666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>626</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>634</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,24 +3139,27 @@
         <v>950</v>
       </c>
       <c r="G63" t="n">
+        <v>631.5333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>632.2333333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>626</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>634</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2712,24 +3183,27 @@
         <v>1458.664</v>
       </c>
       <c r="G64" t="n">
+        <v>632.0666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>632.2333333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>626</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>634</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2753,24 +3227,27 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
+        <v>632.1333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>632.2</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>626</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>634</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,24 +3271,27 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
+        <v>632.4666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>632.2666666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>626</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>634</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2835,24 +3315,27 @@
         <v>72</v>
       </c>
       <c r="G67" t="n">
+        <v>632.2666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>632.25</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>626</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>634</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2876,24 +3359,27 @@
         <v>250</v>
       </c>
       <c r="G68" t="n">
+        <v>632.2666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>632.3166666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>626</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>634</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2917,24 +3403,27 @@
         <v>86.89239999999999</v>
       </c>
       <c r="G69" t="n">
+        <v>632.4</v>
+      </c>
+      <c r="H69" t="n">
         <v>632.3333333333334</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>626</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>634</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2961,21 +3450,24 @@
         <v>632.3333333333334</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>632.3333333333334</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>626</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>634</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2999,24 +3491,27 @@
         <v>300</v>
       </c>
       <c r="G71" t="n">
+        <v>632.6666666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>632.35</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>626</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>634</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3040,24 +3535,27 @@
         <v>125</v>
       </c>
       <c r="G72" t="n">
+        <v>633</v>
+      </c>
+      <c r="H72" t="n">
         <v>632.4</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>626</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>634</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3081,24 +3579,27 @@
         <v>1258</v>
       </c>
       <c r="G73" t="n">
+        <v>633.2666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>632.65</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>626</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>634</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3122,24 +3623,27 @@
         <v>617</v>
       </c>
       <c r="G74" t="n">
+        <v>633.6</v>
+      </c>
+      <c r="H74" t="n">
         <v>632.8833333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>626</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>634</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3163,24 +3667,27 @@
         <v>50</v>
       </c>
       <c r="G75" t="n">
+        <v>633.7333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>633.1</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>626</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>634</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3204,24 +3711,27 @@
         <v>100</v>
       </c>
       <c r="G76" t="n">
+        <v>633.9333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>633.1333333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>626</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>634</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3245,24 +3755,27 @@
         <v>321</v>
       </c>
       <c r="G77" t="n">
+        <v>634.1333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>633.1666666666666</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>626</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>634</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3286,24 +3799,27 @@
         <v>457</v>
       </c>
       <c r="G78" t="n">
+        <v>634.2</v>
+      </c>
+      <c r="H78" t="n">
         <v>633.25</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>626</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>634</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3327,24 +3843,27 @@
         <v>1163</v>
       </c>
       <c r="G79" t="n">
+        <v>634.2666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>633.25</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>626</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>634</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3368,24 +3887,27 @@
         <v>868</v>
       </c>
       <c r="G80" t="n">
+        <v>634.7333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>633.25</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>626</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>634</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3409,24 +3931,27 @@
         <v>375</v>
       </c>
       <c r="G81" t="n">
+        <v>634.7333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>633.1666666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>626</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>634</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3450,24 +3975,27 @@
         <v>375</v>
       </c>
       <c r="G82" t="n">
+        <v>635</v>
+      </c>
+      <c r="H82" t="n">
         <v>633.1166666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>626</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>634</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3491,24 +4019,27 @@
         <v>250</v>
       </c>
       <c r="G83" t="n">
+        <v>635.0666666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>633.05</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>626</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>634</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3532,24 +4063,27 @@
         <v>50</v>
       </c>
       <c r="G84" t="n">
+        <v>635.1333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>632.9666666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>626</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>634</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3573,24 +4107,27 @@
         <v>875</v>
       </c>
       <c r="G85" t="n">
+        <v>635.2</v>
+      </c>
+      <c r="H85" t="n">
         <v>632.95</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>626</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>634</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,24 +4151,27 @@
         <v>200</v>
       </c>
       <c r="G86" t="n">
+        <v>635.2</v>
+      </c>
+      <c r="H86" t="n">
         <v>632.9333333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>626</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>634</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3655,24 +4195,27 @@
         <v>250</v>
       </c>
       <c r="G87" t="n">
+        <v>635.3333333333334</v>
+      </c>
+      <c r="H87" t="n">
         <v>632.9833333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>626</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>634</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3696,24 +4239,27 @@
         <v>651</v>
       </c>
       <c r="G88" t="n">
+        <v>634.8</v>
+      </c>
+      <c r="H88" t="n">
         <v>632.8333333333334</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>626</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>634</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3737,24 +4283,27 @@
         <v>152</v>
       </c>
       <c r="G89" t="n">
+        <v>634.8666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>632.85</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>626</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>634</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3778,24 +4327,27 @@
         <v>45</v>
       </c>
       <c r="G90" t="n">
+        <v>634.9333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>632.9</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>626</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>634</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3819,24 +4371,27 @@
         <v>212</v>
       </c>
       <c r="G91" t="n">
+        <v>634.9333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>632.9166666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>626</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>634</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3860,24 +4415,27 @@
         <v>2</v>
       </c>
       <c r="G92" t="n">
+        <v>635</v>
+      </c>
+      <c r="H92" t="n">
         <v>632.95</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>626</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>634</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3901,24 +4459,27 @@
         <v>477.4614</v>
       </c>
       <c r="G93" t="n">
+        <v>635.0666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>632.9833333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>626</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>634</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3942,24 +4503,27 @@
         <v>31</v>
       </c>
       <c r="G94" t="n">
+        <v>635</v>
+      </c>
+      <c r="H94" t="n">
         <v>632.9833333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>626</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>634</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,24 +4547,27 @@
         <v>260</v>
       </c>
       <c r="G95" t="n">
+        <v>634.9333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>632.9833333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>626</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>634</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4024,24 +4591,27 @@
         <v>283</v>
       </c>
       <c r="G96" t="n">
+        <v>635.0666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>633.0333333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>626</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>634</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4065,24 +4635,27 @@
         <v>339.0229</v>
       </c>
       <c r="G97" t="n">
+        <v>634.7333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>633</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>626</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>634</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,24 +4679,27 @@
         <v>1351.1131</v>
       </c>
       <c r="G98" t="n">
+        <v>634.7333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>633</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>626</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>634</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4147,24 +4723,27 @@
         <v>50</v>
       </c>
       <c r="G99" t="n">
+        <v>634.8</v>
+      </c>
+      <c r="H99" t="n">
         <v>633.0166666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>626</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>634</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4188,24 +4767,27 @@
         <v>175</v>
       </c>
       <c r="G100" t="n">
+        <v>634.8</v>
+      </c>
+      <c r="H100" t="n">
         <v>633</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>626</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>634</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4229,24 +4811,27 @@
         <v>125</v>
       </c>
       <c r="G101" t="n">
+        <v>634.8666666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>633</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>626</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>634</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,24 +4855,27 @@
         <v>522.9729</v>
       </c>
       <c r="G102" t="n">
+        <v>634.4666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>633.05</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>626</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>634</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4311,24 +4899,27 @@
         <v>639.7996000000001</v>
       </c>
       <c r="G103" t="n">
+        <v>634.6</v>
+      </c>
+      <c r="H103" t="n">
         <v>633.0833333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>626</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>634</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,24 +4943,27 @@
         <v>492.2004</v>
       </c>
       <c r="G104" t="n">
+        <v>634.1333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>633.1166666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>626</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>634</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4393,24 +4987,27 @@
         <v>148.2858</v>
       </c>
       <c r="G105" t="n">
+        <v>633.5333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>633.1166666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>626</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>634</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4434,24 +5031,27 @@
         <v>30</v>
       </c>
       <c r="G106" t="n">
+        <v>633</v>
+      </c>
+      <c r="H106" t="n">
         <v>633.1166666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>626</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>634</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4475,24 +5075,27 @@
         <v>461</v>
       </c>
       <c r="G107" t="n">
+        <v>632.5333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>633.1666666666666</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>626</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>634</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4516,24 +5119,27 @@
         <v>7874.3461</v>
       </c>
       <c r="G108" t="n">
+        <v>631.4666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>633.0666666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>626</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>634</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4557,24 +5163,27 @@
         <v>425</v>
       </c>
       <c r="G109" t="n">
+        <v>631.1333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>633.1166666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>626</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>634</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4598,24 +5207,27 @@
         <v>57</v>
       </c>
       <c r="G110" t="n">
+        <v>630.8</v>
+      </c>
+      <c r="H110" t="n">
         <v>633.15</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>626</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>634</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4639,24 +5251,27 @@
         <v>625</v>
       </c>
       <c r="G111" t="n">
+        <v>630.2666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>633.1333333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>626</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>634</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4680,24 +5295,27 @@
         <v>1325</v>
       </c>
       <c r="G112" t="n">
+        <v>630.0666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>633.0166666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>626</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>634</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4721,24 +5339,27 @@
         <v>488</v>
       </c>
       <c r="G113" t="n">
+        <v>629.6</v>
+      </c>
+      <c r="H113" t="n">
         <v>632.9166666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>626</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>634</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4762,24 +5383,27 @@
         <v>815</v>
       </c>
       <c r="G114" t="n">
+        <v>628.8</v>
+      </c>
+      <c r="H114" t="n">
         <v>632.7833333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>626</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>634</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4803,26 +5427,27 @@
         <v>1093</v>
       </c>
       <c r="G115" t="n">
+        <v>628.4</v>
+      </c>
+      <c r="H115" t="n">
         <v>632.6833333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>624</v>
-      </c>
-      <c r="K115" t="n">
-        <v>626</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>634</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,24 +5471,27 @@
         <v>250</v>
       </c>
       <c r="G116" t="n">
+        <v>627.9333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>632.6666666666666</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>626</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>634</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4887,24 +5515,27 @@
         <v>350</v>
       </c>
       <c r="G117" t="n">
+        <v>627.8</v>
+      </c>
+      <c r="H117" t="n">
         <v>632.65</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>626</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>634</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,24 +5559,27 @@
         <v>277</v>
       </c>
       <c r="G118" t="n">
+        <v>627.8</v>
+      </c>
+      <c r="H118" t="n">
         <v>632.6166666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>626</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>634</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4969,24 +5603,27 @@
         <v>850</v>
       </c>
       <c r="G119" t="n">
+        <v>627.8</v>
+      </c>
+      <c r="H119" t="n">
         <v>632.6</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>626</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>634</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5010,24 +5647,27 @@
         <v>1199.0373</v>
       </c>
       <c r="G120" t="n">
+        <v>628.2666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>632.6166666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>626</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>634</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5051,24 +5691,27 @@
         <v>300</v>
       </c>
       <c r="G121" t="n">
+        <v>628.7333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>632.65</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>626</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>634</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5092,24 +5735,27 @@
         <v>175</v>
       </c>
       <c r="G122" t="n">
+        <v>629.2</v>
+      </c>
+      <c r="H122" t="n">
         <v>632.7166666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>626</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>634</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5133,24 +5779,27 @@
         <v>1160.0646</v>
       </c>
       <c r="G123" t="n">
+        <v>629.6</v>
+      </c>
+      <c r="H123" t="n">
         <v>632.5833333333334</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>626</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>634</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5174,24 +5823,27 @@
         <v>3542.0989</v>
       </c>
       <c r="G124" t="n">
+        <v>629.4666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>632.4666666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>626</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>634</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5215,24 +5867,27 @@
         <v>772</v>
       </c>
       <c r="G125" t="n">
+        <v>629.3333333333334</v>
+      </c>
+      <c r="H125" t="n">
         <v>632.45</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>626</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>634</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5256,24 +5911,27 @@
         <v>125</v>
       </c>
       <c r="G126" t="n">
+        <v>629.2666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>632.3333333333334</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>626</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>634</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5297,24 +5955,27 @@
         <v>157</v>
       </c>
       <c r="G127" t="n">
+        <v>629.2</v>
+      </c>
+      <c r="H127" t="n">
         <v>632.25</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>626</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>634</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5338,24 +5999,27 @@
         <v>164</v>
       </c>
       <c r="G128" t="n">
+        <v>629.5333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>632.2333333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>626</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>634</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5379,24 +6043,27 @@
         <v>175</v>
       </c>
       <c r="G129" t="n">
+        <v>630.1333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>632.2166666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>626</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>634</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5420,24 +6087,27 @@
         <v>225</v>
       </c>
       <c r="G130" t="n">
+        <v>630.2666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>632.1666666666666</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>626</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>634</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5461,24 +6131,27 @@
         <v>117</v>
       </c>
       <c r="G131" t="n">
+        <v>630.1333333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>632.0333333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>626</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>634</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5502,24 +6175,27 @@
         <v>2639</v>
       </c>
       <c r="G132" t="n">
+        <v>630</v>
+      </c>
+      <c r="H132" t="n">
         <v>631.9</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>626</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>634</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5543,24 +6219,27 @@
         <v>500</v>
       </c>
       <c r="G133" t="n">
+        <v>629.8666666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>631.7666666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>626</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>634</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5584,24 +6263,27 @@
         <v>175</v>
       </c>
       <c r="G134" t="n">
+        <v>629.7333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>631.6333333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>626</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>634</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5625,24 +6307,27 @@
         <v>425</v>
       </c>
       <c r="G135" t="n">
+        <v>629.2666666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>631.5</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>626</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>634</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5666,24 +6351,27 @@
         <v>750</v>
       </c>
       <c r="G136" t="n">
+        <v>628.8</v>
+      </c>
+      <c r="H136" t="n">
         <v>631.3666666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>626</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>634</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5707,24 +6395,27 @@
         <v>250</v>
       </c>
       <c r="G137" t="n">
+        <v>628.2</v>
+      </c>
+      <c r="H137" t="n">
         <v>631.2333333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>626</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>634</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5748,24 +6439,27 @@
         <v>1</v>
       </c>
       <c r="G138" t="n">
+        <v>628.6666666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>631.2</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>626</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>634</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5789,24 +6483,27 @@
         <v>11.7305</v>
       </c>
       <c r="G139" t="n">
+        <v>629.0666666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>631.1666666666666</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>626</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>634</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5830,24 +6527,27 @@
         <v>2727.9999</v>
       </c>
       <c r="G140" t="n">
+        <v>629.4666666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>631.1333333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>626</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>634</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5871,24 +6571,27 @@
         <v>50</v>
       </c>
       <c r="G141" t="n">
+        <v>629.8</v>
+      </c>
+      <c r="H141" t="n">
         <v>631.1</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>626</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>634</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5912,24 +6615,27 @@
         <v>3334.4141</v>
       </c>
       <c r="G142" t="n">
+        <v>630.2666666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>631.0666666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>626</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>634</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5953,24 +6659,27 @@
         <v>617.9999</v>
       </c>
       <c r="G143" t="n">
+        <v>630.4</v>
+      </c>
+      <c r="H143" t="n">
         <v>631.0666666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>626</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>634</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5994,24 +6703,27 @@
         <v>315.7491</v>
       </c>
       <c r="G144" t="n">
+        <v>630.6</v>
+      </c>
+      <c r="H144" t="n">
         <v>631.0833333333334</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>626</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>634</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6035,24 +6747,27 @@
         <v>2970</v>
       </c>
       <c r="G145" t="n">
+        <v>631.1333333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>631.15</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>626</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>634</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6076,24 +6791,27 @@
         <v>1716.4854</v>
       </c>
       <c r="G146" t="n">
+        <v>632</v>
+      </c>
+      <c r="H146" t="n">
         <v>631.2333333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>626</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>634</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6117,24 +6835,27 @@
         <v>400</v>
       </c>
       <c r="G147" t="n">
+        <v>632.8666666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>631.2833333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>626</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>634</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6158,24 +6879,27 @@
         <v>1100</v>
       </c>
       <c r="G148" t="n">
+        <v>633.7333333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>631.5</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>626</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>634</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6199,24 +6923,27 @@
         <v>450</v>
       </c>
       <c r="G149" t="n">
+        <v>634.6</v>
+      </c>
+      <c r="H149" t="n">
         <v>631.5666666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>626</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>634</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6240,24 +6967,27 @@
         <v>650</v>
       </c>
       <c r="G150" t="n">
+        <v>635.4666666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>631.6333333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>626</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>634</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6281,24 +7011,27 @@
         <v>5416.3279</v>
       </c>
       <c r="G151" t="n">
+        <v>636.4666666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>631.75</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>626</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>634</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6322,24 +7055,27 @@
         <v>8811.0648</v>
       </c>
       <c r="G152" t="n">
+        <v>637.4666666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>631.85</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>626</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>634</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,24 +7099,27 @@
         <v>1115.9681</v>
       </c>
       <c r="G153" t="n">
+        <v>638.0666666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>631.95</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>626</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>634</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6404,24 +7143,27 @@
         <v>378.8842</v>
       </c>
       <c r="G154" t="n">
+        <v>638.7333333333333</v>
+      </c>
+      <c r="H154" t="n">
         <v>632.1</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>626</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>634</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6445,24 +7187,27 @@
         <v>110</v>
       </c>
       <c r="G155" t="n">
+        <v>639.4</v>
+      </c>
+      <c r="H155" t="n">
         <v>632.25</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>626</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>634</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6486,24 +7231,27 @@
         <v>7</v>
       </c>
       <c r="G156" t="n">
+        <v>640.0666666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>632.35</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>626</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>634</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6527,24 +7275,27 @@
         <v>2</v>
       </c>
       <c r="G157" t="n">
+        <v>640.6</v>
+      </c>
+      <c r="H157" t="n">
         <v>632.5333333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>626</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>634</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,24 +7319,27 @@
         <v>577</v>
       </c>
       <c r="G158" t="n">
+        <v>641.2</v>
+      </c>
+      <c r="H158" t="n">
         <v>632.6833333333333</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>626</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>634</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6609,24 +7363,27 @@
         <v>1378.3217</v>
       </c>
       <c r="G159" t="n">
+        <v>642</v>
+      </c>
+      <c r="H159" t="n">
         <v>632.8833333333333</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>626</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>634</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6650,24 +7407,27 @@
         <v>1730.9303</v>
       </c>
       <c r="G160" t="n">
+        <v>642.6666666666666</v>
+      </c>
+      <c r="H160" t="n">
         <v>633.1166666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>626</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>634</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6691,24 +7451,27 @@
         <v>504</v>
       </c>
       <c r="G161" t="n">
+        <v>644</v>
+      </c>
+      <c r="H161" t="n">
         <v>633.5166666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>626</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>634</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6732,24 +7495,27 @@
         <v>1630</v>
       </c>
       <c r="G162" t="n">
+        <v>645.4666666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>634.0333333333333</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>626</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>634</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6773,25 +7539,28 @@
         <v>1543.3233</v>
       </c>
       <c r="G163" t="n">
+        <v>647.2666666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>634.6666666666666</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>626</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1.060495207667732</v>
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>634</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -6814,18 +7583,27 @@
         <v>4387.4959</v>
       </c>
       <c r="G164" t="n">
+        <v>649</v>
+      </c>
+      <c r="H164" t="n">
         <v>635.2833333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>634</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6849,18 +7627,27 @@
         <v>576.0238000000001</v>
       </c>
       <c r="G165" t="n">
+        <v>650.7333333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>635.9333333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
-        <v>1</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>634</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6884,18 +7671,27 @@
         <v>2334.7073</v>
       </c>
       <c r="G166" t="n">
+        <v>651.8666666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>636.4666666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
-        <v>1</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>634</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6919,18 +7715,27 @@
         <v>234.0165</v>
       </c>
       <c r="G167" t="n">
+        <v>653</v>
+      </c>
+      <c r="H167" t="n">
         <v>636.9666666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>634</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6954,18 +7759,27 @@
         <v>50</v>
       </c>
       <c r="G168" t="n">
+        <v>653.7333333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>637.5166666666667</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>634</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6989,18 +7803,27 @@
         <v>100</v>
       </c>
       <c r="G169" t="n">
+        <v>654.8</v>
+      </c>
+      <c r="H169" t="n">
         <v>638.0166666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>634</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7024,18 +7847,27 @@
         <v>198.0274</v>
       </c>
       <c r="G170" t="n">
+        <v>655.8666666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>638.5166666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>634</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7059,18 +7891,27 @@
         <v>798.6244</v>
       </c>
       <c r="G171" t="n">
+        <v>656.5333333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>638.9166666666666</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>634</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7094,18 +7935,27 @@
         <v>570</v>
       </c>
       <c r="G172" t="n">
+        <v>657.4</v>
+      </c>
+      <c r="H172" t="n">
         <v>639.3666666666667</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>634</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,18 +7979,27 @@
         <v>6.5059</v>
       </c>
       <c r="G173" t="n">
+        <v>657.9333333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>639.7666666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>634</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7164,18 +8023,27 @@
         <v>282.072</v>
       </c>
       <c r="G174" t="n">
+        <v>658.2</v>
+      </c>
+      <c r="H174" t="n">
         <v>640.2333333333333</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>634</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7199,18 +8067,27 @@
         <v>96.07089999999999</v>
       </c>
       <c r="G175" t="n">
+        <v>658.0666666666667</v>
+      </c>
+      <c r="H175" t="n">
         <v>640.5333333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>634</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7234,18 +8111,27 @@
         <v>96.071</v>
       </c>
       <c r="G176" t="n">
+        <v>657.6666666666666</v>
+      </c>
+      <c r="H176" t="n">
         <v>640.95</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>634</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7269,18 +8155,27 @@
         <v>714.9651</v>
       </c>
       <c r="G177" t="n">
+        <v>656.7333333333333</v>
+      </c>
+      <c r="H177" t="n">
         <v>641.2666666666667</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>634</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7304,18 +8199,27 @@
         <v>215.6807</v>
       </c>
       <c r="G178" t="n">
+        <v>655.8666666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>641.6833333333333</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>634</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7339,18 +8243,27 @@
         <v>294.4416</v>
       </c>
       <c r="G179" t="n">
+        <v>655.0666666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>642.1</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>634</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7374,18 +8287,27 @@
         <v>338.8074</v>
       </c>
       <c r="G180" t="n">
+        <v>654.0666666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>642.3833333333333</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>634</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7409,18 +8331,27 @@
         <v>176.1578</v>
       </c>
       <c r="G181" t="n">
+        <v>653.5333333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>642.6666666666666</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>634</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7444,18 +8375,27 @@
         <v>1716.4854</v>
       </c>
       <c r="G182" t="n">
+        <v>652.4666666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>642.7833333333333</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="L182" t="n">
+        <v>634</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7479,18 +8419,27 @@
         <v>1252.1572</v>
       </c>
       <c r="G183" t="n">
+        <v>652.5333333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>643.25</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>634</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7514,18 +8463,27 @@
         <v>1786.0409</v>
       </c>
       <c r="G184" t="n">
+        <v>652.4666666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>643.7666666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>634</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7549,18 +8507,27 @@
         <v>390</v>
       </c>
       <c r="G185" t="n">
+        <v>652.4</v>
+      </c>
+      <c r="H185" t="n">
         <v>644.2833333333333</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>634</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7584,18 +8551,27 @@
         <v>563</v>
       </c>
       <c r="G186" t="n">
+        <v>652.7333333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>644.7833333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="L186" t="n">
+        <v>634</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7619,18 +8595,27 @@
         <v>6665.28</v>
       </c>
       <c r="G187" t="n">
+        <v>653.6666666666666</v>
+      </c>
+      <c r="H187" t="n">
         <v>645.4833333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="L187" t="n">
+        <v>634</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7654,18 +8639,27 @@
         <v>494.2743</v>
       </c>
       <c r="G188" t="n">
+        <v>654.8</v>
+      </c>
+      <c r="H188" t="n">
         <v>646.0833333333334</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>634</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7689,18 +8683,27 @@
         <v>8.6409</v>
       </c>
       <c r="G189" t="n">
+        <v>656</v>
+      </c>
+      <c r="H189" t="n">
         <v>646.7</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>634</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7724,18 +8727,27 @@
         <v>30.6908</v>
       </c>
       <c r="G190" t="n">
+        <v>657.5333333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>647.35</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>634</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7759,18 +8771,27 @@
         <v>131.2653</v>
       </c>
       <c r="G191" t="n">
+        <v>658.6</v>
+      </c>
+      <c r="H191" t="n">
         <v>648.0666666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="L191" t="n">
+        <v>634</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7794,18 +8815,27 @@
         <v>808.7175</v>
       </c>
       <c r="G192" t="n">
+        <v>659.8666666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>648.7333333333333</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>634</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7829,18 +8859,27 @@
         <v>138.0141</v>
       </c>
       <c r="G193" t="n">
+        <v>660.4666666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>649.3333333333334</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>634</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7864,18 +8903,27 @@
         <v>1542.8185</v>
       </c>
       <c r="G194" t="n">
+        <v>660.7333333333333</v>
+      </c>
+      <c r="H194" t="n">
         <v>649.85</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="L194" t="n">
+        <v>634</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7899,18 +8947,27 @@
         <v>1000</v>
       </c>
       <c r="G195" t="n">
+        <v>661.4666666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>650.4333333333333</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="L195" t="n">
+        <v>634</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7934,18 +8991,27 @@
         <v>700</v>
       </c>
       <c r="G196" t="n">
+        <v>662.3333333333334</v>
+      </c>
+      <c r="H196" t="n">
         <v>651.05</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="L196" t="n">
+        <v>634</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7969,18 +9035,27 @@
         <v>950</v>
       </c>
       <c r="G197" t="n">
+        <v>663.7333333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>651.6666666666666</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="L197" t="n">
+        <v>634</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8004,18 +9079,27 @@
         <v>547.1336</v>
       </c>
       <c r="G198" t="n">
+        <v>664.2666666666667</v>
+      </c>
+      <c r="H198" t="n">
         <v>652.15</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="L198" t="n">
+        <v>634</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8039,18 +9123,27 @@
         <v>452.8664</v>
       </c>
       <c r="G199" t="n">
+        <v>664.5333333333333</v>
+      </c>
+      <c r="H199" t="n">
         <v>652.6333333333333</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="L199" t="n">
+        <v>634</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8074,18 +9167,27 @@
         <v>3362.489</v>
       </c>
       <c r="G200" t="n">
+        <v>665.2</v>
+      </c>
+      <c r="H200" t="n">
         <v>653.2166666666667</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="L200" t="n">
+        <v>634</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8109,18 +9211,27 @@
         <v>6.657</v>
       </c>
       <c r="G201" t="n">
+        <v>666.0666666666667</v>
+      </c>
+      <c r="H201" t="n">
         <v>653.85</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>634</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8144,18 +9255,27 @@
         <v>389.943</v>
       </c>
       <c r="G202" t="n">
+        <v>666.1333333333333</v>
+      </c>
+      <c r="H202" t="n">
         <v>654.45</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>634</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8179,18 +9299,27 @@
         <v>846.8163</v>
       </c>
       <c r="G203" t="n">
+        <v>666.3333333333334</v>
+      </c>
+      <c r="H203" t="n">
         <v>655.0666666666667</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>634</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8214,18 +9343,27 @@
         <v>589.8575</v>
       </c>
       <c r="G204" t="n">
+        <v>666.5333333333333</v>
+      </c>
+      <c r="H204" t="n">
         <v>655.6833333333333</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>634</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8249,18 +9387,27 @@
         <v>1920</v>
       </c>
       <c r="G205" t="n">
+        <v>666.4</v>
+      </c>
+      <c r="H205" t="n">
         <v>656.1666666666666</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="L205" t="n">
+        <v>634</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8284,18 +9431,27 @@
         <v>728</v>
       </c>
       <c r="G206" t="n">
+        <v>666.6</v>
+      </c>
+      <c r="H206" t="n">
         <v>656.7166666666667</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="L206" t="n">
+        <v>634</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8319,18 +9475,27 @@
         <v>7122.85335784</v>
       </c>
       <c r="G207" t="n">
+        <v>667.7333333333333</v>
+      </c>
+      <c r="H207" t="n">
         <v>657.45</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="L207" t="n">
+        <v>634</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8354,18 +9519,27 @@
         <v>100</v>
       </c>
       <c r="G208" t="n">
+        <v>669.1333333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>658.1833333333333</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="L208" t="n">
+        <v>634</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8389,18 +9563,27 @@
         <v>23574.0854</v>
       </c>
       <c r="G209" t="n">
+        <v>670.9333333333333</v>
+      </c>
+      <c r="H209" t="n">
         <v>658.9333333333333</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="L209" t="n">
+        <v>634</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8424,18 +9607,27 @@
         <v>20883.25808656</v>
       </c>
       <c r="G210" t="n">
+        <v>672.6</v>
+      </c>
+      <c r="H210" t="n">
         <v>659.7166666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="L210" t="n">
+        <v>634</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8459,18 +9651,27 @@
         <v>7235.93912612</v>
       </c>
       <c r="G211" t="n">
+        <v>674.4</v>
+      </c>
+      <c r="H211" t="n">
         <v>660.5333333333333</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="L211" t="n">
+        <v>634</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8494,18 +9695,27 @@
         <v>953.91500172</v>
       </c>
       <c r="G212" t="n">
+        <v>676.5333333333333</v>
+      </c>
+      <c r="H212" t="n">
         <v>661.4333333333333</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="L212" t="n">
+        <v>634</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8529,18 +9739,27 @@
         <v>1126.0502</v>
       </c>
       <c r="G213" t="n">
+        <v>678.9333333333333</v>
+      </c>
+      <c r="H213" t="n">
         <v>662.3666666666667</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="L213" t="n">
+        <v>634</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8564,18 +9783,27 @@
         <v>1628.7317</v>
       </c>
       <c r="G214" t="n">
+        <v>681.3333333333334</v>
+      </c>
+      <c r="H214" t="n">
         <v>663.2833333333333</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="L214" t="n">
+        <v>634</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8599,18 +9827,27 @@
         <v>3369.4269</v>
       </c>
       <c r="G215" t="n">
+        <v>682.8</v>
+      </c>
+      <c r="H215" t="n">
         <v>664.0666666666667</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="L215" t="n">
+        <v>634</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8634,18 +9871,27 @@
         <v>1.4003</v>
       </c>
       <c r="G216" t="n">
+        <v>684.6</v>
+      </c>
+      <c r="H216" t="n">
         <v>664.9833333333333</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="L216" t="n">
+        <v>634</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8669,18 +9915,27 @@
         <v>5072.7539</v>
       </c>
       <c r="G217" t="n">
+        <v>685.8666666666667</v>
+      </c>
+      <c r="H217" t="n">
         <v>665.7666666666667</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="L217" t="n">
+        <v>634</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8704,18 +9959,27 @@
         <v>7884.275</v>
       </c>
       <c r="G218" t="n">
+        <v>687.2666666666667</v>
+      </c>
+      <c r="H218" t="n">
         <v>666.5833333333334</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="L218" t="n">
+        <v>634</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8739,18 +10003,27 @@
         <v>274.2432</v>
       </c>
       <c r="G219" t="n">
+        <v>688.8</v>
+      </c>
+      <c r="H219" t="n">
         <v>667.3833333333333</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="L219" t="n">
+        <v>634</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8774,18 +10047,27 @@
         <v>2218.5356</v>
       </c>
       <c r="G220" t="n">
+        <v>690.6</v>
+      </c>
+      <c r="H220" t="n">
         <v>668.15</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="L220" t="n">
+        <v>634</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8809,18 +10091,27 @@
         <v>784.2544</v>
       </c>
       <c r="G221" t="n">
+        <v>691.9333333333333</v>
+      </c>
+      <c r="H221" t="n">
         <v>668.7</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="L221" t="n">
+        <v>634</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8844,18 +10135,407 @@
         <v>42.4687</v>
       </c>
       <c r="G222" t="n">
+        <v>692.5333333333333</v>
+      </c>
+      <c r="H222" t="n">
         <v>669.2166666666667</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="L222" t="n">
+        <v>634</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>1.088059936908518</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>693</v>
+      </c>
+      <c r="C223" t="n">
+        <v>694</v>
+      </c>
+      <c r="D223" t="n">
+        <v>694</v>
+      </c>
+      <c r="E223" t="n">
+        <v>693</v>
+      </c>
+      <c r="F223" t="n">
+        <v>2292.073</v>
+      </c>
+      <c r="G223" t="n">
+        <v>693.2</v>
+      </c>
+      <c r="H223" t="n">
+        <v>669.6666666666666</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>695</v>
+      </c>
+      <c r="C224" t="n">
+        <v>695</v>
+      </c>
+      <c r="D224" t="n">
+        <v>695</v>
+      </c>
+      <c r="E224" t="n">
+        <v>695</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2437.1266</v>
+      </c>
+      <c r="G224" t="n">
+        <v>693.8666666666667</v>
+      </c>
+      <c r="H224" t="n">
+        <v>670.15</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>695</v>
+      </c>
+      <c r="C225" t="n">
+        <v>695</v>
+      </c>
+      <c r="D225" t="n">
+        <v>695</v>
+      </c>
+      <c r="E225" t="n">
+        <v>695</v>
+      </c>
+      <c r="F225" t="n">
+        <v>715.4580999999999</v>
+      </c>
+      <c r="G225" t="n">
+        <v>694.4</v>
+      </c>
+      <c r="H225" t="n">
+        <v>670.6333333333333</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>695</v>
+      </c>
+      <c r="C226" t="n">
+        <v>700</v>
+      </c>
+      <c r="D226" t="n">
+        <v>700</v>
+      </c>
+      <c r="E226" t="n">
+        <v>695</v>
+      </c>
+      <c r="F226" t="n">
+        <v>4402.5153</v>
+      </c>
+      <c r="G226" t="n">
+        <v>695</v>
+      </c>
+      <c r="H226" t="n">
+        <v>671.3166666666667</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>699</v>
+      </c>
+      <c r="C227" t="n">
+        <v>697</v>
+      </c>
+      <c r="D227" t="n">
+        <v>700</v>
+      </c>
+      <c r="E227" t="n">
+        <v>697</v>
+      </c>
+      <c r="F227" t="n">
+        <v>665.7117</v>
+      </c>
+      <c r="G227" t="n">
+        <v>695.0666666666667</v>
+      </c>
+      <c r="H227" t="n">
+        <v>671.95</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>701</v>
+      </c>
+      <c r="C228" t="n">
+        <v>696</v>
+      </c>
+      <c r="D228" t="n">
+        <v>701</v>
+      </c>
+      <c r="E228" t="n">
+        <v>696</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1101.5922</v>
+      </c>
+      <c r="G228" t="n">
+        <v>694.9333333333333</v>
+      </c>
+      <c r="H228" t="n">
+        <v>672.6666666666666</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>700</v>
+      </c>
+      <c r="C229" t="n">
+        <v>702</v>
+      </c>
+      <c r="D229" t="n">
+        <v>702</v>
+      </c>
+      <c r="E229" t="n">
+        <v>700</v>
+      </c>
+      <c r="F229" t="n">
+        <v>400.5333</v>
+      </c>
+      <c r="G229" t="n">
+        <v>695.2</v>
+      </c>
+      <c r="H229" t="n">
+        <v>673.3833333333333</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>702</v>
+      </c>
+      <c r="C230" t="n">
+        <v>703</v>
+      </c>
+      <c r="D230" t="n">
+        <v>703</v>
+      </c>
+      <c r="E230" t="n">
+        <v>697</v>
+      </c>
+      <c r="F230" t="n">
+        <v>331.6416</v>
+      </c>
+      <c r="G230" t="n">
+        <v>696.0666666666667</v>
+      </c>
+      <c r="H230" t="n">
+        <v>674.1166666666667</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>697</v>
+      </c>
+      <c r="C231" t="n">
+        <v>697</v>
+      </c>
+      <c r="D231" t="n">
+        <v>697</v>
+      </c>
+      <c r="E231" t="n">
+        <v>697</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1414</v>
+      </c>
+      <c r="G231" t="n">
+        <v>696</v>
+      </c>
+      <c r="H231" t="n">
+        <v>674.85</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>697</v>
+      </c>
+      <c r="C232" t="n">
+        <v>696</v>
+      </c>
+      <c r="D232" t="n">
+        <v>697</v>
+      </c>
+      <c r="E232" t="n">
+        <v>696</v>
+      </c>
+      <c r="F232" t="n">
+        <v>3217.7593</v>
+      </c>
+      <c r="G232" t="n">
+        <v>696.4</v>
+      </c>
+      <c r="H232" t="n">
+        <v>675.5166666666667</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-14 BackTest PPT.xlsx
+++ b/BackTest/2019-11-14 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N290"/>
+  <dimension ref="A1:M290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-7471.148843610002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-7471.148843610002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="J3" t="n">
         <v>610</v>
       </c>
-      <c r="K3" t="n">
-        <v>610</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-7471.148843610002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="J4" t="n">
         <v>610</v>
       </c>
-      <c r="K4" t="n">
-        <v>610</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>-7471.148843610002</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="J5" t="n">
         <v>610</v>
       </c>
-      <c r="K5" t="n">
-        <v>610</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,21 @@
         <v>-7471.148843610002</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
         <v>610</v>
       </c>
-      <c r="K6" t="n">
-        <v>610</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +642,21 @@
         <v>-6778.148843610002</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>610</v>
       </c>
-      <c r="K7" t="n">
-        <v>610</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,26 +681,23 @@
         <v>-3315.148843610002</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="J8" t="n">
-        <v>612</v>
-      </c>
-      <c r="K8" t="n">
-        <v>610</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>610</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,26 +722,23 @@
         <v>-3315.148843610002</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="J9" t="n">
-        <v>613</v>
-      </c>
-      <c r="K9" t="n">
-        <v>610</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>610</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -796,26 +763,23 @@
         <v>-3315.148843610002</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="J10" t="n">
-        <v>613</v>
-      </c>
-      <c r="K10" t="n">
-        <v>610</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>610</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -840,26 +804,23 @@
         <v>-3216.448843610002</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="J11" t="n">
-        <v>613</v>
-      </c>
-      <c r="K11" t="n">
-        <v>610</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>610</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -884,26 +845,23 @@
         <v>-3463.548843610002</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="J12" t="n">
-        <v>614</v>
-      </c>
-      <c r="K12" t="n">
-        <v>610</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>610</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -928,26 +886,23 @@
         <v>-3269.448843610002</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="J13" t="n">
-        <v>613</v>
-      </c>
-      <c r="K13" t="n">
-        <v>610</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>610</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -972,26 +927,23 @@
         <v>-4925.735943610001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="J14" t="n">
-        <v>614</v>
-      </c>
-      <c r="K14" t="n">
-        <v>610</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>610</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1016,26 +968,23 @@
         <v>-4925.735943610001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="J15" t="n">
-        <v>613</v>
-      </c>
-      <c r="K15" t="n">
-        <v>610</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>610</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1060,26 +1009,23 @@
         <v>-4925.735943610001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="J16" t="n">
-        <v>613</v>
-      </c>
-      <c r="K16" t="n">
-        <v>610</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>610</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1104,26 +1050,23 @@
         <v>-4925.735943610001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="J17" t="n">
-        <v>613</v>
-      </c>
-      <c r="K17" t="n">
-        <v>610</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>610</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1148,26 +1091,23 @@
         <v>-3296.735943610001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="J18" t="n">
-        <v>613</v>
-      </c>
-      <c r="K18" t="n">
-        <v>610</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>610</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1192,26 +1132,23 @@
         <v>-3296.735943610001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="J19" t="n">
-        <v>614</v>
-      </c>
-      <c r="K19" t="n">
-        <v>610</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>610</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1236,26 +1173,23 @@
         <v>683.7799563899985</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="J20" t="n">
-        <v>614</v>
-      </c>
-      <c r="K20" t="n">
-        <v>610</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>610</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1280,26 +1214,23 @@
         <v>5944.731456389998</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="J21" t="n">
-        <v>615</v>
-      </c>
-      <c r="K21" t="n">
-        <v>610</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>610</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1324,26 +1255,23 @@
         <v>6476.812599999998</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="J22" t="n">
-        <v>619</v>
-      </c>
-      <c r="K22" t="n">
-        <v>610</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>610</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1368,24 +1296,23 @@
         <v>6476.812599999998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>610</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>625</v>
+      </c>
+      <c r="J23" t="n">
+        <v>610</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1410,24 +1337,23 @@
         <v>6476.812599999998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>610</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>625</v>
+      </c>
+      <c r="J24" t="n">
+        <v>610</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1452,24 +1378,23 @@
         <v>6476.812599999998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>610</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>625</v>
+      </c>
+      <c r="J25" t="n">
+        <v>610</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1494,24 +1419,23 @@
         <v>6674.812599999998</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>610</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>625</v>
+      </c>
+      <c r="J26" t="n">
+        <v>610</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1536,24 +1460,23 @@
         <v>6019.812599999998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>610</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>626</v>
+      </c>
+      <c r="J27" t="n">
+        <v>610</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1578,24 +1501,23 @@
         <v>4018.842899999998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>610</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>625</v>
+      </c>
+      <c r="J28" t="n">
+        <v>610</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1620,24 +1542,23 @@
         <v>4226.042899999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>610</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>620</v>
+      </c>
+      <c r="J29" t="n">
+        <v>610</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1662,24 +1583,23 @@
         <v>4226.042899999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>610</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>624</v>
+      </c>
+      <c r="J30" t="n">
+        <v>610</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1704,24 +1624,23 @@
         <v>4226.042899999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>610</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>624</v>
+      </c>
+      <c r="J31" t="n">
+        <v>610</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1746,24 +1665,23 @@
         <v>4226.042899999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>610</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>624</v>
+      </c>
+      <c r="J32" t="n">
+        <v>610</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1788,24 +1706,23 @@
         <v>4226.042899999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>610</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>624</v>
+      </c>
+      <c r="J33" t="n">
+        <v>610</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1830,24 +1747,23 @@
         <v>4226.042899999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>610</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>624</v>
+      </c>
+      <c r="J34" t="n">
+        <v>610</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1872,24 +1788,23 @@
         <v>-119.0569000000014</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>610</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>624</v>
+      </c>
+      <c r="J35" t="n">
+        <v>610</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1914,24 +1829,23 @@
         <v>-119.0569000000014</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>610</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>622</v>
+      </c>
+      <c r="J36" t="n">
+        <v>610</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1956,24 +1870,23 @@
         <v>-724.9400000000014</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>610</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>622</v>
+      </c>
+      <c r="J37" t="n">
+        <v>610</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2000,22 +1913,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>610</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>610</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2040,24 +1950,23 @@
         <v>-630.7400000000014</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>610</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>624</v>
+      </c>
+      <c r="J39" t="n">
+        <v>610</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2082,24 +1991,23 @@
         <v>-629.7400000000014</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>610</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>624</v>
+      </c>
+      <c r="J40" t="n">
+        <v>610</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2124,24 +2032,23 @@
         <v>-629.7400000000014</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>610</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>626</v>
+      </c>
+      <c r="J41" t="n">
+        <v>610</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2168,22 +2075,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>610</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>610</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2210,22 +2114,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>610</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>610</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2252,22 +2153,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>610</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>610</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2294,22 +2192,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>610</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>610</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2336,22 +2231,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>610</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>610</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2378,22 +2270,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>610</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>610</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2420,22 +2309,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>610</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>610</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2462,22 +2348,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>610</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>610</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2504,22 +2387,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>610</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>610</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2546,22 +2426,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>610</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>610</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2588,22 +2465,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>610</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>610</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2630,22 +2504,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>610</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>610</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2672,22 +2543,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>610</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>610</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2714,22 +2582,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>610</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>610</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2756,22 +2621,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>610</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>610</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2798,22 +2660,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>610</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>610</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2840,22 +2699,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>610</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>610</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2882,22 +2738,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>610</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>610</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2924,22 +2777,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>610</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>610</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2966,22 +2816,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>610</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>610</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3008,22 +2855,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>610</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>610</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3050,22 +2894,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>610</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>610</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3092,22 +2933,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>610</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>610</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3134,22 +2972,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>610</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>610</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3176,22 +3011,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>610</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>610</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3218,22 +3050,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>610</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>610</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3260,22 +3089,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>610</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>610</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3302,22 +3128,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>610</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>610</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3344,22 +3167,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>610</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>610</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3386,22 +3206,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>610</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>610</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3428,22 +3245,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>610</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>610</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3470,22 +3284,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>610</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>610</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3512,22 +3323,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>610</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>610</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3554,22 +3362,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>610</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>610</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3596,22 +3401,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>610</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>610</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3638,22 +3440,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>610</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>610</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3680,22 +3479,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>610</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>610</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3722,22 +3518,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>610</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>610</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3764,22 +3557,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>610</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>610</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3806,22 +3596,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>610</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>610</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3848,22 +3635,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>610</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>610</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3890,22 +3674,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>610</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>610</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3932,22 +3713,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>610</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>610</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3974,22 +3752,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>610</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>610</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4016,22 +3791,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>610</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>610</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4058,22 +3830,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>610</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>610</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4100,22 +3869,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>610</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>610</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4142,22 +3908,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>610</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>610</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4184,22 +3947,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>610</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>610</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4226,22 +3986,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>610</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>610</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4268,22 +4025,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>610</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>610</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4310,22 +4064,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>610</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>610</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4352,22 +4103,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>610</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>610</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4394,22 +4142,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>610</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>610</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4436,22 +4181,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>610</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>610</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4478,22 +4220,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>610</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>610</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4520,22 +4259,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>610</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>610</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4562,22 +4298,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>610</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>610</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4604,22 +4337,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>610</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>610</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4646,22 +4376,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>610</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>610</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4688,22 +4415,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>610</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>610</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4730,22 +4454,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>610</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>610</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4772,22 +4493,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>610</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>610</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4814,22 +4532,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>610</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>610</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4856,22 +4571,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>610</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>610</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4898,22 +4610,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>610</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>610</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4940,22 +4649,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>610</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>610</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4982,22 +4688,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>610</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>610</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5024,22 +4727,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>610</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>610</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5066,22 +4766,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>610</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>610</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5108,22 +4805,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>610</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>610</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5150,22 +4844,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>610</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>610</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5192,22 +4883,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>610</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>610</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5234,22 +4922,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>610</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>610</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5276,22 +4961,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>610</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>610</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5318,22 +5000,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>610</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>610</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5360,22 +5039,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>610</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>610</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5402,22 +5078,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>610</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>610</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5444,22 +5117,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>610</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>610</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5486,22 +5156,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>610</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>610</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5528,22 +5195,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>610</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>610</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5570,22 +5234,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>610</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>610</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5612,22 +5273,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>610</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>610</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5654,22 +5312,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>610</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>610</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5696,22 +5351,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>610</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>610</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5738,22 +5390,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>610</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>610</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5780,22 +5429,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>610</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>610</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5822,22 +5468,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>610</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>610</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5864,22 +5507,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>610</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>610</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5906,22 +5546,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>610</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>610</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5948,22 +5585,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>610</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>610</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5990,22 +5624,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>610</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>610</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6032,22 +5663,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>610</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>610</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6074,22 +5702,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>610</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>610</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6116,22 +5741,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>610</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>610</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6158,22 +5780,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>610</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>610</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6200,22 +5819,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>610</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>610</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6242,22 +5858,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>610</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>610</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6284,22 +5897,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>610</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>610</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6326,22 +5936,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>610</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>610</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6368,22 +5975,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>610</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>610</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6410,22 +6014,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>610</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>610</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6452,22 +6053,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>610</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>610</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6494,22 +6092,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>610</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>610</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6536,22 +6131,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>610</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>610</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6578,22 +6170,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>610</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>610</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6620,22 +6209,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>610</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>610</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6662,22 +6248,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>610</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>610</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6704,22 +6287,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>610</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>610</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6746,22 +6326,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>610</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>610</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6788,22 +6365,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>610</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>610</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6830,22 +6404,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>610</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>610</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6870,24 +6441,21 @@
         <v>45699.0068</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>610</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>610</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1.039262295081967</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6914,22 +6482,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>610</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6956,22 +6515,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>610</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6996,24 +6546,15 @@
         <v>46711.09699999999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>610</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7038,24 +6579,15 @@
         <v>46536.09699999999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>610</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7082,22 +6614,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>610</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7124,22 +6647,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>610</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7164,24 +6678,15 @@
         <v>45498.3245</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>610</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7208,22 +6713,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>610</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7250,22 +6746,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>610</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7292,22 +6779,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>610</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7334,22 +6812,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>610</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7376,22 +6845,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>610</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7418,22 +6878,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>610</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7460,22 +6911,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>610</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7502,22 +6944,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>610</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7544,22 +6977,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>610</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7586,22 +7010,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>610</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7628,22 +7043,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>610</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7670,22 +7076,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>610</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7712,22 +7109,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>610</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7754,22 +7142,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>610</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7796,22 +7175,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>610</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7838,22 +7208,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>610</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7880,22 +7241,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>610</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7922,22 +7274,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>610</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7964,22 +7307,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>610</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -8006,22 +7340,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>610</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -8048,22 +7373,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>610</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -8090,22 +7406,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>610</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -8132,22 +7439,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>610</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -8174,22 +7472,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>610</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -8216,22 +7505,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>610</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8258,22 +7538,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>610</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8300,22 +7571,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>610</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8342,22 +7604,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>610</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8384,22 +7637,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>610</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8426,22 +7670,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>610</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8468,22 +7703,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>610</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8510,22 +7736,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>610</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8552,22 +7769,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>610</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8594,22 +7802,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>610</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8636,22 +7835,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>610</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8678,22 +7868,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>610</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8720,22 +7901,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>610</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8762,22 +7934,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>610</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8804,22 +7967,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>610</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8846,22 +8000,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>610</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8888,22 +8033,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>610</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8930,22 +8066,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>610</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8972,22 +8099,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>610</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -9014,22 +8132,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>610</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -9056,22 +8165,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>610</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -9098,22 +8198,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>610</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -9140,22 +8231,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>610</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -9182,22 +8264,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>610</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -9224,22 +8297,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>610</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -9266,22 +8330,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>610</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -9308,22 +8363,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>610</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -9350,22 +8396,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>610</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9390,24 +8427,15 @@
         <v>56602.87569999999</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>610</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9434,22 +8462,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>610</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9476,22 +8495,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>610</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9518,22 +8528,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>610</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9560,22 +8561,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>610</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9602,22 +8594,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>610</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9642,24 +8625,15 @@
         <v>62423.12769999999</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>610</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9684,24 +8658,15 @@
         <v>63966.45099999999</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>610</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9726,24 +8691,15 @@
         <v>59578.95509999998</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>610</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9768,24 +8724,15 @@
         <v>59578.95509999998</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>610</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9810,24 +8757,15 @@
         <v>57244.24779999998</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>610</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9852,24 +8790,15 @@
         <v>57244.24779999998</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>610</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9894,24 +8823,15 @@
         <v>57194.24779999998</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>610</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9938,22 +8858,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>610</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9978,24 +8889,15 @@
         <v>57294.24779999998</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>610</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -10020,24 +8922,15 @@
         <v>56495.62339999998</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>610</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -10062,24 +8955,15 @@
         <v>57065.62339999998</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>610</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -10104,24 +8988,15 @@
         <v>57059.11749999999</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>610</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -10146,24 +9021,15 @@
         <v>56777.04549999999</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>610</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -10190,22 +9056,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>610</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -10230,24 +9087,15 @@
         <v>56777.04559999999</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>610</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -10272,24 +9120,15 @@
         <v>56062.08049999999</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>610</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -10314,24 +9153,15 @@
         <v>56277.76119999999</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>610</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -10356,24 +9186,15 @@
         <v>56277.76119999999</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>610</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -10398,24 +9219,15 @@
         <v>55938.95379999999</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>610</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -10442,22 +9254,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>610</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10482,24 +9285,15 @@
         <v>54222.46839999999</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>610</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -10524,24 +9318,15 @@
         <v>55474.62559999999</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>610</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -10566,24 +9351,15 @@
         <v>57260.66649999999</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>610</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10608,24 +9384,15 @@
         <v>57260.66649999999</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>610</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10650,24 +9417,15 @@
         <v>57260.66649999999</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>610</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10694,22 +9452,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>610</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10734,24 +9483,15 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>610</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10776,24 +9516,15 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>610</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10818,24 +9549,15 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>610</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10862,22 +9584,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>610</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10904,22 +9617,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>610</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10946,22 +9650,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>610</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10988,22 +9683,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>610</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -11030,22 +9716,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>610</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -11072,22 +9749,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>610</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -11114,22 +9782,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>610</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -11156,22 +9815,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>610</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -11198,22 +9848,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>610</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -11240,22 +9881,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>610</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -11282,22 +9914,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>610</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -11324,22 +9947,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>610</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -11366,22 +9980,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>610</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -11408,22 +10013,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>610</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -11448,24 +10044,15 @@
         <v>64885.2251</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>610</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -11492,22 +10079,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>610</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -11532,24 +10110,15 @@
         <v>72736.07845783999</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>610</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -11574,24 +10143,15 @@
         <v>72736.07845783999</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>610</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -11616,24 +10176,15 @@
         <v>96310.16385783999</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>610</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -11658,24 +10209,15 @@
         <v>117193.4219444</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>610</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -11700,26 +10242,15 @@
         <v>124429.36107052</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>610</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
-        <v>1.127786885245902</v>
-      </c>
-      <c r="N269" t="n">
-        <v>1</v>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -11744,18 +10275,15 @@
         <v>125383.27607224</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -11780,18 +10308,15 @@
         <v>126509.32627224</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -11816,18 +10341,15 @@
         <v>126509.32627224</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -11852,18 +10374,15 @@
         <v>123139.89937224</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11888,18 +10407,15 @@
         <v>123141.29967224</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11924,18 +10440,15 @@
         <v>118068.54577224</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11960,18 +10473,15 @@
         <v>125952.82077224</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11996,18 +10506,15 @@
         <v>126227.06397224</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -12034,16 +10541,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>1</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -12070,16 +10574,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>1</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -12106,16 +10607,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>1</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -12142,16 +10640,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>1</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -12178,16 +10673,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>1</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -12214,16 +10706,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>1</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -12250,16 +10739,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>1</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -12284,18 +10770,15 @@
         <v>131690.27717224</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -12320,18 +10803,15 @@
         <v>130588.68497224</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -12356,18 +10836,15 @@
         <v>130989.21827224</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -12392,18 +10869,15 @@
         <v>131320.85987224</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -12428,18 +10902,15 @@
         <v>129906.85987224</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -12464,20 +10935,17 @@
         <v>126689.10057224</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-14 BackTest PPT.xlsx
+++ b/BackTest/2019-11-14 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-7471.148843610002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-7471.148843610002</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>610</v>
@@ -521,7 +521,7 @@
         <v>-7471.148843610002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>610</v>
@@ -562,7 +562,7 @@
         <v>-7471.148843610002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>610</v>
@@ -603,9 +603,11 @@
         <v>-7471.148843610002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>610</v>
+      </c>
       <c r="J6" t="n">
         <v>610</v>
       </c>
@@ -642,9 +644,11 @@
         <v>-6778.148843610002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>610</v>
+      </c>
       <c r="J7" t="n">
         <v>610</v>
       </c>
@@ -681,7 +685,7 @@
         <v>-3315.148843610002</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>612</v>
@@ -722,7 +726,7 @@
         <v>-3315.148843610002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>613</v>
@@ -763,7 +767,7 @@
         <v>-3315.148843610002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>613</v>
@@ -804,7 +808,7 @@
         <v>-3216.448843610002</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>613</v>
@@ -845,7 +849,7 @@
         <v>-3463.548843610002</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>614</v>
@@ -886,7 +890,7 @@
         <v>-3269.448843610002</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>613</v>
@@ -927,7 +931,7 @@
         <v>-4925.735943610001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>614</v>
@@ -968,7 +972,7 @@
         <v>-4925.735943610001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>613</v>
@@ -1009,7 +1013,7 @@
         <v>-4925.735943610001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>613</v>
@@ -1050,7 +1054,7 @@
         <v>-4925.735943610001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>613</v>
@@ -1091,7 +1095,7 @@
         <v>-3296.735943610001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>613</v>
@@ -1132,7 +1136,7 @@
         <v>-3296.735943610001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>614</v>
@@ -1173,7 +1177,7 @@
         <v>683.7799563899985</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>614</v>
@@ -1214,7 +1218,7 @@
         <v>5944.731456389998</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>615</v>
@@ -1255,7 +1259,7 @@
         <v>6476.812599999998</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>619</v>
@@ -1296,7 +1300,7 @@
         <v>6476.812599999998</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>625</v>
@@ -1337,7 +1341,7 @@
         <v>6476.812599999998</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>625</v>
@@ -1378,7 +1382,7 @@
         <v>6476.812599999998</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>625</v>
@@ -1419,7 +1423,7 @@
         <v>6674.812599999998</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>625</v>
@@ -1460,7 +1464,7 @@
         <v>6019.812599999998</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>626</v>
@@ -1501,7 +1505,7 @@
         <v>4018.842899999998</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>625</v>
@@ -1542,7 +1546,7 @@
         <v>4226.042899999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>620</v>
@@ -1583,7 +1587,7 @@
         <v>4226.042899999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>624</v>
@@ -1624,7 +1628,7 @@
         <v>4226.042899999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>624</v>
@@ -1665,7 +1669,7 @@
         <v>4226.042899999999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>624</v>
@@ -1706,7 +1710,7 @@
         <v>4226.042899999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>624</v>
@@ -1747,7 +1751,7 @@
         <v>4226.042899999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>624</v>
@@ -1788,7 +1792,7 @@
         <v>-119.0569000000014</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>624</v>
@@ -1829,7 +1833,7 @@
         <v>-119.0569000000014</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>622</v>
@@ -1870,7 +1874,7 @@
         <v>-724.9400000000014</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>622</v>
@@ -1911,9 +1915,11 @@
         <v>-630.7400000000014</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>621</v>
+      </c>
       <c r="J38" t="n">
         <v>610</v>
       </c>
@@ -1950,7 +1956,7 @@
         <v>-630.7400000000014</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>624</v>
@@ -1991,7 +1997,7 @@
         <v>-629.7400000000014</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>624</v>
@@ -2032,7 +2038,7 @@
         <v>-629.7400000000014</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>626</v>
@@ -2073,9 +2079,11 @@
         <v>-629.7400000000014</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>626</v>
+      </c>
       <c r="J42" t="n">
         <v>610</v>
       </c>
@@ -2112,9 +2120,11 @@
         <v>8897.817399999998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>626</v>
+      </c>
       <c r="J43" t="n">
         <v>610</v>
       </c>
@@ -2151,9 +2161,11 @@
         <v>8897.817399999998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>630</v>
+      </c>
       <c r="J44" t="n">
         <v>610</v>
       </c>
@@ -2190,9 +2202,11 @@
         <v>27078.6845</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>630</v>
+      </c>
       <c r="J45" t="n">
         <v>610</v>
       </c>
@@ -2463,9 +2477,11 @@
         <v>43358.0192</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>638</v>
+      </c>
       <c r="J52" t="n">
         <v>610</v>
       </c>
@@ -2502,9 +2518,11 @@
         <v>49320.1923</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>640</v>
+      </c>
       <c r="J53" t="n">
         <v>610</v>
       </c>
@@ -2541,9 +2559,11 @@
         <v>52333.8867</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>641</v>
+      </c>
       <c r="J54" t="n">
         <v>610</v>
       </c>
@@ -2619,9 +2639,11 @@
         <v>56640.92859999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>648</v>
+      </c>
       <c r="J56" t="n">
         <v>610</v>
       </c>
@@ -2736,9 +2758,11 @@
         <v>52804.32799999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>631</v>
+      </c>
       <c r="J59" t="n">
         <v>610</v>
       </c>
@@ -6441,7 +6465,7 @@
         <v>45699.0068</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
@@ -6449,11 +6473,11 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L154" t="n">
-        <v>1.039262295081967</v>
+        <v>1</v>
       </c>
       <c r="M154" t="inlineStr"/>
     </row>
@@ -6483,8 +6507,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>610</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6516,8 +6546,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>610</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6546,11 +6582,17 @@
         <v>46711.09699999999</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>610</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6579,11 +6621,17 @@
         <v>46536.09699999999</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>610</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6615,8 +6663,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>610</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6648,8 +6702,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>610</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6678,11 +6738,17 @@
         <v>45498.3245</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>610</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6714,8 +6780,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>610</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6747,8 +6819,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>610</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6780,8 +6858,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>610</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6813,8 +6897,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>610</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6846,8 +6936,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>610</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6879,8 +6975,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>610</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6912,8 +7014,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>610</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6945,8 +7053,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>610</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6978,8 +7092,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>610</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7011,8 +7131,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>610</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7044,8 +7170,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>610</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7077,8 +7209,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>610</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7110,8 +7248,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>610</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7143,8 +7287,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>610</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7176,8 +7326,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>610</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7209,8 +7365,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>610</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7242,8 +7404,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>610</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7275,8 +7443,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>610</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7308,8 +7482,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>610</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7341,8 +7521,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>610</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7374,8 +7560,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>610</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7407,8 +7599,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>610</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7440,8 +7638,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>610</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7473,8 +7677,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>610</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7506,8 +7716,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>610</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7539,8 +7755,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>610</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7572,8 +7794,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>610</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7605,8 +7833,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>610</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7638,8 +7872,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>610</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7671,8 +7911,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>610</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7704,8 +7950,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>610</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7737,8 +7989,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>610</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7770,8 +8028,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>610</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7803,8 +8067,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>610</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7836,8 +8106,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>610</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7869,8 +8145,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>610</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7902,8 +8184,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>610</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7935,8 +8223,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>610</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7968,8 +8262,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>610</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8001,8 +8301,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>610</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8034,8 +8340,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>610</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8067,8 +8379,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>610</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8100,8 +8418,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>610</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8133,8 +8457,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>610</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8166,8 +8496,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>610</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8199,8 +8535,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>610</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8232,8 +8574,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>610</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8265,8 +8613,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>610</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8298,8 +8652,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>610</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8331,8 +8691,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>610</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8364,8 +8730,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>610</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8397,8 +8769,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>610</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8427,11 +8805,17 @@
         <v>56602.87569999999</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>610</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8463,8 +8847,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>610</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8496,8 +8886,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>610</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8529,8 +8925,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>610</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8562,8 +8964,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>610</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8595,8 +9003,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>610</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8625,11 +9039,17 @@
         <v>62423.12769999999</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>610</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8658,11 +9078,17 @@
         <v>63966.45099999999</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>610</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8691,11 +9117,17 @@
         <v>59578.95509999998</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>610</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8724,11 +9156,17 @@
         <v>59578.95509999998</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>610</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8757,11 +9195,17 @@
         <v>57244.24779999998</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>610</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8790,11 +9234,17 @@
         <v>57244.24779999998</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>610</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8823,11 +9273,17 @@
         <v>57194.24779999998</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>610</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8859,8 +9315,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>610</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8889,11 +9351,17 @@
         <v>57294.24779999998</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>610</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8922,11 +9390,17 @@
         <v>56495.62339999998</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>610</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8955,11 +9429,17 @@
         <v>57065.62339999998</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>610</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8988,11 +9468,17 @@
         <v>57059.11749999999</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>610</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9021,11 +9507,17 @@
         <v>56777.04549999999</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>610</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9057,8 +9549,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>610</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9087,11 +9585,17 @@
         <v>56777.04559999999</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>610</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9120,11 +9624,17 @@
         <v>56062.08049999999</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>610</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9153,11 +9663,17 @@
         <v>56277.76119999999</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>610</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9186,11 +9702,17 @@
         <v>56277.76119999999</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>610</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9219,11 +9741,17 @@
         <v>55938.95379999999</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>610</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9255,8 +9783,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>610</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9285,11 +9819,17 @@
         <v>54222.46839999999</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>610</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9318,11 +9858,17 @@
         <v>55474.62559999999</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>610</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9351,11 +9897,17 @@
         <v>57260.66649999999</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>610</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9384,11 +9936,17 @@
         <v>57260.66649999999</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>610</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9417,11 +9975,17 @@
         <v>57260.66649999999</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>610</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9453,8 +10017,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>610</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9483,11 +10053,17 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>610</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9516,11 +10092,17 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>610</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9549,11 +10131,17 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>610</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9585,8 +10173,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>610</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9618,8 +10212,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>610</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9651,8 +10251,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>610</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9684,8 +10290,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>610</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9717,8 +10329,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>610</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9750,8 +10368,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>610</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9783,8 +10407,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>610</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9816,8 +10446,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>610</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9849,8 +10485,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>610</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9882,8 +10524,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>610</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9915,8 +10563,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>610</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9948,8 +10602,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>610</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9981,8 +10641,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>610</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10014,8 +10680,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>610</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10044,11 +10716,17 @@
         <v>64885.2251</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>610</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10080,8 +10758,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>610</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10110,11 +10794,17 @@
         <v>72736.07845783999</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>610</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10143,11 +10833,17 @@
         <v>72736.07845783999</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>610</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10176,11 +10872,17 @@
         <v>96310.16385783999</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>610</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10209,11 +10911,17 @@
         <v>117193.4219444</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>610</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10242,11 +10950,17 @@
         <v>124429.36107052</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>610</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10275,11 +10989,17 @@
         <v>125383.27607224</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>610</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10308,11 +11028,17 @@
         <v>126509.32627224</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>610</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10341,11 +11067,17 @@
         <v>126509.32627224</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>610</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10374,11 +11106,17 @@
         <v>123139.89937224</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>610</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10407,11 +11145,17 @@
         <v>123141.29967224</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>610</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10440,11 +11184,17 @@
         <v>118068.54577224</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>610</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10473,11 +11223,17 @@
         <v>125952.82077224</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>610</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10506,11 +11262,17 @@
         <v>126227.06397224</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>610</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10539,15 +11301,23 @@
         <v>124008.52837224</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>610</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+        <v>1.134344262295082</v>
+      </c>
+      <c r="M278" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10572,7 +11342,7 @@
         <v>123224.27397224</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10605,7 +11375,7 @@
         <v>123224.27397224</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10638,7 +11408,7 @@
         <v>125516.34697224</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10671,7 +11441,7 @@
         <v>127953.47357224</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10704,7 +11474,7 @@
         <v>127953.47357224</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10737,7 +11507,7 @@
         <v>132355.98887224</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10770,7 +11540,7 @@
         <v>131690.27717224</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10803,7 +11573,7 @@
         <v>130588.68497224</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10836,7 +11606,7 @@
         <v>130989.21827224</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10869,7 +11639,7 @@
         <v>131320.85987224</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10902,7 +11672,7 @@
         <v>129906.85987224</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10935,7 +11705,7 @@
         <v>126689.10057224</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10946,6 +11716,6 @@
       <c r="M290" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-14 BackTest PPT.xlsx
+++ b/BackTest/2019-11-14 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1300,11 +1300,9 @@
         <v>6476.812599999998</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>610</v>
       </c>
@@ -1341,11 +1339,9 @@
         <v>6476.812599999998</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>610</v>
       </c>
@@ -1382,11 +1378,9 @@
         <v>6476.812599999998</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>610</v>
       </c>
@@ -1423,11 +1417,9 @@
         <v>6674.812599999998</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>610</v>
       </c>
@@ -1464,11 +1456,9 @@
         <v>6019.812599999998</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>610</v>
       </c>
@@ -1505,11 +1495,9 @@
         <v>4018.842899999998</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>610</v>
       </c>
@@ -1546,11 +1534,9 @@
         <v>4226.042899999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>610</v>
       </c>
@@ -1587,11 +1573,9 @@
         <v>4226.042899999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>610</v>
       </c>
@@ -1628,11 +1612,9 @@
         <v>4226.042899999999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>610</v>
       </c>
@@ -1669,11 +1651,9 @@
         <v>4226.042899999999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>610</v>
       </c>
@@ -1710,11 +1690,9 @@
         <v>4226.042899999999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>610</v>
       </c>
@@ -1751,11 +1729,9 @@
         <v>4226.042899999999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>610</v>
       </c>
@@ -1792,11 +1768,9 @@
         <v>-119.0569000000014</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>610</v>
       </c>
@@ -1833,11 +1807,9 @@
         <v>-119.0569000000014</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>622</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>610</v>
       </c>
@@ -1874,11 +1846,9 @@
         <v>-724.9400000000014</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>622</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>610</v>
       </c>
@@ -1915,11 +1885,9 @@
         <v>-630.7400000000014</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>610</v>
       </c>
@@ -1956,11 +1924,9 @@
         <v>-630.7400000000014</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>610</v>
       </c>
@@ -1997,11 +1963,9 @@
         <v>-629.7400000000014</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>610</v>
       </c>
@@ -2038,11 +2002,9 @@
         <v>-629.7400000000014</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>610</v>
       </c>
@@ -2079,11 +2041,9 @@
         <v>-629.7400000000014</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>610</v>
       </c>
@@ -2120,11 +2080,9 @@
         <v>8897.817399999998</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>610</v>
       </c>
@@ -2161,11 +2119,9 @@
         <v>8897.817399999998</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>610</v>
       </c>
@@ -2202,11 +2158,9 @@
         <v>27078.6845</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>610</v>
       </c>
@@ -2243,7 +2197,7 @@
         <v>27079.6845</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
@@ -2251,11 +2205,11 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>1.032704918032787</v>
       </c>
       <c r="M46" t="inlineStr"/>
     </row>
@@ -2282,17 +2236,11 @@
         <v>27079.6845</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>610</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2324,14 +2272,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>610</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2363,14 +2305,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>610</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2402,14 +2338,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>610</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2441,14 +2371,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>610</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2477,19 +2401,11 @@
         <v>43358.0192</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>638</v>
-      </c>
-      <c r="J52" t="n">
-        <v>610</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2518,19 +2434,11 @@
         <v>49320.1923</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>640</v>
-      </c>
-      <c r="J53" t="n">
-        <v>610</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2559,19 +2467,11 @@
         <v>52333.8867</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>641</v>
-      </c>
-      <c r="J54" t="n">
-        <v>610</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2600,17 +2500,11 @@
         <v>57379.81449999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>610</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2639,19 +2533,11 @@
         <v>56640.92859999999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>648</v>
-      </c>
-      <c r="J56" t="n">
-        <v>610</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2680,17 +2566,11 @@
         <v>55894.44619999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>610</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2719,17 +2599,11 @@
         <v>52804.32799999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>610</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2758,19 +2632,11 @@
         <v>52804.32799999999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>631</v>
-      </c>
-      <c r="J59" t="n">
-        <v>610</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2799,17 +2665,11 @@
         <v>53141.57369999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>610</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2841,14 +2701,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>610</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2880,14 +2734,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>610</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2919,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>610</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2958,14 +2800,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>610</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2997,14 +2833,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>610</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3036,14 +2866,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>610</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3072,17 +2896,11 @@
         <v>42613.05659999999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>610</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3114,14 +2932,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>610</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3153,14 +2965,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>610</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3192,14 +2998,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>610</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3231,14 +3031,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>610</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3270,14 +3064,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>610</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3309,14 +3097,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>610</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3348,14 +3130,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>610</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3387,14 +3163,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>610</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3426,14 +3196,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>610</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3465,14 +3229,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>610</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3504,14 +3262,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>610</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3543,14 +3295,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>610</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3582,14 +3328,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>610</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3621,14 +3361,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>610</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3660,14 +3394,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>610</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3696,17 +3424,11 @@
         <v>50478.94809999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>610</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3735,17 +3457,11 @@
         <v>50478.94809999999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>610</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3777,14 +3493,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>610</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3816,14 +3526,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>610</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3855,14 +3559,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>610</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3894,14 +3592,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>610</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3933,14 +3625,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>610</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3972,14 +3658,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>610</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -4011,14 +3691,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>610</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4050,14 +3724,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>610</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4089,14 +3757,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>610</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4128,14 +3790,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>610</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4167,14 +3823,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>610</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4206,14 +3856,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>610</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4245,14 +3889,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>610</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4284,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>610</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4323,14 +3955,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>610</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4362,14 +3988,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>610</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4401,14 +4021,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>610</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4440,14 +4054,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>610</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4479,14 +4087,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>610</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4518,14 +4120,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>610</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4557,14 +4153,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>610</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4596,14 +4186,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>610</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4635,14 +4219,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>610</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4674,14 +4252,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>610</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4713,14 +4285,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>610</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4752,14 +4318,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>610</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4791,14 +4351,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>610</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4830,14 +4384,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>610</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4869,14 +4417,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>610</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4908,14 +4450,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>610</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4947,14 +4483,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>610</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4986,14 +4516,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>610</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5025,14 +4549,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>610</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5064,14 +4582,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>610</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5103,14 +4615,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>610</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5142,14 +4648,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>610</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5181,14 +4681,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>610</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5220,14 +4714,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>610</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5259,14 +4747,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>610</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5298,14 +4780,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>610</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5337,14 +4813,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>610</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5376,14 +4846,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>610</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5415,14 +4879,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>610</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5454,14 +4912,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>610</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5493,14 +4945,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>610</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5532,14 +4978,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>610</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5571,14 +5011,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>610</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5610,14 +5044,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>610</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5649,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>610</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5688,14 +5110,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>610</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5727,14 +5143,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>610</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5766,14 +5176,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>610</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5805,14 +5209,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>610</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5844,14 +5242,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>610</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5883,14 +5275,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>610</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5922,14 +5308,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>610</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5961,14 +5341,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>610</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6000,14 +5374,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>610</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6039,14 +5407,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>610</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6078,14 +5440,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>610</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6117,14 +5473,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>610</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6156,14 +5506,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>610</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6195,14 +5539,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>610</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6234,14 +5572,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>610</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6273,14 +5605,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>610</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6312,14 +5638,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>610</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6351,14 +5671,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>610</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6390,14 +5704,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>610</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6429,14 +5737,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>610</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6468,14 +5770,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>610</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6507,14 +5803,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>610</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6546,14 +5836,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>610</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6585,14 +5869,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>610</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6624,14 +5902,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>610</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6663,14 +5935,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>610</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6702,14 +5968,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>610</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6741,14 +6001,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>610</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6780,14 +6034,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>610</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6819,14 +6067,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>610</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6858,14 +6100,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>610</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6897,14 +6133,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>610</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6936,14 +6166,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>610</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6975,14 +6199,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>610</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7014,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>610</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7053,14 +6265,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>610</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7092,14 +6298,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>610</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7131,14 +6331,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>610</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7170,14 +6364,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>610</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7209,14 +6397,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>610</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7248,14 +6430,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>610</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7287,14 +6463,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>610</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7326,14 +6496,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>610</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7365,14 +6529,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>610</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7404,14 +6562,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>610</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7443,14 +6595,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>610</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7482,14 +6628,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>610</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7521,14 +6661,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>610</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7560,14 +6694,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>610</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7599,14 +6727,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>610</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7638,14 +6760,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>610</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7677,14 +6793,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>610</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7716,14 +6826,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>610</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7755,14 +6859,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>610</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7794,14 +6892,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>610</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7833,14 +6925,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>610</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7872,14 +6958,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>610</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7911,14 +6991,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>610</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7950,14 +7024,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>610</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7989,14 +7057,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>610</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8028,14 +7090,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>610</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8067,14 +7123,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>610</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8106,14 +7156,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>610</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8145,14 +7189,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>610</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8184,14 +7222,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>610</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8223,14 +7255,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>610</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8262,14 +7288,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>610</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8301,14 +7321,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>610</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8340,14 +7354,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>610</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8379,14 +7387,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>610</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8418,14 +7420,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>610</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8457,14 +7453,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>610</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8496,14 +7486,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>610</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8535,14 +7519,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>610</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8574,14 +7552,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>610</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8613,14 +7585,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>610</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8652,14 +7618,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>610</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8691,14 +7651,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>610</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8730,14 +7684,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>610</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8769,14 +7717,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>610</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8808,14 +7750,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>610</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8847,14 +7783,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>610</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8886,14 +7816,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>610</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8925,14 +7849,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>610</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8964,14 +7882,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>610</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9000,17 +7912,11 @@
         <v>60793.12769999999</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>610</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9039,17 +7945,11 @@
         <v>62423.12769999999</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>610</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9078,17 +7978,11 @@
         <v>63966.45099999999</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>610</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9117,17 +8011,11 @@
         <v>59578.95509999998</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>610</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9156,17 +8044,11 @@
         <v>59578.95509999998</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>610</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9195,17 +8077,11 @@
         <v>57244.24779999998</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>610</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9234,17 +8110,11 @@
         <v>57244.24779999998</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>610</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9273,17 +8143,11 @@
         <v>57194.24779999998</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>610</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9312,17 +8176,11 @@
         <v>57294.24779999998</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>610</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9351,17 +8209,11 @@
         <v>57294.24779999998</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>610</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9390,17 +8242,11 @@
         <v>56495.62339999998</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>610</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9429,17 +8275,11 @@
         <v>57065.62339999998</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>610</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9468,17 +8308,11 @@
         <v>57059.11749999999</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>610</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9507,17 +8341,11 @@
         <v>56777.04549999999</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>610</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9546,17 +8374,11 @@
         <v>56680.97459999999</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>610</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9585,17 +8407,11 @@
         <v>56777.04559999999</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>610</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9624,17 +8440,11 @@
         <v>56062.08049999999</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>610</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9663,17 +8473,11 @@
         <v>56277.76119999999</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>610</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9702,17 +8506,11 @@
         <v>56277.76119999999</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>610</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9741,17 +8539,11 @@
         <v>55938.95379999999</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>610</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9780,17 +8572,11 @@
         <v>55938.95379999999</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>610</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9819,17 +8605,11 @@
         <v>54222.46839999999</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>610</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9858,17 +8638,11 @@
         <v>55474.62559999999</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>610</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9897,17 +8671,11 @@
         <v>57260.66649999999</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>610</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9936,17 +8704,11 @@
         <v>57260.66649999999</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>610</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9975,17 +8737,11 @@
         <v>57260.66649999999</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>610</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10014,17 +8770,11 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>610</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10053,17 +8803,11 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>610</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10092,17 +8836,11 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>610</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10131,17 +8869,11 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>610</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10170,17 +8902,11 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>610</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10209,17 +8935,11 @@
         <v>63117.22899999999</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>610</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10248,17 +8968,11 @@
         <v>62979.21489999999</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>610</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10287,17 +9001,11 @@
         <v>61436.39639999999</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>610</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10326,17 +9034,11 @@
         <v>62436.39639999999</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>610</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10365,17 +9067,11 @@
         <v>63136.39639999999</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>610</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10404,17 +9100,11 @@
         <v>63136.39639999999</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>610</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10443,17 +9133,11 @@
         <v>62589.26279999999</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>610</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10485,14 +9169,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>610</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10524,14 +9202,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>610</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10563,14 +9235,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>610</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10602,14 +9268,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>610</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10641,14 +9301,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>610</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10680,14 +9334,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>610</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10719,14 +9367,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>610</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10758,14 +9400,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>610</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10797,14 +9433,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>610</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10836,14 +9466,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>610</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10875,14 +9499,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>610</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10914,14 +9532,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>610</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10953,14 +9565,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>610</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10992,14 +9598,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>610</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11031,14 +9631,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>610</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11070,14 +9664,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>610</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11109,14 +9697,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>610</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11148,14 +9730,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>610</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11187,14 +9763,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>610</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11226,14 +9796,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>610</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11265,14 +9829,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>610</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11301,23 +9859,15 @@
         <v>124008.52837224</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>610</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
-        <v>1.134344262295082</v>
-      </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11342,7 +9892,7 @@
         <v>123224.27397224</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11375,7 +9925,7 @@
         <v>123224.27397224</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11408,7 +9958,7 @@
         <v>125516.34697224</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11441,7 +9991,7 @@
         <v>127953.47357224</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11474,7 +10024,7 @@
         <v>127953.47357224</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11507,7 +10057,7 @@
         <v>132355.98887224</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11540,7 +10090,7 @@
         <v>131690.27717224</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11573,7 +10123,7 @@
         <v>130588.68497224</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11606,7 +10156,7 @@
         <v>130989.21827224</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11639,7 +10189,7 @@
         <v>131320.85987224</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11672,7 +10222,7 @@
         <v>129906.85987224</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11705,7 +10255,7 @@
         <v>126689.10057224</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11716,6 +10266,6 @@
       <c r="M290" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-14 BackTest PPT.xlsx
+++ b/BackTest/2019-11-14 BackTest PPT.xlsx
@@ -1054,11 +1054,9 @@
         <v>-4925.735943610001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>613</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>610</v>
       </c>
@@ -1136,11 +1134,9 @@
         <v>-3296.735943610001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>610</v>
       </c>
@@ -1177,11 +1173,9 @@
         <v>683.7799563899985</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>610</v>
       </c>
@@ -1218,11 +1212,9 @@
         <v>5944.731456389998</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>610</v>
       </c>
@@ -1259,11 +1251,9 @@
         <v>6476.812599999998</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>610</v>
       </c>
@@ -2197,7 +2187,7 @@
         <v>27079.6845</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
@@ -2205,11 +2195,11 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.032704918032787</v>
+        <v>1</v>
       </c>
       <c r="M46" t="inlineStr"/>
     </row>
@@ -2236,11 +2226,17 @@
         <v>27079.6845</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>610</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2272,8 +2268,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>610</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2305,8 +2307,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>610</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2338,8 +2346,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>610</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2371,8 +2385,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>610</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2404,8 +2424,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>610</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2434,11 +2460,17 @@
         <v>49320.1923</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>610</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2467,11 +2499,17 @@
         <v>52333.8867</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>610</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2500,11 +2538,17 @@
         <v>57379.81449999999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>610</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2533,11 +2577,17 @@
         <v>56640.92859999999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>610</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2566,11 +2616,17 @@
         <v>55894.44619999999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>610</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2599,11 +2655,17 @@
         <v>52804.32799999999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>610</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2632,11 +2694,17 @@
         <v>52804.32799999999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>610</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2665,11 +2733,17 @@
         <v>53141.57369999999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>610</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2701,8 +2775,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>610</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2734,8 +2814,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>610</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2767,8 +2853,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>610</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2800,8 +2892,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>610</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2833,8 +2931,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>610</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2866,8 +2970,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>610</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2896,11 +3006,17 @@
         <v>42613.05659999999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>610</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2932,8 +3048,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>610</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2965,8 +3087,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>610</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2998,8 +3126,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>610</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3031,8 +3165,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>610</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3064,8 +3204,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>610</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3097,8 +3243,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>610</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3130,8 +3282,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>610</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3163,8 +3321,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>610</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3196,8 +3360,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>610</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3229,8 +3399,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>610</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3262,8 +3438,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>610</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3295,8 +3477,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>610</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3328,8 +3516,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>610</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3361,8 +3555,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>610</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3394,8 +3594,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>610</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3424,11 +3630,17 @@
         <v>50478.94809999999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>610</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3457,11 +3669,17 @@
         <v>50478.94809999999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>610</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3493,8 +3711,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>610</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3526,8 +3750,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>610</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3559,8 +3789,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>610</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3592,8 +3828,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>610</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3625,8 +3867,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>610</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3658,8 +3906,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>610</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3691,8 +3945,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>610</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3724,8 +3984,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>610</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3757,8 +4023,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>610</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3790,8 +4062,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>610</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3823,8 +4101,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>610</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3856,8 +4140,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>610</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3889,8 +4179,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>610</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3922,8 +4218,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>610</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3955,8 +4257,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>610</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3988,8 +4296,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>610</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4021,8 +4335,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>610</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4054,8 +4374,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>610</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4087,8 +4413,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>610</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4120,8 +4452,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>610</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4153,8 +4491,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>610</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4186,8 +4530,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>610</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4219,8 +4569,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>610</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4252,8 +4608,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>610</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4285,8 +4647,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>610</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4318,8 +4686,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>610</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4351,8 +4725,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>610</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4384,8 +4764,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>610</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4417,8 +4803,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>610</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4450,8 +4842,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>610</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4483,8 +4881,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>610</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4516,8 +4920,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>610</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4549,8 +4959,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>610</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4582,8 +4998,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>610</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4615,8 +5037,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>610</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4648,8 +5076,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>610</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4681,8 +5115,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>610</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4714,8 +5154,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>610</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4747,8 +5193,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>610</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4780,8 +5232,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>610</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4813,8 +5271,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>610</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4846,8 +5310,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>610</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4879,8 +5349,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>610</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4912,8 +5388,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>610</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4945,8 +5427,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>610</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4978,8 +5466,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>610</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5011,8 +5505,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>610</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5044,8 +5544,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>610</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5077,8 +5583,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>610</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5110,8 +5622,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>610</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5143,8 +5661,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>610</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5176,8 +5700,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>610</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5209,8 +5739,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>610</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5242,8 +5778,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>610</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5275,8 +5817,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>610</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5308,8 +5856,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>610</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5341,8 +5895,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>610</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5374,8 +5934,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>610</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5407,8 +5973,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>610</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5440,8 +6012,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>610</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5473,8 +6051,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>610</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5506,8 +6090,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>610</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5539,8 +6129,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>610</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5572,8 +6168,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>610</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5605,8 +6207,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>610</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5638,8 +6246,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>610</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5671,8 +6285,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>610</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5704,8 +6324,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>610</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5737,8 +6363,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>610</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5770,8 +6402,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>610</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5803,8 +6441,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>610</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5836,8 +6480,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>610</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5869,8 +6519,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>610</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5902,8 +6558,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>610</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5935,8 +6597,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>610</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5968,8 +6636,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>610</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6001,8 +6675,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>610</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6034,8 +6714,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>610</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6067,8 +6753,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>610</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6100,8 +6792,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>610</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6133,8 +6831,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>610</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6166,8 +6870,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>610</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6199,8 +6909,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>610</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6232,8 +6948,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>610</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6265,8 +6987,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>610</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6298,8 +7026,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>610</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6331,8 +7065,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>610</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6364,8 +7104,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>610</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6397,8 +7143,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>610</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6430,8 +7182,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>610</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6463,8 +7221,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>610</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6496,8 +7260,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>610</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6529,8 +7299,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>610</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6562,8 +7338,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>610</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6595,8 +7377,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>610</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6628,8 +7416,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>610</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6661,8 +7455,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>610</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6694,8 +7494,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>610</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6727,8 +7533,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>610</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6760,8 +7572,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>610</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6793,8 +7611,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>610</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6826,8 +7650,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>610</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6859,8 +7689,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>610</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6892,8 +7728,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>610</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6925,8 +7767,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>610</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6958,8 +7806,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>610</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6991,8 +7845,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>610</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7024,8 +7884,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>610</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7057,8 +7923,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>610</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7090,8 +7962,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>610</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7123,8 +8001,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>610</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7156,8 +8040,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>610</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7189,8 +8079,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>610</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7222,8 +8118,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>610</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7255,8 +8157,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>610</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7288,8 +8196,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>610</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7321,8 +8235,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>610</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7354,8 +8274,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>610</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7387,8 +8313,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>610</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7420,8 +8352,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>610</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7453,8 +8391,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>610</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7486,8 +8430,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>610</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7519,8 +8469,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>610</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7552,8 +8508,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>610</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7585,8 +8547,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>610</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7618,8 +8586,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>610</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7651,8 +8625,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>610</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7684,8 +8664,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>610</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7717,8 +8703,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>610</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7750,8 +8742,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>610</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7783,8 +8781,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>610</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7816,8 +8820,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>610</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7849,8 +8859,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>610</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7882,8 +8898,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>610</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7912,11 +8934,17 @@
         <v>60793.12769999999</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>610</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7945,11 +8973,17 @@
         <v>62423.12769999999</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>610</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7978,11 +9012,17 @@
         <v>63966.45099999999</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>610</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8011,11 +9051,17 @@
         <v>59578.95509999998</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>610</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8044,11 +9090,17 @@
         <v>59578.95509999998</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>610</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8077,11 +9129,17 @@
         <v>57244.24779999998</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>610</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8110,11 +9168,17 @@
         <v>57244.24779999998</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>610</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8143,11 +9207,17 @@
         <v>57194.24779999998</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>610</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8176,11 +9246,17 @@
         <v>57294.24779999998</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>610</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8209,11 +9285,17 @@
         <v>57294.24779999998</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>610</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8242,11 +9324,17 @@
         <v>56495.62339999998</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>610</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8275,11 +9363,17 @@
         <v>57065.62339999998</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>610</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8308,11 +9402,17 @@
         <v>57059.11749999999</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>610</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8341,11 +9441,17 @@
         <v>56777.04549999999</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>610</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8374,11 +9480,17 @@
         <v>56680.97459999999</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>610</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8407,11 +9519,17 @@
         <v>56777.04559999999</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>610</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8440,11 +9558,17 @@
         <v>56062.08049999999</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>610</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8473,11 +9597,17 @@
         <v>56277.76119999999</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>610</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8506,11 +9636,17 @@
         <v>56277.76119999999</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>610</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8539,11 +9675,17 @@
         <v>55938.95379999999</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>610</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8572,11 +9714,17 @@
         <v>55938.95379999999</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>610</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8605,11 +9753,17 @@
         <v>54222.46839999999</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>610</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8638,11 +9792,17 @@
         <v>55474.62559999999</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>610</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8671,11 +9831,17 @@
         <v>57260.66649999999</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>610</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8704,11 +9870,17 @@
         <v>57260.66649999999</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>610</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8737,11 +9909,17 @@
         <v>57260.66649999999</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>610</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8770,11 +9948,17 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>610</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8803,11 +9987,17 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>610</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8836,11 +10026,17 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>610</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8869,11 +10065,17 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>610</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8902,11 +10104,17 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>610</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8935,11 +10143,17 @@
         <v>63117.22899999999</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>610</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8968,11 +10182,17 @@
         <v>62979.21489999999</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>610</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9001,11 +10221,17 @@
         <v>61436.39639999999</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>610</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9034,11 +10260,17 @@
         <v>62436.39639999999</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>610</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9067,11 +10299,17 @@
         <v>63136.39639999999</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>610</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9100,11 +10338,17 @@
         <v>63136.39639999999</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>610</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9133,11 +10377,17 @@
         <v>62589.26279999999</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>610</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9169,8 +10419,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>610</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9202,8 +10458,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>610</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9235,8 +10497,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>610</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9268,8 +10536,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>610</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9301,8 +10575,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>610</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9334,8 +10614,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>610</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9367,8 +10653,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>610</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9400,8 +10692,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>610</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9433,8 +10731,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>610</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9466,8 +10770,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>610</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9499,8 +10809,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>610</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9532,8 +10848,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>610</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9565,8 +10887,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>610</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9598,8 +10926,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>610</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9631,8 +10965,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>610</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9664,8 +11004,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>610</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9697,8 +11043,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>610</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9730,8 +11082,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>610</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9763,8 +11121,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>610</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9796,8 +11160,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>610</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9829,8 +11199,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>610</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9862,8 +11238,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>610</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9892,15 +11274,23 @@
         <v>123224.27397224</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>610</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+        <v>1.131065573770492</v>
+      </c>
+      <c r="M279" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9925,7 +11315,7 @@
         <v>123224.27397224</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9958,7 +11348,7 @@
         <v>125516.34697224</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9991,7 +11381,7 @@
         <v>127953.47357224</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10024,7 +11414,7 @@
         <v>127953.47357224</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10057,7 +11447,7 @@
         <v>132355.98887224</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10090,7 +11480,7 @@
         <v>131690.27717224</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10123,7 +11513,7 @@
         <v>130588.68497224</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10156,7 +11546,7 @@
         <v>130989.21827224</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10189,7 +11579,7 @@
         <v>131320.85987224</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10222,7 +11612,7 @@
         <v>129906.85987224</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10255,7 +11645,7 @@
         <v>126689.10057224</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
